--- a/data/聚类数据集.xlsx
+++ b/data/聚类数据集.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\限售股分析\RestrictStockAnalysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC8C0DE7-A93D-4B73-827A-F1C57FCC333E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A5C41DC-856D-4B48-902B-54033DA3D10F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="347">
   <si>
     <t>代码</t>
   </si>
@@ -1042,6 +1042,30 @@
   </si>
   <si>
     <t>解禁日期</t>
+  </si>
+  <si>
+    <t>十日收益率</t>
+  </si>
+  <si>
+    <t>十六日收益率</t>
+  </si>
+  <si>
+    <t>二十日收益率</t>
+  </si>
+  <si>
+    <t>三十日收益率</t>
+  </si>
+  <si>
+    <t>六十日收益率</t>
+  </si>
+  <si>
+    <t>九十日收益率</t>
+  </si>
+  <si>
+    <t>六日收益率</t>
+  </si>
+  <si>
+    <t>basic_eps</t>
   </si>
 </sst>
 </file>
@@ -1095,7 +1119,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1105,6 +1129,9 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1386,10 +1413,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E169"/>
+  <dimension ref="A1:M169"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -1397,9 +1424,12 @@
     <col min="1" max="1" width="9.6796875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.7265625" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="14.1328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="12" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.6796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1415,8 +1445,32 @@
       <c r="E1" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="F1" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1430,10 +1484,34 @@
         <v>108287.86310999999</v>
       </c>
       <c r="E2" s="4">
-        <v>20.327045529801325</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.75">
+        <v>0.20327045529801324</v>
+      </c>
+      <c r="F2">
+        <v>0.38217988231997702</v>
+      </c>
+      <c r="G2">
+        <v>0.25456389452332601</v>
+      </c>
+      <c r="H2">
+        <v>9.9999999999900002E-2</v>
+      </c>
+      <c r="I2">
+        <v>0.15192307692307599</v>
+      </c>
+      <c r="J2">
+        <v>0.151270207852193</v>
+      </c>
+      <c r="K2">
+        <v>0.31050656660412701</v>
+      </c>
+      <c r="L2">
+        <v>0.42786715101193501</v>
+      </c>
+      <c r="M2">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -1447,10 +1525,34 @@
         <v>71997.543340000004</v>
       </c>
       <c r="E3" s="4">
-        <v>22.727817316409794</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.75">
+        <v>0.22727817316409793</v>
+      </c>
+      <c r="F3">
+        <v>-8.2303286101899201E-2</v>
+      </c>
+      <c r="G3">
+        <v>-0.18874172185430399</v>
+      </c>
+      <c r="H3">
+        <v>-0.24566273421235199</v>
+      </c>
+      <c r="I3">
+        <v>-0.25612316305108401</v>
+      </c>
+      <c r="J3">
+        <v>-0.35727788279773098</v>
+      </c>
+      <c r="K3">
+        <v>0.108960039712087</v>
+      </c>
+      <c r="L3">
+        <v>2.23311546840958E-2</v>
+      </c>
+      <c r="M3">
+        <v>0.46010000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -1464,10 +1566,34 @@
         <v>4315.0060799999992</v>
       </c>
       <c r="E4" s="4">
-        <v>0.41274169098744551</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.75">
+        <v>4.1274169098744554E-3</v>
+      </c>
+      <c r="F4">
+        <v>-4.0438656614119203E-2</v>
+      </c>
+      <c r="G4">
+        <v>2.75464445868033E-2</v>
+      </c>
+      <c r="H4">
+        <v>1.5883306320907599E-2</v>
+      </c>
+      <c r="I4">
+        <v>0.115126785193821</v>
+      </c>
+      <c r="J4">
+        <v>2.47349823321554E-2</v>
+      </c>
+      <c r="K4">
+        <v>-9.4448449891852901E-2</v>
+      </c>
+      <c r="L4">
+        <v>0.109677419354838</v>
+      </c>
+      <c r="M4">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -1481,10 +1607,34 @@
         <v>44215.142400000004</v>
       </c>
       <c r="E5" s="4">
-        <v>16.666468537804406</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.75">
+        <v>0.16666468537804405</v>
+      </c>
+      <c r="F5">
+        <v>-1.14942528735633E-2</v>
+      </c>
+      <c r="G5">
+        <v>-1.53846153846153E-2</v>
+      </c>
+      <c r="H5">
+        <v>1.4925373134328301E-2</v>
+      </c>
+      <c r="I5">
+        <v>-7.63358778625954E-3</v>
+      </c>
+      <c r="J5">
+        <v>-3.5294117647058899E-2</v>
+      </c>
+      <c r="K5">
+        <v>-2.3255813953488299E-2</v>
+      </c>
+      <c r="L5">
+        <v>-8.6419753086419707E-2</v>
+      </c>
+      <c r="M5">
+        <v>3.5799999999999998E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -1498,10 +1648,34 @@
         <v>1283.9293230000001</v>
       </c>
       <c r="E6" s="4">
-        <v>0.46118814962815691</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.75">
+        <v>4.6118814962815688E-3</v>
+      </c>
+      <c r="F6">
+        <v>3.4274193548386997E-2</v>
+      </c>
+      <c r="G6">
+        <v>2.6422764227642202E-2</v>
+      </c>
+      <c r="H6">
+        <v>6.6276803118908295E-2</v>
+      </c>
+      <c r="I6">
+        <v>6.2240663900415402E-3</v>
+      </c>
+      <c r="J6">
+        <v>3.2323232323232302E-2</v>
+      </c>
+      <c r="K6">
+        <v>0.114602587800369</v>
+      </c>
+      <c r="L6">
+        <v>-4.3572984749455299E-2</v>
+      </c>
+      <c r="M6">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
@@ -1515,10 +1689,34 @@
         <v>1019.3263739999999</v>
       </c>
       <c r="E7" s="4">
-        <v>0.39217717351220216</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.75">
+        <v>3.9217717351220215E-3</v>
+      </c>
+      <c r="F7">
+        <v>-8.6378737541527497E-3</v>
+      </c>
+      <c r="G7">
+        <v>-1.60642570281124E-2</v>
+      </c>
+      <c r="H7">
+        <v>-7.2992700729926597E-3</v>
+      </c>
+      <c r="I7">
+        <v>2.75464445868033E-2</v>
+      </c>
+      <c r="J7">
+        <v>-6.7510548523206607E-2</v>
+      </c>
+      <c r="K7">
+        <v>-8.42857142857142E-2</v>
+      </c>
+      <c r="L7">
+        <v>-8.5836909871244496E-2</v>
+      </c>
+      <c r="M7">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
@@ -1532,10 +1730,34 @@
         <v>4983.3126579999998</v>
       </c>
       <c r="E8" s="4">
-        <v>0.81033719355215794</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.75">
+        <v>8.1033719355215802E-3</v>
+      </c>
+      <c r="F8">
+        <v>6.9745069745069693E-2</v>
+      </c>
+      <c r="G8">
+        <v>6.9297401347449494E-2</v>
+      </c>
+      <c r="H8">
+        <v>7.3754789272030594E-2</v>
+      </c>
+      <c r="I8">
+        <v>3.5892323030907197E-2</v>
+      </c>
+      <c r="J8">
+        <v>-3.5331905781584502E-2</v>
+      </c>
+      <c r="K8">
+        <v>-7.2062084257206199E-2</v>
+      </c>
+      <c r="L8">
+        <v>-0.119861030689056</v>
+      </c>
+      <c r="M8">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
@@ -1549,10 +1771,34 @@
         <v>44377.066681999997</v>
       </c>
       <c r="E9" s="4">
-        <v>2.2917939103581091</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.75">
+        <v>2.291793910358109E-2</v>
+      </c>
+      <c r="F9">
+        <v>-7.7383924113829106E-2</v>
+      </c>
+      <c r="G9">
+        <v>5.4752518615856297E-2</v>
+      </c>
+      <c r="H9">
+        <v>0.150059078377314</v>
+      </c>
+      <c r="I9">
+        <v>0.10045852438515999</v>
+      </c>
+      <c r="J9">
+        <v>-1.3621418506340899E-2</v>
+      </c>
+      <c r="K9">
+        <v>0.270453008789722</v>
+      </c>
+      <c r="L9">
+        <v>0.15736040609137</v>
+      </c>
+      <c r="M9">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
@@ -1566,10 +1812,34 @@
         <v>135606.285864</v>
       </c>
       <c r="E10" s="4">
-        <v>59.191623537353735</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.75">
+        <v>0.59191623537353732</v>
+      </c>
+      <c r="F10">
+        <v>2.2451456310679602E-2</v>
+      </c>
+      <c r="G10">
+        <v>5.6239015817223202E-2</v>
+      </c>
+      <c r="H10">
+        <v>3.41726618705036E-2</v>
+      </c>
+      <c r="I10">
+        <v>2.8347406513871999E-2</v>
+      </c>
+      <c r="J10">
+        <v>-1.8975332068311101E-2</v>
+      </c>
+      <c r="K10">
+        <v>0.22918660287081299</v>
+      </c>
+      <c r="L10">
+        <v>-0.23353751914241899</v>
+      </c>
+      <c r="M10">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A11" s="2" t="s">
         <v>20</v>
       </c>
@@ -1583,10 +1853,34 @@
         <v>85077</v>
       </c>
       <c r="E11" s="4">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.75">
+        <v>0.25</v>
+      </c>
+      <c r="F11">
+        <v>0.31713217506047903</v>
+      </c>
+      <c r="G11">
+        <v>0.17595541401273801</v>
+      </c>
+      <c r="H11">
+        <v>0.21412300683371199</v>
+      </c>
+      <c r="I11">
+        <v>0.14060337669526701</v>
+      </c>
+      <c r="J11">
+        <v>9.1308165057067597E-2</v>
+      </c>
+      <c r="K11">
+        <v>2.4505183788878299E-2</v>
+      </c>
+      <c r="L11">
+        <v>-0.14745011086474499</v>
+      </c>
+      <c r="M11">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A12" s="2" t="s">
         <v>22</v>
       </c>
@@ -1600,10 +1894,34 @@
         <v>64800.000000000007</v>
       </c>
       <c r="E12" s="4">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.75">
+        <v>0.25</v>
+      </c>
+      <c r="F12">
+        <v>0.31699604743082999</v>
+      </c>
+      <c r="G12">
+        <v>0.31392271042879799</v>
+      </c>
+      <c r="H12">
+        <v>0.29964874358281501</v>
+      </c>
+      <c r="I12">
+        <v>0.16414059980651399</v>
+      </c>
+      <c r="J12">
+        <v>0.12609575185434899</v>
+      </c>
+      <c r="K12">
+        <v>0.16843118383060601</v>
+      </c>
+      <c r="L12">
+        <v>3.9999999999999897E-2</v>
+      </c>
+      <c r="M12">
+        <v>0.42559999999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A13" s="2" t="s">
         <v>24</v>
       </c>
@@ -1617,10 +1935,34 @@
         <v>23248.628015999999</v>
       </c>
       <c r="E13" s="4">
-        <v>2.4276052403058372</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.75">
+        <v>2.4276052403058371E-2</v>
+      </c>
+      <c r="F13">
+        <v>-1.9838354151359299E-2</v>
+      </c>
+      <c r="G13">
+        <v>-6.5264684554025799E-3</v>
+      </c>
+      <c r="H13">
+        <v>1.90812720848056E-2</v>
+      </c>
+      <c r="I13">
+        <v>6.4423765211166599E-3</v>
+      </c>
+      <c r="J13">
+        <v>3.8115038115037997E-2</v>
+      </c>
+      <c r="K13">
+        <v>5.0179211469532897E-3</v>
+      </c>
+      <c r="L13">
+        <v>-8.0996884735202501E-2</v>
+      </c>
+      <c r="M13">
+        <v>0.16470000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A14" s="2" t="s">
         <v>26</v>
       </c>
@@ -1634,10 +1976,34 @@
         <v>77875.878861000005</v>
       </c>
       <c r="E14" s="4">
-        <v>22.746780833333332</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.75">
+        <v>0.22746780833333333</v>
+      </c>
+      <c r="F14">
+        <v>-0.39442815249266799</v>
+      </c>
+      <c r="G14">
+        <v>-0.463076923076923</v>
+      </c>
+      <c r="H14">
+        <v>-0.465331278890601</v>
+      </c>
+      <c r="I14">
+        <v>-0.49215481171548098</v>
+      </c>
+      <c r="J14">
+        <v>-0.71763997591812101</v>
+      </c>
+      <c r="K14">
+        <v>-0.27422956677087901</v>
+      </c>
+      <c r="L14">
+        <v>-0.37427745664739798</v>
+      </c>
+      <c r="M14">
+        <v>-8.0000000000000004E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A15" s="2" t="s">
         <v>28</v>
       </c>
@@ -1651,10 +2017,34 @@
         <v>45639.379212</v>
       </c>
       <c r="E15" s="4">
-        <v>20.403871249999998</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.75">
+        <v>0.20403871249999997</v>
+      </c>
+      <c r="F15">
+        <v>-2.3051591657519299E-2</v>
+      </c>
+      <c r="G15">
+        <v>-9.0220137134608396E-3</v>
+      </c>
+      <c r="H15">
+        <v>-2.2303473491773199E-2</v>
+      </c>
+      <c r="I15">
+        <v>4.3121149897330499E-2</v>
+      </c>
+      <c r="J15">
+        <v>4.7359454855195902E-2</v>
+      </c>
+      <c r="K15">
+        <v>-0.38759305210918099</v>
+      </c>
+      <c r="L15">
+        <v>-0.365234375</v>
+      </c>
+      <c r="M15">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A16" s="2" t="s">
         <v>30</v>
       </c>
@@ -1668,10 +2058,34 @@
         <v>2792.0803999999998</v>
       </c>
       <c r="E16" s="4">
-        <v>0.65078317862582935</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.75">
+        <v>6.5078317862582932E-3</v>
+      </c>
+      <c r="F16">
+        <v>6.8230277185501106E-2</v>
+      </c>
+      <c r="G16">
+        <v>3.9560439560439399E-2</v>
+      </c>
+      <c r="H16">
+        <v>7.6109936575052897E-2</v>
+      </c>
+      <c r="I16">
+        <v>6.0215053763440898E-2</v>
+      </c>
+      <c r="J16">
+        <v>2.3463687150837801E-2</v>
+      </c>
+      <c r="K16">
+        <v>-5.4282267792521197E-2</v>
+      </c>
+      <c r="L16">
+        <v>9.2419522326064402E-2</v>
+      </c>
+      <c r="M16">
+        <v>0.68989999999999996</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A17" s="2" t="s">
         <v>32</v>
       </c>
@@ -1685,10 +2099,34 @@
         <v>88653.818444000004</v>
       </c>
       <c r="E17" s="4">
-        <v>25.005652033570048</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.75">
+        <v>0.25005652033570047</v>
+      </c>
+      <c r="F17">
+        <v>0.317020768679875</v>
+      </c>
+      <c r="G17">
+        <v>0.37286277948268298</v>
+      </c>
+      <c r="H17">
+        <v>0.359955257270693</v>
+      </c>
+      <c r="I17">
+        <v>0.213146314631463</v>
+      </c>
+      <c r="J17">
+        <v>0.17000290107339699</v>
+      </c>
+      <c r="K17">
+        <v>0.141356542617046</v>
+      </c>
+      <c r="L17">
+        <v>0.33185427370387599</v>
+      </c>
+      <c r="M17">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A18" s="2" t="s">
         <v>34</v>
       </c>
@@ -1702,10 +2140,34 @@
         <v>85757.902159999998</v>
       </c>
       <c r="E18" s="4">
-        <v>22.731867096181844</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.75">
+        <v>0.22731867096181843</v>
+      </c>
+      <c r="F18">
+        <v>-0.356631810676939</v>
+      </c>
+      <c r="G18">
+        <v>-0.38795045045045001</v>
+      </c>
+      <c r="H18">
+        <v>-0.324556689951638</v>
+      </c>
+      <c r="I18">
+        <v>-0.29532317393589003</v>
+      </c>
+      <c r="J18">
+        <v>-0.501218026796589</v>
+      </c>
+      <c r="K18">
+        <v>-0.43731778425655898</v>
+      </c>
+      <c r="L18">
+        <v>-0.159999999999999</v>
+      </c>
+      <c r="M18">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A19" s="2" t="s">
         <v>36</v>
       </c>
@@ -1719,10 +2181,34 @@
         <v>109874.789848</v>
       </c>
       <c r="E19" s="4">
-        <v>20.350951999999999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.75">
+        <v>0.20350952</v>
+      </c>
+      <c r="F19">
+        <v>-0.433426257799017</v>
+      </c>
+      <c r="G19">
+        <v>-0.446871231408281</v>
+      </c>
+      <c r="H19">
+        <v>-0.274852420306965</v>
+      </c>
+      <c r="I19">
+        <v>-0.45017459038409902</v>
+      </c>
+      <c r="J19">
+        <v>-0.45114903910764598</v>
+      </c>
+      <c r="K19">
+        <v>-3.8668718737976199E-2</v>
+      </c>
+      <c r="L19">
+        <v>9.9716524929131106E-2</v>
+      </c>
+      <c r="M19">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A20" s="2" t="s">
         <v>38</v>
       </c>
@@ -1736,10 +2222,34 @@
         <v>142580.87935800001</v>
       </c>
       <c r="E20" s="4">
-        <v>23.711315000000003</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.75">
+        <v>0.23711315000000002</v>
+      </c>
+      <c r="F20">
+        <v>-0.42317523430843501</v>
+      </c>
+      <c r="G20">
+        <v>-0.41954674220963101</v>
+      </c>
+      <c r="H20">
+        <v>-0.62063389391979296</v>
+      </c>
+      <c r="I20">
+        <v>-0.60198209718670004</v>
+      </c>
+      <c r="J20">
+        <v>-0.251811141643767</v>
+      </c>
+      <c r="K20">
+        <v>-0.56105919003115201</v>
+      </c>
+      <c r="L20">
+        <v>-0.56691682301438395</v>
+      </c>
+      <c r="M20">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A21" s="2" t="s">
         <v>40</v>
       </c>
@@ -1753,10 +2263,34 @@
         <v>82648.853050000005</v>
       </c>
       <c r="E21" s="4">
-        <v>8.2641084788029922</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.75">
+        <v>8.2641084788029923E-2</v>
+      </c>
+      <c r="F21">
+        <v>-0.36807460230389399</v>
+      </c>
+      <c r="G21">
+        <v>5.0266565118050201E-2</v>
+      </c>
+      <c r="H21">
+        <v>-6.9468267581475104E-2</v>
+      </c>
+      <c r="I21">
+        <v>3.7065637065636897E-2</v>
+      </c>
+      <c r="J21">
+        <v>-0.106477373558119</v>
+      </c>
+      <c r="K21">
+        <v>7.4582560296845901E-2</v>
+      </c>
+      <c r="L21">
+        <v>-0.2177734375</v>
+      </c>
+      <c r="M21">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A22" s="2" t="s">
         <v>42</v>
       </c>
@@ -1770,10 +2304,34 @@
         <v>217211.97517000002</v>
       </c>
       <c r="E22" s="4">
-        <v>23.710856517065107</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.75">
+        <v>0.23710856517065107</v>
+      </c>
+      <c r="F22">
+        <v>8.5714285714284903E-3</v>
+      </c>
+      <c r="G22">
+        <v>-5.1196607088761101E-2</v>
+      </c>
+      <c r="H22">
+        <v>-0.31091802040045302</v>
+      </c>
+      <c r="I22">
+        <v>-0.27059685097033997</v>
+      </c>
+      <c r="J22">
+        <v>-0.322408536585366</v>
+      </c>
+      <c r="K22">
+        <v>-0.37154150197628399</v>
+      </c>
+      <c r="L22">
+        <v>-0.494401378122308</v>
+      </c>
+      <c r="M22">
+        <v>0.2286</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A23" s="2" t="s">
         <v>44</v>
       </c>
@@ -1787,10 +2345,28 @@
         <v>91500.853375000006</v>
       </c>
       <c r="E23" s="4">
-        <v>0.70417953734981609</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.75">
+        <v>7.0417953734981612E-3</v>
+      </c>
+      <c r="F23">
+        <v>-1.2077294685990499E-2</v>
+      </c>
+      <c r="G23">
+        <v>9.4562647754137096E-3</v>
+      </c>
+      <c r="I23">
+        <v>1.6431924882628901E-2</v>
+      </c>
+      <c r="J23">
+        <v>2.7842227378190001E-2</v>
+      </c>
+      <c r="K23">
+        <v>2.10280373831775E-2</v>
+      </c>
+      <c r="M23">
+        <v>0.13100000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A24" s="2" t="s">
         <v>46</v>
       </c>
@@ -1804,10 +2380,34 @@
         <v>156739.64829100002</v>
       </c>
       <c r="E24" s="4">
-        <v>23.858192874554334</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.75">
+        <v>0.23858192874554335</v>
+      </c>
+      <c r="F24">
+        <v>-0.53860691144708395</v>
+      </c>
+      <c r="G24">
+        <v>-0.58173744102137104</v>
+      </c>
+      <c r="H24">
+        <v>-0.700178997613365</v>
+      </c>
+      <c r="I24">
+        <v>-5.1476014760147501E-2</v>
+      </c>
+      <c r="J24">
+        <v>1.5376641326883199E-2</v>
+      </c>
+      <c r="K24">
+        <v>-3.3925979680696702E-2</v>
+      </c>
+      <c r="L24">
+        <v>-0.23810558331522899</v>
+      </c>
+      <c r="M24">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A25" s="2" t="s">
         <v>48</v>
       </c>
@@ -1821,10 +2421,34 @@
         <v>5123.9831999999997</v>
       </c>
       <c r="E25" s="4">
-        <v>0.46155353014073341</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.75">
+        <v>4.6155353014073345E-3</v>
+      </c>
+      <c r="F25">
+        <v>-3.3476394849785297E-2</v>
+      </c>
+      <c r="G25">
+        <v>-2.3809523809523701E-2</v>
+      </c>
+      <c r="H25">
+        <v>-3.2590051457975902E-2</v>
+      </c>
+      <c r="I25">
+        <v>-7.7887197851387494E-2</v>
+      </c>
+      <c r="J25">
+        <v>-0.107635694572217</v>
+      </c>
+      <c r="K25">
+        <v>-0.128397375820056</v>
+      </c>
+      <c r="L25">
+        <v>-0.167798254122211</v>
+      </c>
+      <c r="M25">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A26" s="2" t="s">
         <v>50</v>
       </c>
@@ -1838,10 +2462,34 @@
         <v>78107.112000000008</v>
       </c>
       <c r="E26" s="4">
-        <v>45.441708957206174</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.75">
+        <v>0.45441708957206173</v>
+      </c>
+      <c r="F26">
+        <v>-8.8161209068009297E-3</v>
+      </c>
+      <c r="G26">
+        <v>3.0266343825665801E-2</v>
+      </c>
+      <c r="H26">
+        <v>1.29390018484288E-2</v>
+      </c>
+      <c r="I26">
+        <v>-3.5552682611506001E-2</v>
+      </c>
+      <c r="J26">
+        <v>-9.3515358361774603E-2</v>
+      </c>
+      <c r="K26">
+        <v>-3.95846852693056E-2</v>
+      </c>
+      <c r="L26">
+        <v>-4.3648208469055302E-2</v>
+      </c>
+      <c r="M26">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A27" s="2" t="s">
         <v>52</v>
       </c>
@@ -1855,10 +2503,34 @@
         <v>109571.07791199999</v>
       </c>
       <c r="E27" s="4">
-        <v>18.535079760487214</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.75">
+        <v>0.18535079760487214</v>
+      </c>
+      <c r="F27">
+        <v>-3.6357091432685298E-2</v>
+      </c>
+      <c r="G27">
+        <v>3.5833891493636902E-2</v>
+      </c>
+      <c r="H27">
+        <v>0.13361420403249999</v>
+      </c>
+      <c r="I27">
+        <v>0.134915865384615</v>
+      </c>
+      <c r="J27">
+        <v>8.1951530612244902E-2</v>
+      </c>
+      <c r="K27">
+        <v>0.17836757990867499</v>
+      </c>
+      <c r="L27">
+        <v>0.26537381985200298</v>
+      </c>
+      <c r="M27">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A28" s="2" t="s">
         <v>54</v>
       </c>
@@ -1872,10 +2544,34 @@
         <v>248243.17726799997</v>
       </c>
       <c r="E28" s="4">
-        <v>29.123397115384613</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.75">
+        <v>0.29123397115384614</v>
+      </c>
+      <c r="F28">
+        <v>-2.34765234765234E-2</v>
+      </c>
+      <c r="G28">
+        <v>3.1892274982282101E-2</v>
+      </c>
+      <c r="H28">
+        <v>5.4453161052145899E-2</v>
+      </c>
+      <c r="I28">
+        <v>8.9535658742501606E-2</v>
+      </c>
+      <c r="J28">
+        <v>2.8449502133712699E-2</v>
+      </c>
+      <c r="K28">
+        <v>-0.34980237154150101</v>
+      </c>
+      <c r="L28">
+        <v>-0.2262118491921</v>
+      </c>
+      <c r="M28">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A29" s="2" t="s">
         <v>56</v>
       </c>
@@ -1889,10 +2585,34 @@
         <v>57997.125</v>
       </c>
       <c r="E29" s="4">
-        <v>15.852215082854244</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.75">
+        <v>0.15852215082854243</v>
+      </c>
+      <c r="F29">
+        <v>1.03154136084109E-2</v>
+      </c>
+      <c r="G29">
+        <v>5.02569960022844E-2</v>
+      </c>
+      <c r="H29">
+        <v>4.8627002288329398E-2</v>
+      </c>
+      <c r="I29">
+        <v>3.5942028985507198E-2</v>
+      </c>
+      <c r="J29">
+        <v>2.06124852767961E-2</v>
+      </c>
+      <c r="K29">
+        <v>0.13863950276243001</v>
+      </c>
+      <c r="L29">
+        <v>6.0451977401129897E-2</v>
+      </c>
+      <c r="M29">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A30" s="2" t="s">
         <v>58</v>
       </c>
@@ -1906,10 +2626,34 @@
         <v>13254.048210000001</v>
       </c>
       <c r="E30" s="4">
-        <v>1.6128810528296071</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.75">
+        <v>1.612881052829607E-2</v>
+      </c>
+      <c r="F30">
+        <v>1.9624573378839601E-2</v>
+      </c>
+      <c r="G30">
+        <v>7.0388349514563006E-2</v>
+      </c>
+      <c r="H30">
+        <v>1.7108639863130801E-2</v>
+      </c>
+      <c r="I30">
+        <v>-1.9520851818988501E-2</v>
+      </c>
+      <c r="J30">
+        <v>-4.0760869565217399E-2</v>
+      </c>
+      <c r="K30">
+        <v>6.5853658536585397E-2</v>
+      </c>
+      <c r="L30">
+        <v>-2.61780104712036E-3</v>
+      </c>
+      <c r="M30">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A31" s="2" t="s">
         <v>60</v>
       </c>
@@ -1923,10 +2667,31 @@
         <v>20771.891072999999</v>
       </c>
       <c r="E31" s="4">
-        <v>3.1932694252824803</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.75">
+        <v>3.19326942528248E-2</v>
+      </c>
+      <c r="F31">
+        <v>1.20320855614974E-2</v>
+      </c>
+      <c r="G31">
+        <v>2.3778071334214002E-2</v>
+      </c>
+      <c r="H31">
+        <v>4.8906048906048799E-2</v>
+      </c>
+      <c r="I31">
+        <v>7.0440251572327098E-2</v>
+      </c>
+      <c r="J31">
+        <v>4.0259740259740301E-2</v>
+      </c>
+      <c r="L31">
+        <v>-1.7906336088154201E-2</v>
+      </c>
+      <c r="M31">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A32" s="2" t="s">
         <v>62</v>
       </c>
@@ -1940,10 +2705,34 @@
         <v>59193.341358000005</v>
       </c>
       <c r="E32" s="4">
-        <v>10.223550564220197</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.75">
+        <v>0.10223550564220198</v>
+      </c>
+      <c r="F32">
+        <v>-7.97266514806379E-2</v>
+      </c>
+      <c r="G32">
+        <v>-1.28205128205129E-2</v>
+      </c>
+      <c r="H32">
+        <v>-4.2372881355933097E-3</v>
+      </c>
+      <c r="I32">
+        <v>3.0674846625766701E-2</v>
+      </c>
+      <c r="J32">
+        <v>2.6694045174537901E-2</v>
+      </c>
+      <c r="K32">
+        <v>0.22801302931595999</v>
+      </c>
+      <c r="L32">
+        <v>0.16402116402116301</v>
+      </c>
+      <c r="M32">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A33" s="2" t="s">
         <v>64</v>
       </c>
@@ -1957,10 +2746,34 @@
         <v>13160.376990000001</v>
       </c>
       <c r="E33" s="4">
-        <v>7.7254522302563089</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.75">
+        <v>7.7254522302563092E-2</v>
+      </c>
+      <c r="F33">
+        <v>3.5269709543568402E-2</v>
+      </c>
+      <c r="G33">
+        <v>6.4102564102562704E-3</v>
+      </c>
+      <c r="H33">
+        <v>8.8235294117646898E-2</v>
+      </c>
+      <c r="I33">
+        <v>0.17406749555950199</v>
+      </c>
+      <c r="J33">
+        <v>0.26540284360189498</v>
+      </c>
+      <c r="K33">
+        <v>0.30075187969924799</v>
+      </c>
+      <c r="L33">
+        <v>0.36038514442915998</v>
+      </c>
+      <c r="M33">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A34" s="2" t="s">
         <v>66</v>
       </c>
@@ -1974,10 +2787,34 @@
         <v>572</v>
       </c>
       <c r="E34" s="4">
-        <v>0.14974656844680112</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.75">
+        <v>1.4974656844680113E-3</v>
+      </c>
+      <c r="F34">
+        <v>0.12806539509536699</v>
+      </c>
+      <c r="G34">
+        <v>5.9829059829059603E-2</v>
+      </c>
+      <c r="H34">
+        <v>6.1333333333333198E-2</v>
+      </c>
+      <c r="I34">
+        <v>7.001321003963E-2</v>
+      </c>
+      <c r="J34">
+        <v>0.10272750446087101</v>
+      </c>
+      <c r="K34">
+        <v>0.17156978112497001</v>
+      </c>
+      <c r="L34">
+        <v>0.375554372893382</v>
+      </c>
+      <c r="M34">
+        <v>0.53500000000000003</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A35" s="2" t="s">
         <v>68</v>
       </c>
@@ -1991,10 +2828,34 @@
         <v>644662.72779999999</v>
       </c>
       <c r="E35" s="4">
-        <v>52.680371944359479</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.75">
+        <v>0.52680371944359483</v>
+      </c>
+      <c r="F35">
+        <v>2.96186597556467E-3</v>
+      </c>
+      <c r="G35">
+        <v>3.1120705162799099E-2</v>
+      </c>
+      <c r="H35">
+        <v>2.0371044016005702E-2</v>
+      </c>
+      <c r="I35">
+        <v>-1.9110690633869401E-2</v>
+      </c>
+      <c r="J35">
+        <v>-8.6982845610494505E-2</v>
+      </c>
+      <c r="K35">
+        <v>-0.15554602016734601</v>
+      </c>
+      <c r="L35">
+        <v>-0.26669802445907798</v>
+      </c>
+      <c r="M35">
+        <v>1.66</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A36" s="2" t="s">
         <v>70</v>
       </c>
@@ -2008,10 +2869,34 @@
         <v>209481.9265</v>
       </c>
       <c r="E36" s="4">
-        <v>68.867926008933424</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.75">
+        <v>0.68867926008933422</v>
+      </c>
+      <c r="F36">
+        <v>-7.6832151300235798E-3</v>
+      </c>
+      <c r="G36">
+        <v>-5.3066037735848897E-3</v>
+      </c>
+      <c r="H36">
+        <v>-3.3333333333333298E-2</v>
+      </c>
+      <c r="I36">
+        <v>5.7490326147042498E-2</v>
+      </c>
+      <c r="J36">
+        <v>6.4215148188803403E-2</v>
+      </c>
+      <c r="K36">
+        <v>0.23473967684021499</v>
+      </c>
+      <c r="L36">
+        <v>0.37270051508462099</v>
+      </c>
+      <c r="M36">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A37" s="2" t="s">
         <v>72</v>
       </c>
@@ -2025,10 +2910,34 @@
         <v>84583.58</v>
       </c>
       <c r="E37" s="4">
-        <v>25.003749812509376</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.75">
+        <v>0.25003749812509374</v>
+      </c>
+      <c r="F37">
+        <v>0.31709286675639198</v>
+      </c>
+      <c r="G37">
+        <v>0.40165094339622598</v>
+      </c>
+      <c r="H37">
+        <v>0.28211658177702298</v>
+      </c>
+      <c r="I37">
+        <v>0.32954545454545398</v>
+      </c>
+      <c r="J37">
+        <v>0.252724594992636</v>
+      </c>
+      <c r="K37">
+        <v>0.38852735598939497</v>
+      </c>
+      <c r="L37">
+        <v>0.45323275862068901</v>
+      </c>
+      <c r="M37">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A38" s="2" t="s">
         <v>74</v>
       </c>
@@ -2042,10 +2951,34 @@
         <v>81202.03</v>
       </c>
       <c r="E38" s="4">
-        <v>16.379654520773997</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.75">
+        <v>0.16379654520773998</v>
+      </c>
+      <c r="F38">
+        <v>7.8201368523949204E-3</v>
+      </c>
+      <c r="G38">
+        <v>-2.96442687747046E-3</v>
+      </c>
+      <c r="H38">
+        <v>-3.2553407934893197E-2</v>
+      </c>
+      <c r="I38">
+        <v>-2.52525252525252E-2</v>
+      </c>
+      <c r="J38">
+        <v>-1.9743336623888998E-3</v>
+      </c>
+      <c r="K38">
+        <v>0.21682098765432101</v>
+      </c>
+      <c r="L38">
+        <v>0.54545454545454497</v>
+      </c>
+      <c r="M38">
+        <v>0.21629999999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A39" s="2" t="s">
         <v>76</v>
       </c>
@@ -2059,10 +2992,34 @@
         <v>71443.63029999999</v>
       </c>
       <c r="E39" s="4">
-        <v>22.700912343470485</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.75">
+        <v>0.22700912343470483</v>
+      </c>
+      <c r="F39">
+        <v>-0.234649122807017</v>
+      </c>
+      <c r="G39">
+        <v>-0.25055530875166498</v>
+      </c>
+      <c r="H39">
+        <v>-0.28333713243674402</v>
+      </c>
+      <c r="I39">
+        <v>-0.46423927178153401</v>
+      </c>
+      <c r="J39">
+        <v>-0.451030927835051</v>
+      </c>
+      <c r="K39">
+        <v>-0.23981501871834399</v>
+      </c>
+      <c r="L39">
+        <v>-0.12532480511692901</v>
+      </c>
+      <c r="M39">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A40" s="2" t="s">
         <v>78</v>
       </c>
@@ -2076,10 +3033,34 @@
         <v>1210103.3287500001</v>
       </c>
       <c r="E40" s="4">
-        <v>6.8032361284970477</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.75">
+        <v>6.8032361284970477E-2</v>
+      </c>
+      <c r="F40">
+        <v>4.2166484914576502E-2</v>
+      </c>
+      <c r="G40">
+        <v>3.90226112326768E-2</v>
+      </c>
+      <c r="H40">
+        <v>0.100682593856655</v>
+      </c>
+      <c r="I40">
+        <v>6.9890575361807095E-2</v>
+      </c>
+      <c r="J40">
+        <v>-2.6636225266362299E-3</v>
+      </c>
+      <c r="K40">
+        <v>-0.498010233086981</v>
+      </c>
+      <c r="L40">
+        <v>-0.54274004683840704</v>
+      </c>
+      <c r="M40">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A41" s="2" t="s">
         <v>80</v>
       </c>
@@ -2093,10 +3074,34 @@
         <v>53338.243696000005</v>
       </c>
       <c r="E41" s="4">
-        <v>20.330409262250942</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.75">
+        <v>0.20330409262250942</v>
+      </c>
+      <c r="F41">
+        <v>-0.12627551020408101</v>
+      </c>
+      <c r="G41">
+        <v>-0.137153895685769</v>
+      </c>
+      <c r="H41">
+        <v>-0.18682795698924701</v>
+      </c>
+      <c r="I41">
+        <v>-0.255152807391613</v>
+      </c>
+      <c r="J41">
+        <v>-0.17654896735509601</v>
+      </c>
+      <c r="K41">
+        <v>-7.3556231003039499E-2</v>
+      </c>
+      <c r="L41">
+        <v>-3.3352837916910398E-2</v>
+      </c>
+      <c r="M41">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A42" s="2" t="s">
         <v>82</v>
       </c>
@@ -2110,10 +3115,34 @@
         <v>3912.11</v>
       </c>
       <c r="E42" s="4">
-        <v>0.27480258078206532</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.75">
+        <v>2.7480258078206531E-3</v>
+      </c>
+      <c r="F42">
+        <v>9.38967136150234E-2</v>
+      </c>
+      <c r="G42">
+        <v>5.0196850393700698E-2</v>
+      </c>
+      <c r="H42">
+        <v>-1.5789473684210499E-2</v>
+      </c>
+      <c r="I42">
+        <v>-7.3068893528183999E-3</v>
+      </c>
+      <c r="J42">
+        <v>-0.100342075256556</v>
+      </c>
+      <c r="K42">
+        <v>-0.137971698113207</v>
+      </c>
+      <c r="L42">
+        <v>-0.209273182957393</v>
+      </c>
+      <c r="M42">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A43" s="2" t="s">
         <v>84</v>
       </c>
@@ -2127,10 +3156,34 @@
         <v>5830.0715199999995</v>
       </c>
       <c r="E43" s="4">
-        <v>2.3079119583608758</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.75">
+        <v>2.3079119583608757E-2</v>
+      </c>
+      <c r="F43">
+        <v>2.4128686327077702E-2</v>
+      </c>
+      <c r="G43">
+        <v>1.35501355013549E-2</v>
+      </c>
+      <c r="H43">
+        <v>8.1743869209808702E-3</v>
+      </c>
+      <c r="I43">
+        <v>2.8037383177569999E-2</v>
+      </c>
+      <c r="J43">
+        <v>3.32005312084993E-2</v>
+      </c>
+      <c r="K43">
+        <v>5.3315994798439501E-2</v>
+      </c>
+      <c r="L43">
+        <v>6.1855670103092703E-2</v>
+      </c>
+      <c r="M43">
+        <v>0.1736</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A44" s="2" t="s">
         <v>86</v>
       </c>
@@ -2144,10 +3197,34 @@
         <v>1213.4820999999999</v>
       </c>
       <c r="E44" s="4">
-        <v>0.322589179066469</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.75">
+        <v>3.2258917906646898E-3</v>
+      </c>
+      <c r="F44">
+        <v>4.52488687782805E-2</v>
+      </c>
+      <c r="G44">
+        <v>4.7169811320755799E-3</v>
+      </c>
+      <c r="H44">
+        <v>-1.9323671497584499E-2</v>
+      </c>
+      <c r="I44">
+        <v>-2.92682926829268E-2</v>
+      </c>
+      <c r="J44">
+        <v>-1.9323671497584499E-2</v>
+      </c>
+      <c r="K44">
+        <v>-4.76190476190466E-3</v>
+      </c>
+      <c r="L44">
+        <v>-3.4313725490195998E-2</v>
+      </c>
+      <c r="M44">
+        <v>3.7699999999999997E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A45" s="2" t="s">
         <v>88</v>
       </c>
@@ -2161,10 +3238,34 @@
         <v>137962.25265499999</v>
       </c>
       <c r="E45" s="4">
-        <v>23.773025396520644</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.75">
+        <v>0.23773025396520645</v>
+      </c>
+      <c r="F45">
+        <v>-0.46682464454976202</v>
+      </c>
+      <c r="G45">
+        <v>-0.55919395465994903</v>
+      </c>
+      <c r="H45">
+        <v>-0.60196687370600399</v>
+      </c>
+      <c r="I45">
+        <v>-0.70805739514348698</v>
+      </c>
+      <c r="J45">
+        <v>-0.637566137566137</v>
+      </c>
+      <c r="K45">
+        <v>-0.72519509476031196</v>
+      </c>
+      <c r="L45">
+        <v>-0.91285537700865205</v>
+      </c>
+      <c r="M45">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A46" s="2" t="s">
         <v>90</v>
       </c>
@@ -2178,10 +3279,34 @@
         <v>17068.964616000001</v>
       </c>
       <c r="E46" s="4">
-        <v>3.6675642229979672</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.75">
+        <v>3.6675642229979676E-2</v>
+      </c>
+      <c r="F46">
+        <v>-2.60504201680672E-2</v>
+      </c>
+      <c r="G46">
+        <v>-0.16285714285714201</v>
+      </c>
+      <c r="H46">
+        <v>-0.21613545816733001</v>
+      </c>
+      <c r="I46">
+        <v>-0.20414201183431899</v>
+      </c>
+      <c r="J46">
+        <v>9.6893491124260198E-2</v>
+      </c>
+      <c r="K46">
+        <v>6.7938931297709795E-2</v>
+      </c>
+      <c r="L46">
+        <v>-1.15990057995029E-2</v>
+      </c>
+      <c r="M46">
+        <v>2.7400000000000001E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A47" s="2" t="s">
         <v>92</v>
       </c>
@@ -2195,10 +3320,34 @@
         <v>89016.552819999997</v>
       </c>
       <c r="E47" s="4">
-        <v>8.117889305347326</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.75">
+        <v>8.1178893053473256E-2</v>
+      </c>
+      <c r="F47">
+        <v>8.0536912751677903E-2</v>
+      </c>
+      <c r="G47">
+        <v>4.6956521739130397E-2</v>
+      </c>
+      <c r="H47">
+        <v>0.37727272727272698</v>
+      </c>
+      <c r="I47">
+        <v>0.36500579374275699</v>
+      </c>
+      <c r="J47">
+        <v>0.278947368421052</v>
+      </c>
+      <c r="K47">
+        <v>0.494278331487633</v>
+      </c>
+      <c r="L47">
+        <v>0.33381959640165298</v>
+      </c>
+      <c r="M47">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A48" s="2" t="s">
         <v>94</v>
       </c>
@@ -2212,10 +3361,34 @@
         <v>414304.74533200002</v>
       </c>
       <c r="E48" s="4">
-        <v>65.804603166459444</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.75">
+        <v>0.65804603166459441</v>
+      </c>
+      <c r="F48">
+        <v>2.3856858846918499E-2</v>
+      </c>
+      <c r="G48">
+        <v>-5.2518756698821001E-2</v>
+      </c>
+      <c r="H48">
+        <v>-8.3885209713024197E-2</v>
+      </c>
+      <c r="I48">
+        <v>-5.2518756698821001E-2</v>
+      </c>
+      <c r="J48">
+        <v>-2.82722513089004E-2</v>
+      </c>
+      <c r="K48">
+        <v>3.2512315270935899E-2</v>
+      </c>
+      <c r="L48">
+        <v>0.13935144609991201</v>
+      </c>
+      <c r="M48">
+        <v>0.18729999999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A49" s="2" t="s">
         <v>96</v>
       </c>
@@ -2229,10 +3402,34 @@
         <v>67077.842625000005</v>
       </c>
       <c r="E49" s="4">
-        <v>21.541511254019294</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.75">
+        <v>0.21541511254019294</v>
+      </c>
+      <c r="F49">
+        <v>9.7908322207387096E-3</v>
+      </c>
+      <c r="G49">
+        <v>-9.2292587137947898E-2</v>
+      </c>
+      <c r="H49">
+        <v>-0.159458051068264</v>
+      </c>
+      <c r="I49">
+        <v>-0.104766633565044</v>
+      </c>
+      <c r="J49">
+        <v>-0.103670634920634</v>
+      </c>
+      <c r="K49">
+        <v>-9.8223099703849806E-2</v>
+      </c>
+      <c r="L49">
+        <v>7.7911313717364206E-2</v>
+      </c>
+      <c r="M49">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A50" s="2" t="s">
         <v>98</v>
       </c>
@@ -2246,10 +3443,34 @@
         <v>125967.85448000001</v>
       </c>
       <c r="E50" s="4">
-        <v>4.9298777858657132</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.75">
+        <v>4.9298777858657133E-2</v>
+      </c>
+      <c r="F50">
+        <v>3.29144225014961E-2</v>
+      </c>
+      <c r="G50">
+        <v>1.2224938875305499E-2</v>
+      </c>
+      <c r="H50">
+        <v>-7.9492317969271795E-2</v>
+      </c>
+      <c r="I50">
+        <v>-7.9492317969271795E-2</v>
+      </c>
+      <c r="J50">
+        <v>-6.03674540682414E-2</v>
+      </c>
+      <c r="K50">
+        <v>7.4985689753863702E-2</v>
+      </c>
+      <c r="L50">
+        <v>8.5889570552147507E-3</v>
+      </c>
+      <c r="M50">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A51" s="2" t="s">
         <v>100</v>
       </c>
@@ -2263,10 +3484,34 @@
         <v>11817.415520999999</v>
       </c>
       <c r="E51" s="4">
-        <v>8.6251882098594308</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.75">
+        <v>8.6251882098594301E-2</v>
+      </c>
+      <c r="F51">
+        <v>2.5931928687196099E-2</v>
+      </c>
+      <c r="G51">
+        <v>2.5931928687196099E-2</v>
+      </c>
+      <c r="H51">
+        <v>0.185636856368563</v>
+      </c>
+      <c r="I51">
+        <v>0.185636856368563</v>
+      </c>
+      <c r="J51">
+        <v>0.14630681818181801</v>
+      </c>
+      <c r="K51">
+        <v>0.106983655274888</v>
+      </c>
+      <c r="L51">
+        <v>0.126453488372093</v>
+      </c>
+      <c r="M51">
+        <v>-1.8100000000000002E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A52" s="2" t="s">
         <v>102</v>
       </c>
@@ -2280,10 +3525,34 @@
         <v>164512.68657600001</v>
       </c>
       <c r="E52" s="4">
-        <v>0.42004407467408988</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.75">
+        <v>4.2004407467408989E-3</v>
+      </c>
+      <c r="F52">
+        <v>4.7468354430379799E-2</v>
+      </c>
+      <c r="G52">
+        <v>8.4642676127724303E-2</v>
+      </c>
+      <c r="H52">
+        <v>8.0682107406464795E-2</v>
+      </c>
+      <c r="I52">
+        <v>8.0682107406464795E-2</v>
+      </c>
+      <c r="J52">
+        <v>8.5222236292262901E-2</v>
+      </c>
+      <c r="K52">
+        <v>0.21281464530892399</v>
+      </c>
+      <c r="L52">
+        <v>0.10238568588469101</v>
+      </c>
+      <c r="M52">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A53" s="2" t="s">
         <v>104</v>
       </c>
@@ -2297,10 +3566,34 @@
         <v>3358.4752949999997</v>
       </c>
       <c r="E53" s="4">
-        <v>0.14681797267495256</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.75">
+        <v>1.4681797267495256E-3</v>
+      </c>
+      <c r="F53">
+        <v>5.26501766784453E-2</v>
+      </c>
+      <c r="G53">
+        <v>3.7342908438061102E-2</v>
+      </c>
+      <c r="H53">
+        <v>4.3524794862647202E-2</v>
+      </c>
+      <c r="I53">
+        <v>4.3524794862647202E-2</v>
+      </c>
+      <c r="J53">
+        <v>-5.2197802197802103E-2</v>
+      </c>
+      <c r="K53">
+        <v>-6.6428003182179701E-2</v>
+      </c>
+      <c r="L53">
+        <v>7.5517241379310304E-2</v>
+      </c>
+      <c r="M53">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A54" s="2" t="s">
         <v>106</v>
       </c>
@@ -2314,10 +3607,34 @@
         <v>372174.25689999998</v>
       </c>
       <c r="E54" s="4">
-        <v>21.337795559229949</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.75">
+        <v>0.2133779555922995</v>
+      </c>
+      <c r="F54">
+        <v>0.141666666666666</v>
+      </c>
+      <c r="G54">
+        <v>0.20093095422808299</v>
+      </c>
+      <c r="H54">
+        <v>0.29931972789115602</v>
+      </c>
+      <c r="I54">
+        <v>0.29931972789115602</v>
+      </c>
+      <c r="J54">
+        <v>0.34603174603174602</v>
+      </c>
+      <c r="K54">
+        <v>0.36167575607337599</v>
+      </c>
+      <c r="L54">
+        <v>0.29731204802838002</v>
+      </c>
+      <c r="M54">
+        <v>0.96899999999999997</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A55" s="2" t="s">
         <v>108</v>
       </c>
@@ -2331,10 +3648,34 @@
         <v>90137.150185999999</v>
       </c>
       <c r="E55" s="4">
-        <v>23.708822619047616</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.75">
+        <v>0.23708822619047618</v>
+      </c>
+      <c r="F55">
+        <v>-0.21797631862217401</v>
+      </c>
+      <c r="G55">
+        <v>-0.22755627881746601</v>
+      </c>
+      <c r="H55">
+        <v>-0.28799089356858198</v>
+      </c>
+      <c r="I55">
+        <v>-0.28799089356858198</v>
+      </c>
+      <c r="J55">
+        <v>-0.22357393890240501</v>
+      </c>
+      <c r="K55">
+        <v>-0.18699186991869901</v>
+      </c>
+      <c r="L55">
+        <v>-0.29092983456930899</v>
+      </c>
+      <c r="M55">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A56" s="2" t="s">
         <v>110</v>
       </c>
@@ -2348,10 +3689,34 @@
         <v>190521.47528099999</v>
       </c>
       <c r="E56" s="4">
-        <v>21.131912767913299</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.75">
+        <v>0.211319127679133</v>
+      </c>
+      <c r="F56">
+        <v>-0.117315573770491</v>
+      </c>
+      <c r="G56">
+        <v>-0.13181110534509499</v>
+      </c>
+      <c r="H56">
+        <v>-0.24557395773843499</v>
+      </c>
+      <c r="I56">
+        <v>-0.24557395773843499</v>
+      </c>
+      <c r="J56">
+        <v>-0.21775544388609699</v>
+      </c>
+      <c r="K56">
+        <v>-0.31385542168674602</v>
+      </c>
+      <c r="L56">
+        <v>-0.37429111531190901</v>
+      </c>
+      <c r="M56">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A57" s="2" t="s">
         <v>112</v>
       </c>
@@ -2365,10 +3730,34 @@
         <v>10352.9647</v>
       </c>
       <c r="E57" s="4">
-        <v>3.3332575757575746</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.75">
+        <v>3.3332575757575748E-2</v>
+      </c>
+      <c r="F57">
+        <v>-2.9838022165388002E-3</v>
+      </c>
+      <c r="G57">
+        <v>-4.1150442477875998E-2</v>
+      </c>
+      <c r="H57">
+        <v>-4.0689960194604198E-2</v>
+      </c>
+      <c r="I57">
+        <v>-4.0689960194604198E-2</v>
+      </c>
+      <c r="J57">
+        <v>-3.2017543859649097E-2</v>
+      </c>
+      <c r="K57">
+        <v>2.48653128885204E-2</v>
+      </c>
+      <c r="L57">
+        <v>-9.0051457975986599E-3</v>
+      </c>
+      <c r="M57">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A58" s="2" t="s">
         <v>114</v>
       </c>
@@ -2382,10 +3771,34 @@
         <v>3519.7776960000001</v>
       </c>
       <c r="E58" s="4">
-        <v>0.92603746693386313</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.75">
+        <v>9.2603746693386314E-3</v>
+      </c>
+      <c r="F58">
+        <v>8.3565459610027305E-3</v>
+      </c>
+      <c r="G58">
+        <v>-2.8169014084507599E-3</v>
+      </c>
+      <c r="H58">
+        <v>1.3850415512465301E-2</v>
+      </c>
+      <c r="I58">
+        <v>1.3850415512465301E-2</v>
+      </c>
+      <c r="J58">
+        <v>3.3921302578018897E-2</v>
+      </c>
+      <c r="K58">
+        <v>2.0632737276478599E-2</v>
+      </c>
+      <c r="L58">
+        <v>-0.19063545150501601</v>
+      </c>
+      <c r="M58">
+        <v>0.3745</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A59" s="2" t="s">
         <v>116</v>
       </c>
@@ -2399,10 +3812,34 @@
         <v>70370.764320000002</v>
       </c>
       <c r="E59" s="4">
-        <v>0.98249834850822992</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.75">
+        <v>9.8249834850822997E-3</v>
+      </c>
+      <c r="F59">
+        <v>6.1248527679623001E-2</v>
+      </c>
+      <c r="G59">
+        <v>2.9190992493744899E-3</v>
+      </c>
+      <c r="H59">
+        <v>-1.9181585677749299E-2</v>
+      </c>
+      <c r="I59">
+        <v>-1.9181585677749299E-2</v>
+      </c>
+      <c r="J59">
+        <v>-3.2829373650107997E-2</v>
+      </c>
+      <c r="K59">
+        <v>-0.12570621468926499</v>
+      </c>
+      <c r="L59">
+        <v>-0.164637116415002</v>
+      </c>
+      <c r="M59">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A60" s="2" t="s">
         <v>118</v>
       </c>
@@ -2416,10 +3853,34 @@
         <v>7634.9926800000003</v>
       </c>
       <c r="E60" s="4">
-        <v>1.0545569999999991</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.75">
+        <v>1.054556999999999E-2</v>
+      </c>
+      <c r="F60">
+        <v>1.0793824292936001E-2</v>
+      </c>
+      <c r="G60">
+        <v>5.3578788295095504E-3</v>
+      </c>
+      <c r="H60">
+        <v>-1.24458117745769E-2</v>
+      </c>
+      <c r="I60">
+        <v>-1.24458117745769E-2</v>
+      </c>
+      <c r="J60">
+        <v>8.8980150581792102E-3</v>
+      </c>
+      <c r="K60">
+        <v>1.96343940419768E-2</v>
+      </c>
+      <c r="L60">
+        <v>5.2107881644409403E-2</v>
+      </c>
+      <c r="M60">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A61" s="2" t="s">
         <v>120</v>
       </c>
@@ -2433,10 +3894,34 @@
         <v>44528.744167999997</v>
       </c>
       <c r="E61" s="4">
-        <v>10.000000020076918</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.75">
+        <v>0.10000000020076918</v>
+      </c>
+      <c r="F61">
+        <v>0.31807780320366102</v>
+      </c>
+      <c r="G61">
+        <v>0.43667296786389398</v>
+      </c>
+      <c r="H61">
+        <v>0.64982373678025795</v>
+      </c>
+      <c r="I61">
+        <v>0.64982373678025795</v>
+      </c>
+      <c r="J61">
+        <v>0.781844802342606</v>
+      </c>
+      <c r="K61">
+        <v>0.73744493392070398</v>
+      </c>
+      <c r="L61">
+        <v>0.68565400843881796</v>
+      </c>
+      <c r="M61">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A62" s="2" t="s">
         <v>122</v>
       </c>
@@ -2450,10 +3935,34 @@
         <v>291467.96218500001</v>
       </c>
       <c r="E62" s="4">
-        <v>4.1952230705300053</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.75">
+        <v>4.1952230705300055E-2</v>
+      </c>
+      <c r="F62">
+        <v>4.4799519647741502E-2</v>
+      </c>
+      <c r="G62">
+        <v>3.0242481712272899E-2</v>
+      </c>
+      <c r="H62">
+        <v>0.12937062937062899</v>
+      </c>
+      <c r="I62">
+        <v>0.117511094674556</v>
+      </c>
+      <c r="J62">
+        <v>0.18127233738384499</v>
+      </c>
+      <c r="K62">
+        <v>0.28457214241099299</v>
+      </c>
+      <c r="L62">
+        <v>0.220179738562091</v>
+      </c>
+      <c r="M62">
+        <v>1.78</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A63" s="2" t="s">
         <v>124</v>
       </c>
@@ -2467,10 +3976,34 @@
         <v>676295.50067600003</v>
       </c>
       <c r="E63" s="4">
-        <v>60.259527802735356</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.75">
+        <v>0.60259527802735358</v>
+      </c>
+      <c r="F63">
+        <v>-0.122645290581162</v>
+      </c>
+      <c r="G63">
+        <v>-8.7766990291262198E-2</v>
+      </c>
+      <c r="H63">
+        <v>-0.143265306122449</v>
+      </c>
+      <c r="I63">
+        <v>-0.19752030782385599</v>
+      </c>
+      <c r="J63">
+        <v>-0.14983579638752001</v>
+      </c>
+      <c r="K63">
+        <v>-1.11913357400722E-2</v>
+      </c>
+      <c r="L63">
+        <v>9.3527508090614705E-2</v>
+      </c>
+      <c r="M63">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A64" s="2" t="s">
         <v>126</v>
       </c>
@@ -2484,10 +4017,34 @@
         <v>5618.343304</v>
       </c>
       <c r="E64" s="4">
-        <v>1.1641629032258116</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.75">
+        <v>1.1641629032258117E-2</v>
+      </c>
+      <c r="F64">
+        <v>0.13855688357680301</v>
+      </c>
+      <c r="G64">
+        <v>1.8163471241170501E-2</v>
+      </c>
+      <c r="H64">
+        <v>-4.6236559139784902E-2</v>
+      </c>
+      <c r="I64">
+        <v>-4.0363539160652301E-2</v>
+      </c>
+      <c r="J64">
+        <v>7.7021822849810296E-4</v>
+      </c>
+      <c r="K64">
+        <v>-4.39914163090128E-2</v>
+      </c>
+      <c r="L64">
+        <v>-6.6301369863013701E-2</v>
+      </c>
+      <c r="M64">
+        <v>0.29299999999999998</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A65" s="2" t="s">
         <v>128</v>
       </c>
@@ -2501,10 +4058,34 @@
         <v>1251.5471999999997</v>
       </c>
       <c r="E65" s="4">
-        <v>0.2077838497015847</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.75">
+        <v>2.0778384970158471E-3</v>
+      </c>
+      <c r="F65">
+        <v>1.8889202142655801E-2</v>
+      </c>
+      <c r="G65">
+        <v>2.32949761436992E-2</v>
+      </c>
+      <c r="H65">
+        <v>-7.6399628827714103E-2</v>
+      </c>
+      <c r="I65">
+        <v>-0.13133940182054599</v>
+      </c>
+      <c r="J65">
+        <v>-0.13244386592905899</v>
+      </c>
+      <c r="K65">
+        <v>-5.75043128234503E-4</v>
+      </c>
+      <c r="L65">
+        <v>8.6614173228346497E-2</v>
+      </c>
+      <c r="M65">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A66" s="2" t="s">
         <v>130</v>
       </c>
@@ -2518,10 +4099,34 @@
         <v>2570.1260000000002</v>
       </c>
       <c r="E66" s="4">
-        <v>0.89551428571428815</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.75">
+        <v>8.955142857142882E-3</v>
+      </c>
+      <c r="F66">
+        <v>3.7558685446009397E-2</v>
+      </c>
+      <c r="G66">
+        <v>8.6452762923351203E-2</v>
+      </c>
+      <c r="H66">
+        <v>8.6859688195991006E-2</v>
+      </c>
+      <c r="I66">
+        <v>0.106169609766732</v>
+      </c>
+      <c r="J66">
+        <v>0.19164037854889501</v>
+      </c>
+      <c r="K66">
+        <v>0.31700816258537401</v>
+      </c>
+      <c r="L66">
+        <v>0.35341428796719698</v>
+      </c>
+      <c r="M66">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A67" s="2" t="s">
         <v>132</v>
       </c>
@@ -2535,10 +4140,34 @@
         <v>1747.2655200000002</v>
       </c>
       <c r="E67" s="4">
-        <v>0.37917177905671906</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.75">
+        <v>3.7917177905671907E-3</v>
+      </c>
+      <c r="F67">
+        <v>-1.6871535309713199E-3</v>
+      </c>
+      <c r="G67">
+        <v>-0.60711523588553695</v>
+      </c>
+      <c r="H67">
+        <v>-0.82280701754385899</v>
+      </c>
+      <c r="I67">
+        <v>-0.81484716157205195</v>
+      </c>
+      <c r="J67">
+        <v>-0.82200789127575602</v>
+      </c>
+      <c r="K67">
+        <v>-0.93662628145386695</v>
+      </c>
+      <c r="L67">
+        <v>-0.67648245260185502</v>
+      </c>
+      <c r="M67">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A68" s="2" t="s">
         <v>134</v>
       </c>
@@ -2552,10 +4181,34 @@
         <v>59264</v>
       </c>
       <c r="E68" s="4">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.75">
+        <v>0.25</v>
+      </c>
+      <c r="F68">
+        <v>0.317109144542772</v>
+      </c>
+      <c r="G68">
+        <v>0.435537945748247</v>
+      </c>
+      <c r="H68">
+        <v>0.31126812941613902</v>
+      </c>
+      <c r="I68">
+        <v>0.30113207547169801</v>
+      </c>
+      <c r="J68">
+        <v>0.32111436950146599</v>
+      </c>
+      <c r="K68">
+        <v>0.26942800788954602</v>
+      </c>
+      <c r="L68">
+        <v>0.28823981552651801</v>
+      </c>
+      <c r="M68">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A69" s="2" t="s">
         <v>136</v>
       </c>
@@ -2569,10 +4222,34 @@
         <v>259107.20000000001</v>
       </c>
       <c r="E69" s="4">
-        <v>13.566084788029924</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.75">
+        <v>0.13566084788029925</v>
+      </c>
+      <c r="F69">
+        <v>-2.2761434399828199E-2</v>
+      </c>
+      <c r="G69">
+        <v>2.11672831894778E-2</v>
+      </c>
+      <c r="H69">
+        <v>1.3054289266473101E-2</v>
+      </c>
+      <c r="I69">
+        <v>9.4486692015209095E-2</v>
+      </c>
+      <c r="J69">
+        <v>7.4786324786324604E-2</v>
+      </c>
+      <c r="K69">
+        <v>0.21142384105960199</v>
+      </c>
+      <c r="L69">
+        <v>8.92925430210324E-2</v>
+      </c>
+      <c r="M69">
+        <v>1.9020999999999999</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A70" s="2" t="s">
         <v>138</v>
       </c>
@@ -2586,10 +4263,34 @@
         <v>99368.107019999996</v>
       </c>
       <c r="E70" s="4">
-        <v>23.71242605863192</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.75">
+        <v>0.23712426058631919</v>
+      </c>
+      <c r="F70">
+        <v>-0.19318181818181801</v>
+      </c>
+      <c r="G70">
+        <v>-0.41891891891891903</v>
+      </c>
+      <c r="H70">
+        <v>-0.46459227467811098</v>
+      </c>
+      <c r="I70">
+        <v>-0.41450777202072497</v>
+      </c>
+      <c r="J70">
+        <v>-0.43684210526315698</v>
+      </c>
+      <c r="K70">
+        <v>-0.58077591198610301</v>
+      </c>
+      <c r="L70">
+        <v>-0.68310727496917401</v>
+      </c>
+      <c r="M70">
+        <v>-0.08</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A71" s="2" t="s">
         <v>140</v>
       </c>
@@ -2603,10 +4304,34 @@
         <v>153603.32089999999</v>
       </c>
       <c r="E71" s="4">
-        <v>8.6826237904230581</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.75">
+        <v>8.682623790423058E-2</v>
+      </c>
+      <c r="F71">
+        <v>-1.31229495391343E-2</v>
+      </c>
+      <c r="G71">
+        <v>-6.0680405626430997E-2</v>
+      </c>
+      <c r="H71">
+        <v>-5.9294348252204997E-2</v>
+      </c>
+      <c r="I71">
+        <v>-0.10854700854700799</v>
+      </c>
+      <c r="J71">
+        <v>1.6933497536945701E-3</v>
+      </c>
+      <c r="K71">
+        <v>-0.49252013808975798</v>
+      </c>
+      <c r="L71">
+        <v>-0.29080414012738798</v>
+      </c>
+      <c r="M71">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A72" s="2" t="s">
         <v>142</v>
       </c>
@@ -2620,10 +4345,34 @@
         <v>79181.744615999996</v>
       </c>
       <c r="E72" s="4">
-        <v>31.997540138143492</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.75">
+        <v>0.31997540138143493</v>
+      </c>
+      <c r="F72">
+        <v>1.2830188679245199E-2</v>
+      </c>
+      <c r="G72">
+        <v>2.7509293680297298E-2</v>
+      </c>
+      <c r="H72">
+        <v>1.8018018018018001E-2</v>
+      </c>
+      <c r="I72">
+        <v>-4.9942374183633799E-3</v>
+      </c>
+      <c r="J72">
+        <v>-7.2131147540983598E-2</v>
+      </c>
+      <c r="K72">
+        <v>1.7280240420736299E-2</v>
+      </c>
+      <c r="L72">
+        <v>-3.8240917782032699E-4</v>
+      </c>
+      <c r="M72">
+        <v>2.63E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A73" s="2" t="s">
         <v>144</v>
       </c>
@@ -2637,10 +4386,34 @@
         <v>19525.968852000002</v>
       </c>
       <c r="E73" s="4">
-        <v>4.1796053992271425</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.75">
+        <v>4.1796053992271424E-2</v>
+      </c>
+      <c r="F73">
+        <v>2.1069692058346801E-2</v>
+      </c>
+      <c r="G73">
+        <v>3.9745627980922099E-2</v>
+      </c>
+      <c r="H73">
+        <v>6.2111801242236003E-2</v>
+      </c>
+      <c r="I73">
+        <v>0.111764705882352</v>
+      </c>
+      <c r="J73">
+        <v>0.190348525469168</v>
+      </c>
+      <c r="K73">
+        <v>0.173734610123118</v>
+      </c>
+      <c r="L73">
+        <v>-6.6666666666666697E-3</v>
+      </c>
+      <c r="M73">
+        <v>9.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A74" s="2" t="s">
         <v>146</v>
       </c>
@@ -2654,10 +4427,34 @@
         <v>4096.3325480000003</v>
       </c>
       <c r="E74" s="4">
-        <v>0.4408320442639706</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.75">
+        <v>4.4083204426397064E-3</v>
+      </c>
+      <c r="F74">
+        <v>-5.9382422802851196E-3</v>
+      </c>
+      <c r="G74">
+        <v>1.76782557454316E-3</v>
+      </c>
+      <c r="H74">
+        <v>-1.8641010222489599E-2</v>
+      </c>
+      <c r="I74">
+        <v>1.5116279069767299E-2</v>
+      </c>
+      <c r="J74">
+        <v>4.1855203619909402E-2</v>
+      </c>
+      <c r="K74">
+        <v>-3.4819792302993202E-2</v>
+      </c>
+      <c r="L74">
+        <v>0.38578680203045601</v>
+      </c>
+      <c r="M74">
+        <v>0.36109999999999998</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A75" s="2" t="s">
         <v>148</v>
       </c>
@@ -2671,10 +4468,34 @@
         <v>567850.46383799997</v>
       </c>
       <c r="E75" s="4">
-        <v>4.1960530644241061</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.75">
+        <v>4.1960530644241059E-2</v>
+      </c>
+      <c r="F75">
+        <v>2.7390438247011799E-2</v>
+      </c>
+      <c r="G75">
+        <v>-5.8823529411764698E-2</v>
+      </c>
+      <c r="H75">
+        <v>-6.6048034934497804E-2</v>
+      </c>
+      <c r="I75">
+        <v>-9.1366303436714202E-2</v>
+      </c>
+      <c r="J75">
+        <v>-2.8165306659647199E-2</v>
+      </c>
+      <c r="K75">
+        <v>-0.247126436781609</v>
+      </c>
+      <c r="L75">
+        <v>-0.30722891566264998</v>
+      </c>
+      <c r="M75">
+        <v>0.73229999999999995</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A76" s="2" t="s">
         <v>150</v>
       </c>
@@ -2688,10 +4509,34 @@
         <v>104776.297228</v>
       </c>
       <c r="E76" s="4">
-        <v>20.349653749999998</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.75">
+        <v>0.20349653749999999</v>
+      </c>
+      <c r="F76">
+        <v>-0.48363301060396402</v>
+      </c>
+      <c r="G76">
+        <v>-0.68481675392670105</v>
+      </c>
+      <c r="H76">
+        <v>-0.70264550264550196</v>
+      </c>
+      <c r="I76">
+        <v>-0.57359413202933895</v>
+      </c>
+      <c r="J76">
+        <v>-0.65025641025641001</v>
+      </c>
+      <c r="K76">
+        <v>-0.58756783423778902</v>
+      </c>
+      <c r="L76">
+        <v>-0.49674418604651099</v>
+      </c>
+      <c r="M76">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A77" s="2" t="s">
         <v>152</v>
       </c>
@@ -2705,10 +4550,34 @@
         <v>240830.37720000002</v>
       </c>
       <c r="E77" s="4">
-        <v>44.825021626552982</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.75">
+        <v>0.4482502162655298</v>
+      </c>
+      <c r="F77">
+        <v>5.4919908466819101E-2</v>
+      </c>
+      <c r="G77">
+        <v>1.27490039840637E-2</v>
+      </c>
+      <c r="H77">
+        <v>8.0064051240992494E-3</v>
+      </c>
+      <c r="I77">
+        <v>2.9757243539545699E-2</v>
+      </c>
+      <c r="J77">
+        <v>4.9117421335379802E-2</v>
+      </c>
+      <c r="K77">
+        <v>0.45942408376963301</v>
+      </c>
+      <c r="L77">
+        <v>0.55254604550379105</v>
+      </c>
+      <c r="M77">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A78" s="2" t="s">
         <v>154</v>
       </c>
@@ -2722,10 +4591,34 @@
         <v>947543.33917799999</v>
       </c>
       <c r="E78" s="4">
-        <v>4.9342033234854625</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.75">
+        <v>4.9342033234854622E-2</v>
+      </c>
+      <c r="F78">
+        <v>2.1670103092783399E-2</v>
+      </c>
+      <c r="G78">
+        <v>4.6442926045016097E-2</v>
+      </c>
+      <c r="H78">
+        <v>7.5714793666729497E-3</v>
+      </c>
+      <c r="I78">
+        <v>-1.3867521367521301E-2</v>
+      </c>
+      <c r="J78">
+        <v>6.2476536721266102E-2</v>
+      </c>
+      <c r="K78">
+        <v>-0.198509724677949</v>
+      </c>
+      <c r="L78">
+        <v>-0.151954357853848</v>
+      </c>
+      <c r="M78">
+        <v>4.75</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A79" s="2" t="s">
         <v>156</v>
       </c>
@@ -2739,10 +4632,34 @@
         <v>36088.801202999995</v>
       </c>
       <c r="E79" s="4">
-        <v>10.835424999043539</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.75">
+        <v>0.10835424999043539</v>
+      </c>
+      <c r="F79">
+        <v>-3.61445783132529E-3</v>
+      </c>
+      <c r="G79">
+        <v>-4.73595976529756E-2</v>
+      </c>
+      <c r="H79">
+        <v>-8.7467362924281894E-2</v>
+      </c>
+      <c r="I79">
+        <v>-9.4612352168199701E-2</v>
+      </c>
+      <c r="J79">
+        <v>-0.85111111111111104</v>
+      </c>
+      <c r="K79">
+        <v>-0.76983002832861103</v>
+      </c>
+      <c r="L79">
+        <v>-0.59273422562141398</v>
+      </c>
+      <c r="M79">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A80" s="2" t="s">
         <v>158</v>
       </c>
@@ -2756,10 +4673,34 @@
         <v>59896.799999999996</v>
       </c>
       <c r="E80" s="4">
-        <v>10.616284300494829</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.75">
+        <v>0.1061628430049483</v>
+      </c>
+      <c r="F80">
+        <v>6.2084257206208499E-2</v>
+      </c>
+      <c r="G80">
+        <v>7.6419213973799097E-2</v>
+      </c>
+      <c r="H80">
+        <v>7.86321062949248E-2</v>
+      </c>
+      <c r="I80">
+        <v>9.94251649989355E-2</v>
+      </c>
+      <c r="J80">
+        <v>6.8076668869795104E-2</v>
+      </c>
+      <c r="K80">
+        <v>-0.46063535911602099</v>
+      </c>
+      <c r="L80">
+        <v>-0.46620450606585701</v>
+      </c>
+      <c r="M80">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A81" s="2" t="s">
         <v>160</v>
       </c>
@@ -2773,10 +4714,34 @@
         <v>471441.96922200004</v>
       </c>
       <c r="E81" s="4">
-        <v>5.5897085309623122</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.75">
+        <v>5.5897085309623125E-2</v>
+      </c>
+      <c r="F81">
+        <v>-3.6679536679536703E-2</v>
+      </c>
+      <c r="G81">
+        <v>-5.0880626223091897E-2</v>
+      </c>
+      <c r="H81">
+        <v>-4.8828125E-2</v>
+      </c>
+      <c r="I81">
+        <v>-7.3999999999999996E-2</v>
+      </c>
+      <c r="J81">
+        <v>-5.50098231827112E-2</v>
+      </c>
+      <c r="K81">
+        <v>-0.27857142857142803</v>
+      </c>
+      <c r="L81">
+        <v>-0.34586466165413499</v>
+      </c>
+      <c r="M81">
+        <v>-0.32</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A82" s="2" t="s">
         <v>162</v>
       </c>
@@ -2790,10 +4755,34 @@
         <v>201174.905</v>
       </c>
       <c r="E82" s="4">
-        <v>25.000146484088898</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.75">
+        <v>0.25000146484088898</v>
+      </c>
+      <c r="F82">
+        <v>0.181991672449687</v>
+      </c>
+      <c r="G82">
+        <v>1.2565445026178E-2</v>
+      </c>
+      <c r="H82">
+        <v>2.1378165213781601E-2</v>
+      </c>
+      <c r="I82">
+        <v>9.67432950191571E-2</v>
+      </c>
+      <c r="J82">
+        <v>0.30559646539027902</v>
+      </c>
+      <c r="K82">
+        <v>0.53959574260326104</v>
+      </c>
+      <c r="L82">
+        <v>0.62484086569064201</v>
+      </c>
+      <c r="M82">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A83" s="2" t="s">
         <v>164</v>
       </c>
@@ -2807,10 +4796,34 @@
         <v>1459354.7464910001</v>
       </c>
       <c r="E83" s="4">
-        <v>24.587873327796281</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.75">
+        <v>0.24587873327796281</v>
+      </c>
+      <c r="F83">
+        <v>1.84577522559474E-2</v>
+      </c>
+      <c r="G83">
+        <v>2.7235772357723599E-2</v>
+      </c>
+      <c r="H83">
+        <v>1.66875260742591E-3</v>
+      </c>
+      <c r="I83">
+        <v>-9.8714416896235002E-2</v>
+      </c>
+      <c r="J83">
+        <v>-8.7233075874602301E-2</v>
+      </c>
+      <c r="K83">
+        <v>0.19751844399731699</v>
+      </c>
+      <c r="L83">
+        <v>0.11304670126019201</v>
+      </c>
+      <c r="M83">
+        <v>4.2000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A84" s="2" t="s">
         <v>166</v>
       </c>
@@ -2824,10 +4837,34 @@
         <v>77809.667715999996</v>
       </c>
       <c r="E84" s="4">
-        <v>20.31652972972973</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.75">
+        <v>0.20316529729729729</v>
+      </c>
+      <c r="F84">
+        <v>-0.17544855780149901</v>
+      </c>
+      <c r="G84">
+        <v>-0.32705128205128198</v>
+      </c>
+      <c r="H84">
+        <v>-0.35519769573186699</v>
+      </c>
+      <c r="I84">
+        <v>-0.28106435643564298</v>
+      </c>
+      <c r="J84">
+        <v>-0.27491070328858203</v>
+      </c>
+      <c r="K84">
+        <v>-0.18364779874213799</v>
+      </c>
+      <c r="L84">
+        <v>0.353829827080342</v>
+      </c>
+      <c r="M84">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A85" s="2" t="s">
         <v>168</v>
       </c>
@@ -2841,10 +4878,34 @@
         <v>83769.48</v>
       </c>
       <c r="E85" s="4">
-        <v>25.005377816141753</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.75">
+        <v>0.25005377816141755</v>
+      </c>
+      <c r="F85">
+        <v>0.16519546027742699</v>
+      </c>
+      <c r="G85">
+        <v>0.117137141587019</v>
+      </c>
+      <c r="H85">
+        <v>6.5411764705882294E-2</v>
+      </c>
+      <c r="I85">
+        <v>0.17661691542288499</v>
+      </c>
+      <c r="J85">
+        <v>0.100339750849377</v>
+      </c>
+      <c r="K85">
+        <v>0.136709410997609</v>
+      </c>
+      <c r="L85">
+        <v>0.33018549747048898</v>
+      </c>
+      <c r="M85">
+        <v>1.0900000000000001</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A86" s="2" t="s">
         <v>170</v>
       </c>
@@ -2858,10 +4919,34 @@
         <v>78041.304439</v>
       </c>
       <c r="E86" s="4">
-        <v>20.354691033251139</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.75">
+        <v>0.2035469103325114</v>
+      </c>
+      <c r="F86">
+        <v>-6.7133229652669796E-2</v>
+      </c>
+      <c r="G86">
+        <v>0.18796844181459499</v>
+      </c>
+      <c r="H86">
+        <v>0.251318421531187</v>
+      </c>
+      <c r="I86">
+        <v>0.28062205137165802</v>
+      </c>
+      <c r="J86">
+        <v>0.325081967213114</v>
+      </c>
+      <c r="K86">
+        <v>0.25524602026049198</v>
+      </c>
+      <c r="L86">
+        <v>0.30690235690235601</v>
+      </c>
+      <c r="M86">
+        <v>0.31490000000000001</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A87" s="2" t="s">
         <v>172</v>
       </c>
@@ -2875,10 +4960,34 @@
         <v>66939</v>
       </c>
       <c r="E87" s="4">
-        <v>25.078864353312301</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.75">
+        <v>0.25078864353312302</v>
+      </c>
+      <c r="F87">
+        <v>0.31722348361984998</v>
+      </c>
+      <c r="G87">
+        <v>0.23370950127411699</v>
+      </c>
+      <c r="H87">
+        <v>0.26088483146067398</v>
+      </c>
+      <c r="I87">
+        <v>0.31544715447154398</v>
+      </c>
+      <c r="J87">
+        <v>0.50423928403203</v>
+      </c>
+      <c r="K87">
+        <v>0.39891490576813199</v>
+      </c>
+      <c r="L87">
+        <v>0.24226061915046701</v>
+      </c>
+      <c r="M87">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A88" s="2" t="s">
         <v>174</v>
       </c>
@@ -2892,10 +5001,34 @@
         <v>128270.27896800001</v>
       </c>
       <c r="E88" s="4">
-        <v>10.139622380952382</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.75">
+        <v>0.10139622380952382</v>
+      </c>
+      <c r="F88">
+        <v>-0.43565300285986602</v>
+      </c>
+      <c r="G88">
+        <v>-0.50750750750750695</v>
+      </c>
+      <c r="H88">
+        <v>-0.43223965763195399</v>
+      </c>
+      <c r="I88">
+        <v>-0.39897816999535501</v>
+      </c>
+      <c r="J88">
+        <v>-0.54066496163682798</v>
+      </c>
+      <c r="K88">
+        <v>-0.60042507970244396</v>
+      </c>
+      <c r="L88">
+        <v>-0.68268156424580995</v>
+      </c>
+      <c r="M88">
+        <v>0.32569999999999999</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A89" s="2" t="s">
         <v>176</v>
       </c>
@@ -2909,10 +5042,34 @@
         <v>1412950</v>
       </c>
       <c r="E89" s="4">
-        <v>77.906743152428604</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.75">
+        <v>0.77906743152428604</v>
+      </c>
+      <c r="F89">
+        <v>5.5514705882352799E-2</v>
+      </c>
+      <c r="G89">
+        <v>7.1893063583814906E-2</v>
+      </c>
+      <c r="H89">
+        <v>6.13810741687979E-2</v>
+      </c>
+      <c r="I89">
+        <v>2.7262400605830999E-2</v>
+      </c>
+      <c r="J89">
+        <v>2.0960365853658399E-2</v>
+      </c>
+      <c r="K89">
+        <v>0.149900727994705</v>
+      </c>
+      <c r="L89">
+        <v>0.355494229804315</v>
+      </c>
+      <c r="M89">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A90" s="2" t="s">
         <v>178</v>
       </c>
@@ -2926,10 +5083,34 @@
         <v>67019.399999999994</v>
       </c>
       <c r="E90" s="4">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.75">
+        <v>0.18</v>
+      </c>
+      <c r="F90">
+        <v>-6.19946091644204E-2</v>
+      </c>
+      <c r="G90">
+        <v>-0.109859154929577</v>
+      </c>
+      <c r="H90">
+        <v>-0.114568599717114</v>
+      </c>
+      <c r="I90">
+        <v>-0.106741573033707</v>
+      </c>
+      <c r="J90">
+        <v>-0.145348837209302</v>
+      </c>
+      <c r="K90">
+        <v>-0.190332326283987</v>
+      </c>
+      <c r="L90">
+        <v>-0.285481239804241</v>
+      </c>
+      <c r="M90">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A91" s="2" t="s">
         <v>180</v>
       </c>
@@ -2943,10 +5124,34 @@
         <v>66148.105249999993</v>
       </c>
       <c r="E91" s="4">
-        <v>25.394563837504535</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.75">
+        <v>0.25394563837504536</v>
+      </c>
+      <c r="F91">
+        <v>-0.11678486997635899</v>
+      </c>
+      <c r="G91">
+        <v>-0.14604560892770499</v>
+      </c>
+      <c r="H91">
+        <v>-0.115203021718602</v>
+      </c>
+      <c r="I91">
+        <v>-0.14939172749391699</v>
+      </c>
+      <c r="J91">
+        <v>-0.15784313725490201</v>
+      </c>
+      <c r="K91">
+        <v>-8.1006864988558303E-2</v>
+      </c>
+      <c r="L91">
+        <v>-0.16412025628388299</v>
+      </c>
+      <c r="M91">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A92" s="2" t="s">
         <v>182</v>
       </c>
@@ -2960,10 +5165,34 @@
         <v>2987.25</v>
       </c>
       <c r="E92" s="4">
-        <v>3.6888975152422177E-2</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.75">
+        <v>3.6888975152422177E-4</v>
+      </c>
+      <c r="F92">
+        <v>0.12805843591970101</v>
+      </c>
+      <c r="G92">
+        <v>0.11659680173886</v>
+      </c>
+      <c r="H92">
+        <v>4.07417813992694E-2</v>
+      </c>
+      <c r="I92">
+        <v>-4.05858478913003E-3</v>
+      </c>
+      <c r="J92">
+        <v>-0.401477832512315</v>
+      </c>
+      <c r="K92">
+        <v>-7.4395770392749194E-2</v>
+      </c>
+      <c r="L92">
+        <v>7.2484242555966097E-2</v>
+      </c>
+      <c r="M92">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A93" s="2" t="s">
         <v>184</v>
       </c>
@@ -2977,10 +5206,34 @@
         <v>340165.1715</v>
       </c>
       <c r="E93" s="4">
-        <v>24.396503975033102</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.75">
+        <v>0.24396503975033101</v>
+      </c>
+      <c r="F93">
+        <v>-2.3529411764705899E-2</v>
+      </c>
+      <c r="G93">
+        <v>-3.0139935414424199E-2</v>
+      </c>
+      <c r="H93">
+        <v>5.1975051975050798E-3</v>
+      </c>
+      <c r="I93">
+        <v>1.340206185567E-2</v>
+      </c>
+      <c r="J93">
+        <v>-4.9342105263158E-2</v>
+      </c>
+      <c r="K93">
+        <v>-0.10635838150289</v>
+      </c>
+      <c r="L93">
+        <v>-8.2579185520362003E-2</v>
+      </c>
+      <c r="M93">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A94" s="2" t="s">
         <v>186</v>
       </c>
@@ -2994,10 +5247,34 @@
         <v>8249.0852999999988</v>
       </c>
       <c r="E94" s="4">
-        <v>1.0254449929404252</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.75">
+        <v>1.0254449929404252E-2</v>
+      </c>
+      <c r="F94">
+        <v>-3.8821693328131103E-2</v>
+      </c>
+      <c r="G94">
+        <v>-5.9701492537313397E-2</v>
+      </c>
+      <c r="H94">
+        <v>-7.55402948899212E-2</v>
+      </c>
+      <c r="I94">
+        <v>-6.7562149157979007E-2</v>
+      </c>
+      <c r="J94">
+        <v>0.14119829046044599</v>
+      </c>
+      <c r="K94">
+        <v>0.22786920901906699</v>
+      </c>
+      <c r="L94">
+        <v>0.20876671619613599</v>
+      </c>
+      <c r="M94">
+        <v>2.4182999999999999</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A95" s="2" t="s">
         <v>188</v>
       </c>
@@ -3011,10 +5288,34 @@
         <v>83559.254325000002</v>
       </c>
       <c r="E95" s="4">
-        <v>21.948845370370371</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.75">
+        <v>0.21948845370370371</v>
+      </c>
+      <c r="F95">
+        <v>0.18327154772937801</v>
+      </c>
+      <c r="G95">
+        <v>0.19373284537968799</v>
+      </c>
+      <c r="H95">
+        <v>0.177554829678021</v>
+      </c>
+      <c r="I95">
+        <v>0.177554829678021</v>
+      </c>
+      <c r="J95">
+        <v>0.32921027592768698</v>
+      </c>
+      <c r="K95">
+        <v>0.29074446680080401</v>
+      </c>
+      <c r="L95">
+        <v>0.39948892674616698</v>
+      </c>
+      <c r="M95">
+        <v>0.69</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A96" s="2" t="s">
         <v>190</v>
       </c>
@@ -3028,10 +5329,34 @@
         <v>2182.0583839999999</v>
       </c>
       <c r="E96" s="4">
-        <v>1.0013116666666662</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.75">
+        <v>1.0013116666666662E-2</v>
+      </c>
+      <c r="F96">
+        <v>-4.9710982658959499E-2</v>
+      </c>
+      <c r="G96">
+        <v>-5.0925925925925798E-2</v>
+      </c>
+      <c r="H96">
+        <v>-5.2753623188405797E-2</v>
+      </c>
+      <c r="I96">
+        <v>-4.9104563835933E-2</v>
+      </c>
+      <c r="J96">
+        <v>-5.45876887340302E-2</v>
+      </c>
+      <c r="K96">
+        <v>4.0676175382989899E-2</v>
+      </c>
+      <c r="L96">
+        <v>8.0506329113923997E-2</v>
+      </c>
+      <c r="M96">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A97" s="2" t="s">
         <v>192</v>
       </c>
@@ -3045,10 +5370,34 @@
         <v>151800</v>
       </c>
       <c r="E97" s="4">
-        <v>14.904059965245253</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.75">
+        <v>0.14904059965245253</v>
+      </c>
+      <c r="F97">
+        <v>-0.131991051454138</v>
+      </c>
+      <c r="G97">
+        <v>-0.12195121951219499</v>
+      </c>
+      <c r="H97">
+        <v>-0.15525114155251099</v>
+      </c>
+      <c r="I97">
+        <v>-0.213429256594724</v>
+      </c>
+      <c r="J97">
+        <v>-0.19621749408983399</v>
+      </c>
+      <c r="K97">
+        <v>-0.28101265822784699</v>
+      </c>
+      <c r="L97">
+        <v>-0.23716381418092899</v>
+      </c>
+      <c r="M97">
+        <v>0.1641</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A98" s="2" t="s">
         <v>194</v>
       </c>
@@ -3062,10 +5411,31 @@
         <v>2844.3369000000002</v>
       </c>
       <c r="E98" s="4">
-        <v>0.32292801580385344</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.75">
+        <v>3.2292801580385343E-3</v>
+      </c>
+      <c r="G98">
+        <v>-7.1123755334281304E-3</v>
+      </c>
+      <c r="H98">
+        <v>-3.2069970845481001E-2</v>
+      </c>
+      <c r="I98">
+        <v>-1.1428571428571401E-2</v>
+      </c>
+      <c r="J98">
+        <v>-1.41442715700138E-3</v>
+      </c>
+      <c r="K98">
+        <v>5.97609561752988E-2</v>
+      </c>
+      <c r="L98">
+        <v>0.24278074866310101</v>
+      </c>
+      <c r="M98">
+        <v>0.16289999999999999</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A99" s="2" t="s">
         <v>196</v>
       </c>
@@ -3079,10 +5449,34 @@
         <v>27895.831548000002</v>
       </c>
       <c r="E99" s="4">
-        <v>7.2247867750854553</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.75">
+        <v>7.2247867750854552E-2</v>
+      </c>
+      <c r="F99">
+        <v>-6.0594059405940599E-2</v>
+      </c>
+      <c r="G99">
+        <v>-4.6093749999999899E-2</v>
+      </c>
+      <c r="H99">
+        <v>-7.3346693386773604E-2</v>
+      </c>
+      <c r="I99">
+        <v>-0.17973568281938301</v>
+      </c>
+      <c r="J99">
+        <v>-0.126156433978132</v>
+      </c>
+      <c r="K99">
+        <v>-2.2918258212375898E-2</v>
+      </c>
+      <c r="L99">
+        <v>6.06804629954402E-2</v>
+      </c>
+      <c r="M99">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A100" s="2" t="s">
         <v>198</v>
       </c>
@@ -3096,10 +5490,34 @@
         <v>5177.833232</v>
       </c>
       <c r="E100" s="4">
-        <v>1.0859592840192533</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.75">
+        <v>1.0859592840192533E-2</v>
+      </c>
+      <c r="F100">
+        <v>3.6190476190476203E-2</v>
+      </c>
+      <c r="G100">
+        <v>3.4351145038168003E-2</v>
+      </c>
+      <c r="H100">
+        <v>4.70809792843691E-2</v>
+      </c>
+      <c r="I100">
+        <v>2.3166023166023099E-2</v>
+      </c>
+      <c r="J100">
+        <v>-5.4166666666666599E-2</v>
+      </c>
+      <c r="K100">
+        <v>1.93798449612404E-2</v>
+      </c>
+      <c r="L100">
+        <v>3.9370078740158304E-3</v>
+      </c>
+      <c r="M100">
+        <v>0.217</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A101" s="2" t="s">
         <v>200</v>
       </c>
@@ -3113,10 +5531,34 @@
         <v>75798.162284999999</v>
       </c>
       <c r="E101" s="4">
-        <v>8.4999028458660035</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.75">
+        <v>8.4999028458660031E-2</v>
+      </c>
+      <c r="F101">
+        <v>-8.0586080586080605E-2</v>
+      </c>
+      <c r="G101">
+        <v>-0.136071887034659</v>
+      </c>
+      <c r="H101">
+        <v>-9.8014888337468797E-2</v>
+      </c>
+      <c r="I101">
+        <v>0.104251012145749</v>
+      </c>
+      <c r="J101">
+        <v>9.3237704918032793E-2</v>
+      </c>
+      <c r="K101">
+        <v>0.27990235964198501</v>
+      </c>
+      <c r="L101">
+        <v>0.28165584415584399</v>
+      </c>
+      <c r="M101">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A102" s="2" t="s">
         <v>202</v>
       </c>
@@ -3130,10 +5572,34 @@
         <v>7488</v>
       </c>
       <c r="E102" s="4">
-        <v>4.1687190949838708</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.75">
+        <v>4.1687190949838707E-2</v>
+      </c>
+      <c r="F102">
+        <v>-0.13868613138686101</v>
+      </c>
+      <c r="G102">
+        <v>-0.42465753424657499</v>
+      </c>
+      <c r="H102">
+        <v>-0.38053097345132703</v>
+      </c>
+      <c r="I102">
+        <v>-0.14285714285714199</v>
+      </c>
+      <c r="J102">
+        <v>-0.39910313901345201</v>
+      </c>
+      <c r="K102">
+        <v>-0.114285714285714</v>
+      </c>
+      <c r="L102">
+        <v>5.4545454545454397E-2</v>
+      </c>
+      <c r="M102">
+        <v>-0.2135</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A103" s="2" t="s">
         <v>204</v>
       </c>
@@ -3147,10 +5613,34 @@
         <v>1512.2220709999999</v>
       </c>
       <c r="E103" s="4">
-        <v>0.37408195579460823</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.75">
+        <v>3.7408195579460824E-3</v>
+      </c>
+      <c r="F103">
+        <v>-8.0158730158730096E-2</v>
+      </c>
+      <c r="G103">
+        <v>-0.12201154163231601</v>
+      </c>
+      <c r="H103">
+        <v>-0.11557377049180299</v>
+      </c>
+      <c r="I103">
+        <v>-0.110114192495921</v>
+      </c>
+      <c r="J103">
+        <v>-0.15436810856658101</v>
+      </c>
+      <c r="K103">
+        <v>-0.25669436749769098</v>
+      </c>
+      <c r="L103">
+        <v>-0.42662473794549199</v>
+      </c>
+      <c r="M103">
+        <v>0.16880000000000001</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A104" s="2" t="s">
         <v>206</v>
       </c>
@@ -3164,10 +5654,34 @@
         <v>2223.8294000000001</v>
       </c>
       <c r="E104" s="4">
-        <v>0.82651088707159204</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.75">
+        <v>8.2651088707159197E-3</v>
+      </c>
+      <c r="F104">
+        <v>-2.8409090909090298E-3</v>
+      </c>
+      <c r="G104">
+        <v>-8.5714285714285094E-3</v>
+      </c>
+      <c r="H104">
+        <v>1.3966480446927399E-2</v>
+      </c>
+      <c r="I104">
+        <v>1.94444444444445E-2</v>
+      </c>
+      <c r="J104">
+        <v>-1.43678160919539E-2</v>
+      </c>
+      <c r="K104">
+        <v>-2.31884057971013E-2</v>
+      </c>
+      <c r="L104">
+        <v>-4.4378698224851999E-2</v>
+      </c>
+      <c r="M104">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A105" s="2" t="s">
         <v>208</v>
       </c>
@@ -3181,10 +5695,34 @@
         <v>228369.56447000001</v>
       </c>
       <c r="E105" s="4">
-        <v>19.281035759073902</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.75">
+        <v>0.19281035759073903</v>
+      </c>
+      <c r="F105">
+        <v>-7.5450450450450401E-2</v>
+      </c>
+      <c r="G105">
+        <v>-3.6916395222584102E-2</v>
+      </c>
+      <c r="H105">
+        <v>-6.4659977703455898E-2</v>
+      </c>
+      <c r="I105">
+        <v>-7.3033707865168496E-2</v>
+      </c>
+      <c r="J105">
+        <v>-3.2432432432432497E-2</v>
+      </c>
+      <c r="K105">
+        <v>0.14503133393017001</v>
+      </c>
+      <c r="L105">
+        <v>0.225466342254663</v>
+      </c>
+      <c r="M105">
+        <v>-0.02</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A106" s="2" t="s">
         <v>140</v>
       </c>
@@ -3198,10 +5736,34 @@
         <v>6423.1196579999996</v>
       </c>
       <c r="E106" s="4">
-        <v>0.37958110922555477</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.75">
+        <v>3.7958110922555479E-3</v>
+      </c>
+      <c r="F106">
+        <v>-1.32309702711532E-2</v>
+      </c>
+      <c r="G106">
+        <v>-1.48887434554974E-2</v>
+      </c>
+      <c r="H106">
+        <v>-6.4526536538149905E-4</v>
+      </c>
+      <c r="I106">
+        <v>-1.6551950180268699E-2</v>
+      </c>
+      <c r="J106">
+        <v>4.3779867427162E-2</v>
+      </c>
+      <c r="K106">
+        <v>-0.284265010351967</v>
+      </c>
+      <c r="L106">
+        <v>-0.29094693028095697</v>
+      </c>
+      <c r="M106">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A107" s="2" t="s">
         <v>210</v>
       </c>
@@ -3215,10 +5777,34 @@
         <v>10726.401024000001</v>
       </c>
       <c r="E107" s="4">
-        <v>1.0250006439890029</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.75">
+        <v>1.025000643989003E-2</v>
+      </c>
+      <c r="F107">
+        <v>-6.1207778915046099E-2</v>
+      </c>
+      <c r="G107">
+        <v>-7.0521424883841097E-2</v>
+      </c>
+      <c r="H107">
+        <v>-2.65346534653466E-2</v>
+      </c>
+      <c r="I107">
+        <v>-6.08820218970633E-2</v>
+      </c>
+      <c r="J107">
+        <v>9.8591549295774503E-2</v>
+      </c>
+      <c r="K107">
+        <v>0.24043956043956</v>
+      </c>
+      <c r="L107">
+        <v>8.1502480510276296E-2</v>
+      </c>
+      <c r="M107">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A108" s="2" t="s">
         <v>212</v>
       </c>
@@ -3232,10 +5818,34 @@
         <v>120432.704508</v>
       </c>
       <c r="E108" s="4">
-        <v>9.4403944706873553</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.75">
+        <v>9.4403944706873549E-2</v>
+      </c>
+      <c r="F108">
+        <v>-0.37494305239179898</v>
+      </c>
+      <c r="G108">
+        <v>-0.38376891334250302</v>
+      </c>
+      <c r="H108">
+        <v>-0.42830099384761</v>
+      </c>
+      <c r="I108">
+        <v>-0.49554013875123798</v>
+      </c>
+      <c r="J108">
+        <v>-0.488165680473372</v>
+      </c>
+      <c r="K108">
+        <v>-0.59682539682539604</v>
+      </c>
+      <c r="L108">
+        <v>-0.82136391068195502</v>
+      </c>
+      <c r="M108">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A109" s="2" t="s">
         <v>214</v>
       </c>
@@ -3249,10 +5859,34 @@
         <v>98409.987500000003</v>
       </c>
       <c r="E109" s="4">
-        <v>21.159697683549272</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.75">
+        <v>0.21159697683549272</v>
+      </c>
+      <c r="F109">
+        <v>1.5739542906425201E-2</v>
+      </c>
+      <c r="G109">
+        <v>-1.39937805419812E-2</v>
+      </c>
+      <c r="H109">
+        <v>-4.3428571428571303E-2</v>
+      </c>
+      <c r="I109">
+        <v>-2.88483209375704E-2</v>
+      </c>
+      <c r="J109">
+        <v>-1.51211919057149E-2</v>
+      </c>
+      <c r="K109">
+        <v>-5.6712962962962798E-2</v>
+      </c>
+      <c r="L109">
+        <v>-0.22124130551096799</v>
+      </c>
+      <c r="M109">
+        <v>-0.06</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A110" s="2" t="s">
         <v>216</v>
       </c>
@@ -3266,10 +5900,34 @@
         <v>85098.090000000011</v>
       </c>
       <c r="E110" s="4">
-        <v>25.002884504442136</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.75">
+        <v>0.25002884504442136</v>
+      </c>
+      <c r="F110">
+        <v>-0.20275650842266399</v>
+      </c>
+      <c r="G110">
+        <v>-0.29947054930509598</v>
+      </c>
+      <c r="H110">
+        <v>-0.271285205568145</v>
+      </c>
+      <c r="I110">
+        <v>-0.26595744680851002</v>
+      </c>
+      <c r="J110">
+        <v>-0.35273854633138102</v>
+      </c>
+      <c r="K110">
+        <v>-0.44534412955465502</v>
+      </c>
+      <c r="L110">
+        <v>-0.59504467912266401</v>
+      </c>
+      <c r="M110">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A111" s="2" t="s">
         <v>218</v>
       </c>
@@ -3283,10 +5941,34 @@
         <v>142939.92495300001</v>
       </c>
       <c r="E111" s="4">
-        <v>43.89421033238694</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.75">
+        <v>0.4389421033238694</v>
+      </c>
+      <c r="F111">
+        <v>-1.4134275618374499E-2</v>
+      </c>
+      <c r="G111">
+        <v>7.7170418006430694E-2</v>
+      </c>
+      <c r="H111">
+        <v>0.122324159021406</v>
+      </c>
+      <c r="I111">
+        <v>0.10312499999999999</v>
+      </c>
+      <c r="J111">
+        <v>0.11692307692307601</v>
+      </c>
+      <c r="K111">
+        <v>0.27525252525252503</v>
+      </c>
+      <c r="L111">
+        <v>0.36784140969162898</v>
+      </c>
+      <c r="M111">
+        <v>7.7999999999999996E-3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A112" s="2" t="s">
         <v>220</v>
       </c>
@@ -3300,10 +5982,31 @@
         <v>139766.69981799999</v>
       </c>
       <c r="E112" s="4">
-        <v>8.2554688309792539</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.75">
+        <v>8.255468830979254E-2</v>
+      </c>
+      <c r="F112">
+        <v>1.14107883817428E-2</v>
+      </c>
+      <c r="G112">
+        <v>-3.1578947368420302E-3</v>
+      </c>
+      <c r="H112">
+        <v>-4.7252747252747203E-2</v>
+      </c>
+      <c r="J112">
+        <v>-8.4656084656084696E-3</v>
+      </c>
+      <c r="K112">
+        <v>-9.1013165426445303E-2</v>
+      </c>
+      <c r="L112">
+        <v>-0.181649101053936</v>
+      </c>
+      <c r="M112">
+        <v>0.96099999999999997</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A113" s="2" t="s">
         <v>222</v>
       </c>
@@ -3317,10 +6020,34 @@
         <v>6584.582985</v>
       </c>
       <c r="E113" s="4">
-        <v>1.7252899912725468</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.75">
+        <v>1.7252899912725467E-2</v>
+      </c>
+      <c r="F113">
+        <v>2.5356576862123399E-2</v>
+      </c>
+      <c r="G113">
+        <v>0.100877192982456</v>
+      </c>
+      <c r="H113">
+        <v>0.14583333333333301</v>
+      </c>
+      <c r="I113">
+        <v>0.113832853025936</v>
+      </c>
+      <c r="J113">
+        <v>0.113832853025936</v>
+      </c>
+      <c r="K113">
+        <v>-3.18791946308725E-2</v>
+      </c>
+      <c r="L113">
+        <v>0.11127167630057699</v>
+      </c>
+      <c r="M113">
+        <v>-0.02</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A114" s="2" t="s">
         <v>224</v>
       </c>
@@ -3334,10 +6061,34 @@
         <v>769836.80999999994</v>
       </c>
       <c r="E114" s="4">
-        <v>6.5967164524421591</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.75">
+        <v>6.5967164524421584E-2</v>
+      </c>
+      <c r="F114">
+        <v>1.5748031496062902E-2</v>
+      </c>
+      <c r="G114">
+        <v>1.9607843137254902E-2</v>
+      </c>
+      <c r="H114">
+        <v>-0.21713729308665999</v>
+      </c>
+      <c r="I114">
+        <v>-0.126126126126126</v>
+      </c>
+      <c r="J114">
+        <v>-4.4277360066833603E-2</v>
+      </c>
+      <c r="K114">
+        <v>-4.0160642570281598E-3</v>
+      </c>
+      <c r="L114">
+        <v>-7.2731173567903901E-2</v>
+      </c>
+      <c r="M114">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A115" s="2" t="s">
         <v>226</v>
       </c>
@@ -3351,10 +6102,34 @@
         <v>467494.13698000001</v>
       </c>
       <c r="E115" s="4">
-        <v>5.1034961214167112</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.75">
+        <v>5.1034961214167111E-2</v>
+      </c>
+      <c r="F115">
+        <v>-2.8711056811240001E-2</v>
+      </c>
+      <c r="G115">
+        <v>8.2449941107185197E-3</v>
+      </c>
+      <c r="H115">
+        <v>0.21491841491841401</v>
+      </c>
+      <c r="I115">
+        <v>0.26814428509343702</v>
+      </c>
+      <c r="J115">
+        <v>0.23972911963882601</v>
+      </c>
+      <c r="K115">
+        <v>0.36308623298033199</v>
+      </c>
+      <c r="L115">
+        <v>0.135523613963039</v>
+      </c>
+      <c r="M115">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A116" s="2" t="s">
         <v>228</v>
       </c>
@@ -3368,10 +6143,34 @@
         <v>477805.29927000002</v>
       </c>
       <c r="E116" s="4">
-        <v>23.711947561048778</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.75">
+        <v>0.23711947561048777</v>
+      </c>
+      <c r="F116">
+        <v>0.13457408732999199</v>
+      </c>
+      <c r="G116">
+        <v>3.0317613089509102E-2</v>
+      </c>
+      <c r="H116">
+        <v>3.3341328855840603E-2</v>
+      </c>
+      <c r="I116">
+        <v>3.9332538736590997E-2</v>
+      </c>
+      <c r="J116">
+        <v>-4.4492440604751597E-2</v>
+      </c>
+      <c r="K116">
+        <v>-0.12152133580705</v>
+      </c>
+      <c r="L116">
+        <v>-0.18960936731280101</v>
+      </c>
+      <c r="M116">
+        <v>15.039400000000001</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A117" s="2" t="s">
         <v>230</v>
       </c>
@@ -3385,10 +6184,34 @@
         <v>1052.0585000000001</v>
       </c>
       <c r="E117" s="4">
-        <v>1.4038235191065951E-2</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.75">
+        <v>1.4038235191065951E-4</v>
+      </c>
+      <c r="F117">
+        <v>2.74611398963731E-2</v>
+      </c>
+      <c r="G117">
+        <v>-2.01086956521738E-2</v>
+      </c>
+      <c r="H117">
+        <v>4.98126961628024E-2</v>
+      </c>
+      <c r="I117">
+        <v>6.1406140614061397E-2</v>
+      </c>
+      <c r="J117">
+        <v>2.5137633738443899E-2</v>
+      </c>
+      <c r="K117">
+        <v>-8.49710982658958E-2</v>
+      </c>
+      <c r="L117">
+        <v>-0.291810048176187</v>
+      </c>
+      <c r="M117">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A118" s="2" t="s">
         <v>232</v>
       </c>
@@ -3402,10 +6225,34 @@
         <v>119710.35327999998</v>
       </c>
       <c r="E118" s="4">
-        <v>23.711353276619356</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.75">
+        <v>0.23711353276619357</v>
+      </c>
+      <c r="F118">
+        <v>7.0043939002326194E-2</v>
+      </c>
+      <c r="G118">
+        <v>-2.6240730176839502E-2</v>
+      </c>
+      <c r="H118">
+        <v>-4.7757716948165198E-2</v>
+      </c>
+      <c r="I118">
+        <v>-4.6234370456527903E-2</v>
+      </c>
+      <c r="J118">
+        <v>0.13509615384615301</v>
+      </c>
+      <c r="K118">
+        <v>0.27780008028904002</v>
+      </c>
+      <c r="L118">
+        <v>0.410453875143372</v>
+      </c>
+      <c r="M118">
+        <v>1.0900000000000001</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A119" s="2" t="s">
         <v>234</v>
       </c>
@@ -3419,10 +6266,34 @@
         <v>102700</v>
       </c>
       <c r="E119" s="4">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.75">
+        <v>0.25</v>
+      </c>
+      <c r="F119">
+        <v>0.24871982443306501</v>
+      </c>
+      <c r="G119">
+        <v>0.37917485265225898</v>
+      </c>
+      <c r="H119">
+        <v>0.57601403653627803</v>
+      </c>
+      <c r="I119">
+        <v>0.64960764244285196</v>
+      </c>
+      <c r="J119">
+        <v>0.65215918712955101</v>
+      </c>
+      <c r="K119">
+        <v>0.54857142857142804</v>
+      </c>
+      <c r="L119">
+        <v>0.37492391965916</v>
+      </c>
+      <c r="M119">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A120" s="2" t="s">
         <v>236</v>
       </c>
@@ -3436,10 +6307,34 @@
         <v>58414.739647000002</v>
       </c>
       <c r="E120" s="4">
-        <v>5.8697480125993735</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.75">
+        <v>5.8697480125993733E-2</v>
+      </c>
+      <c r="F120">
+        <v>2.44428468727532E-2</v>
+      </c>
+      <c r="G120">
+        <v>-1.0834969865240201E-2</v>
+      </c>
+      <c r="H120">
+        <v>4.2834241744148599E-2</v>
+      </c>
+      <c r="I120">
+        <v>9.5716968558793095E-2</v>
+      </c>
+      <c r="J120">
+        <v>0.151923186182603</v>
+      </c>
+      <c r="K120">
+        <v>0.21329187308948999</v>
+      </c>
+      <c r="L120">
+        <v>0.121941176470588</v>
+      </c>
+      <c r="M120">
+        <v>1.77</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A121" s="2" t="s">
         <v>238</v>
       </c>
@@ -3453,10 +6348,34 @@
         <v>20838.253608000003</v>
       </c>
       <c r="E121" s="4">
-        <v>14.276830633474866</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.75">
+        <v>0.14276830633474866</v>
+      </c>
+      <c r="F121">
+        <v>-3.0726256983240101E-2</v>
+      </c>
+      <c r="G121">
+        <v>-3.1446540880502999E-2</v>
+      </c>
+      <c r="H121">
+        <v>-1.0958904109589E-2</v>
+      </c>
+      <c r="I121">
+        <v>2.1220159151193602E-2</v>
+      </c>
+      <c r="J121">
+        <v>6.58227848101266E-2</v>
+      </c>
+      <c r="K121">
+        <v>-0.25617021276595697</v>
+      </c>
+      <c r="L121">
+        <v>-0.22999999999999901</v>
+      </c>
+      <c r="M121">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A122" s="2" t="s">
         <v>240</v>
       </c>
@@ -3470,10 +6389,34 @@
         <v>72814.335892000003</v>
       </c>
       <c r="E122" s="4">
-        <v>17.404191466158125</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.75">
+        <v>0.17404191466158125</v>
+      </c>
+      <c r="F122">
+        <v>3.1989763275752201E-3</v>
+      </c>
+      <c r="G122">
+        <v>8.2749840865691104E-3</v>
+      </c>
+      <c r="H122">
+        <v>-1.6971279373368099E-2</v>
+      </c>
+      <c r="I122">
+        <v>-1.6971279373368099E-2</v>
+      </c>
+      <c r="J122">
+        <v>-2.5000000000000001E-2</v>
+      </c>
+      <c r="K122">
+        <v>-6.0585432266848198E-2</v>
+      </c>
+      <c r="L122">
+        <v>-0.15750371471025201</v>
+      </c>
+      <c r="M122">
+        <v>0.20200000000000001</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A123" s="2" t="s">
         <v>242</v>
       </c>
@@ -3487,10 +6430,34 @@
         <v>3627.9935999999998</v>
       </c>
       <c r="E123" s="4">
-        <v>0.83446145176424835</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.75">
+        <v>8.3446145176424829E-3</v>
+      </c>
+      <c r="F123">
+        <v>-2.6993094789704901E-2</v>
+      </c>
+      <c r="G123">
+        <v>-1.9950124688279301E-2</v>
+      </c>
+      <c r="H123">
+        <v>-1.8046048537647699E-2</v>
+      </c>
+      <c r="I123">
+        <v>-4.2702358189929797E-2</v>
+      </c>
+      <c r="J123">
+        <v>-3.1525851197982298E-2</v>
+      </c>
+      <c r="K123">
+        <v>-2.4509803921568098E-3</v>
+      </c>
+      <c r="L123">
+        <v>-7.1381794368041901E-2</v>
+      </c>
+      <c r="M123">
+        <v>0.21859999999999999</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A124" s="2" t="s">
         <v>244</v>
       </c>
@@ -3504,10 +6471,34 @@
         <v>79843.674899999998</v>
       </c>
       <c r="E124" s="4">
-        <v>0.26155651142443048</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.75">
+        <v>2.6155651142443048E-3</v>
+      </c>
+      <c r="F124">
+        <v>4.78612025127121E-3</v>
+      </c>
+      <c r="G124">
+        <v>-6.4980793854033395E-2</v>
+      </c>
+      <c r="H124">
+        <v>-8.3007812500000097E-2</v>
+      </c>
+      <c r="I124">
+        <v>-4.8323769254002896E-3</v>
+      </c>
+      <c r="J124">
+        <v>8.4731774415405706E-2</v>
+      </c>
+      <c r="K124">
+        <v>0.241795806745669</v>
+      </c>
+      <c r="L124">
+        <v>0.38875620062465499</v>
+      </c>
+      <c r="M124">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A125" s="2" t="s">
         <v>246</v>
       </c>
@@ -3521,10 +6512,34 @@
         <v>4113.8467499999997</v>
       </c>
       <c r="E125" s="4">
-        <v>0.83525123215555652</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.75">
+        <v>8.3525123215555646E-3</v>
+      </c>
+      <c r="F125">
+        <v>-1.4534883720929901E-3</v>
+      </c>
+      <c r="G125">
+        <v>-2.9112081513827598E-3</v>
+      </c>
+      <c r="H125">
+        <v>-5.8394160583941602E-3</v>
+      </c>
+      <c r="I125">
+        <v>2.8943560057887699E-3</v>
+      </c>
+      <c r="J125">
+        <v>1.71184022824536E-2</v>
+      </c>
+      <c r="K125">
+        <v>-2.8358208955223799E-2</v>
+      </c>
+      <c r="L125">
+        <v>-7.9937304075234999E-2</v>
+      </c>
+      <c r="M125">
+        <v>0.25309999999999999</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A126" s="2" t="s">
         <v>248</v>
       </c>
@@ -3538,10 +6553,34 @@
         <v>99361.624104000002</v>
       </c>
       <c r="E126" s="4">
-        <v>20.354315</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.75">
+        <v>0.20354315000000001</v>
+      </c>
+      <c r="F126">
+        <v>1.38181818181817E-2</v>
+      </c>
+      <c r="G126">
+        <v>7.7551020408163099E-2</v>
+      </c>
+      <c r="H126">
+        <v>0.151173708920187</v>
+      </c>
+      <c r="I126">
+        <v>0.18041704442429701</v>
+      </c>
+      <c r="J126">
+        <v>3.7956722241929697E-2</v>
+      </c>
+      <c r="K126">
+        <v>7.4718526100306895E-2</v>
+      </c>
+      <c r="L126">
+        <v>0.196206283343212</v>
+      </c>
+      <c r="M126">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A127" s="2" t="s">
         <v>250</v>
       </c>
@@ -3555,10 +6594,34 @@
         <v>66718.906575000001</v>
       </c>
       <c r="E127" s="4">
-        <v>3.2278622686931726</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.75">
+        <v>3.2278622686931727E-2</v>
+      </c>
+      <c r="F127">
+        <v>-2.2156573116692102E-3</v>
+      </c>
+      <c r="G127">
+        <v>-9.9230960059538201E-3</v>
+      </c>
+      <c r="H127">
+        <v>-1.6733266733266701E-2</v>
+      </c>
+      <c r="I127">
+        <v>-2.9563932002955699E-3</v>
+      </c>
+      <c r="J127">
+        <v>6.3922740859967797E-2</v>
+      </c>
+      <c r="K127">
+        <v>6.1981566820276397E-2</v>
+      </c>
+      <c r="L127">
+        <v>7.3087431693989E-2</v>
+      </c>
+      <c r="M127">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A128" s="2" t="s">
         <v>252</v>
       </c>
@@ -3572,10 +6635,34 @@
         <v>213187.43230399999</v>
       </c>
       <c r="E128" s="4">
-        <v>29.839662857966978</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.75">
+        <v>0.29839662857966975</v>
+      </c>
+      <c r="F128">
+        <v>-9.1474797759800802E-2</v>
+      </c>
+      <c r="G128">
+        <v>-0.125802310654685</v>
+      </c>
+      <c r="H128">
+        <v>-6.9512195121951198E-2</v>
+      </c>
+      <c r="I128">
+        <v>-7.2782874617736804E-2</v>
+      </c>
+      <c r="J128">
+        <v>-0.155467720685111</v>
+      </c>
+      <c r="K128">
+        <v>-0.23870056497175099</v>
+      </c>
+      <c r="L128">
+        <v>-0.43417825020441497</v>
+      </c>
+      <c r="M128">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A129" s="2" t="s">
         <v>254</v>
       </c>
@@ -3589,10 +6676,34 @@
         <v>17736.645424000002</v>
       </c>
       <c r="E129" s="4">
-        <v>4.7172153762249138</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.75">
+        <v>4.717215376224914E-2</v>
+      </c>
+      <c r="F129">
+        <v>-2.1951219512195301E-2</v>
+      </c>
+      <c r="G129">
+        <v>-2.5703794369645101E-2</v>
+      </c>
+      <c r="H129">
+        <v>1.75849941383351E-2</v>
+      </c>
+      <c r="I129">
+        <v>4.3378995433789799E-2</v>
+      </c>
+      <c r="J129">
+        <v>4.3924700513405503E-2</v>
+      </c>
+      <c r="K129">
+        <v>5.7897695334457398E-2</v>
+      </c>
+      <c r="L129">
+        <v>0.190338164251207</v>
+      </c>
+      <c r="M129">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A130" s="2" t="s">
         <v>256</v>
       </c>
@@ -3606,10 +6717,34 @@
         <v>289052.08999999997</v>
       </c>
       <c r="E130" s="4">
-        <v>25.001973632272836</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.75">
+        <v>0.25001973632272834</v>
+      </c>
+      <c r="F130">
+        <v>-0.23454619234410901</v>
+      </c>
+      <c r="G130">
+        <v>-0.42631661197061999</v>
+      </c>
+      <c r="H130">
+        <v>-0.50784734842226897</v>
+      </c>
+      <c r="I130">
+        <v>-0.53137583892617402</v>
+      </c>
+      <c r="J130">
+        <v>-0.54537758211987797</v>
+      </c>
+      <c r="K130">
+        <v>-1.1715441351415601</v>
+      </c>
+      <c r="L130">
+        <v>-1.6077142857142801</v>
+      </c>
+      <c r="M130">
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A131" s="2" t="s">
         <v>258</v>
       </c>
@@ -3623,10 +6758,34 @@
         <v>14130.02448</v>
       </c>
       <c r="E131" s="4">
-        <v>0.36989870589730245</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.75">
+        <v>3.6989870589730243E-3</v>
+      </c>
+      <c r="F131">
+        <v>3.8919667590027698E-2</v>
+      </c>
+      <c r="G131">
+        <v>-5.5361216730038E-2</v>
+      </c>
+      <c r="H131">
+        <v>-1.15160349854228E-2</v>
+      </c>
+      <c r="I131">
+        <v>1.6929942622369999E-2</v>
+      </c>
+      <c r="J131">
+        <v>5.2049180327868802E-2</v>
+      </c>
+      <c r="K131">
+        <v>0.16402626347810301</v>
+      </c>
+      <c r="L131">
+        <v>0.38636363636363602</v>
+      </c>
+      <c r="M131">
+        <v>3.2120000000000002</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A132" s="2" t="s">
         <v>260</v>
       </c>
@@ -3640,10 +6799,34 @@
         <v>6787.3821400000006</v>
       </c>
       <c r="E132" s="4">
-        <v>1.225092005781633</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.75">
+        <v>1.225092005781633E-2</v>
+      </c>
+      <c r="F132">
+        <v>-6.2068965517241399E-2</v>
+      </c>
+      <c r="G132">
+        <v>-6.7221067221067202E-2</v>
+      </c>
+      <c r="H132">
+        <v>4.2288557213930197E-2</v>
+      </c>
+      <c r="I132">
+        <v>0.274952919020715</v>
+      </c>
+      <c r="J132">
+        <v>0.22496225465525899</v>
+      </c>
+      <c r="K132">
+        <v>0.28338762214983698</v>
+      </c>
+      <c r="L132">
+        <v>0.15477497255762801</v>
+      </c>
+      <c r="M132">
+        <v>-0.26</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A133" s="2" t="s">
         <v>262</v>
       </c>
@@ -3657,10 +6840,34 @@
         <v>151937.96580000001</v>
       </c>
       <c r="E133" s="4">
-        <v>22.712051665661445</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.75">
+        <v>0.22712051665661445</v>
+      </c>
+      <c r="F133">
+        <v>0.20509708737863999</v>
+      </c>
+      <c r="G133">
+        <v>0.19285274183610601</v>
+      </c>
+      <c r="H133">
+        <v>0.275282142066828</v>
+      </c>
+      <c r="I133">
+        <v>0.31777939797937699</v>
+      </c>
+      <c r="J133">
+        <v>0.43363597060095099</v>
+      </c>
+      <c r="K133">
+        <v>0.41523078296580601</v>
+      </c>
+      <c r="L133">
+        <v>0.58594095707693195</v>
+      </c>
+      <c r="M133">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A134" s="2" t="s">
         <v>264</v>
       </c>
@@ -3674,10 +6881,34 @@
         <v>49143.282820000008</v>
       </c>
       <c r="E134" s="4">
-        <v>4.2373708264765284</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.75">
+        <v>4.2373708264765282E-2</v>
+      </c>
+      <c r="F134">
+        <v>-3.9045553145336101E-2</v>
+      </c>
+      <c r="G134">
+        <v>-5.3905390539053903E-2</v>
+      </c>
+      <c r="H134">
+        <v>-4.9288061336253998E-2</v>
+      </c>
+      <c r="I134">
+        <v>-4.4711014176662997E-2</v>
+      </c>
+      <c r="J134">
+        <v>-2.6795284030010701E-2</v>
+      </c>
+      <c r="K134">
+        <v>1.1351909184726399E-2</v>
+      </c>
+      <c r="L134">
+        <v>-0.123094958968347</v>
+      </c>
+      <c r="M134">
+        <v>0.15379999999999999</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A135" s="2" t="s">
         <v>266</v>
       </c>
@@ -3691,10 +6922,34 @@
         <v>234878.22357600002</v>
       </c>
       <c r="E135" s="4">
-        <v>33.432147880299254</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.75">
+        <v>0.33432147880299257</v>
+      </c>
+      <c r="F135">
+        <v>-4.0380047505938203E-2</v>
+      </c>
+      <c r="G135">
+        <v>-8.5501858736059394E-2</v>
+      </c>
+      <c r="H135">
+        <v>-5.6694813027744297E-2</v>
+      </c>
+      <c r="I135">
+        <v>-5.6057866184448399E-2</v>
+      </c>
+      <c r="J135">
+        <v>1.3513513513513599E-2</v>
+      </c>
+      <c r="K135">
+        <v>2.3411371237458199E-2</v>
+      </c>
+      <c r="L135">
+        <v>-0.136186770428015</v>
+      </c>
+      <c r="M135">
+        <v>-0.06</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A136" s="2" t="s">
         <v>268</v>
       </c>
@@ -3708,10 +6963,34 @@
         <v>62704.41444</v>
       </c>
       <c r="E136" s="4">
-        <v>20.355139534883719</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.75">
+        <v>0.20355139534883718</v>
+      </c>
+      <c r="F136">
+        <v>-0.18805970149253701</v>
+      </c>
+      <c r="G136">
+        <v>-0.25684210526315698</v>
+      </c>
+      <c r="H136">
+        <v>-0.338064998132237</v>
+      </c>
+      <c r="I136">
+        <v>-0.34864457831325302</v>
+      </c>
+      <c r="J136">
+        <v>-0.33956619296933399</v>
+      </c>
+      <c r="K136">
+        <v>-0.30065359477124098</v>
+      </c>
+      <c r="L136">
+        <v>-0.33956619296933399</v>
+      </c>
+      <c r="M136">
+        <v>0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A137" s="2" t="s">
         <v>270</v>
       </c>
@@ -3725,10 +7004,31 @@
         <v>19070.707604000003</v>
       </c>
       <c r="E137" s="4">
-        <v>0.41013849801688451</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.75">
+        <v>4.101384980168845E-3</v>
+      </c>
+      <c r="F137">
+        <v>0.112365591397849</v>
+      </c>
+      <c r="G137">
+        <v>5.5491990846681799E-2</v>
+      </c>
+      <c r="H137">
+        <v>9.1522880720179903E-3</v>
+      </c>
+      <c r="I137">
+        <v>3.9697542533081102E-2</v>
+      </c>
+      <c r="J137">
+        <v>5.3868194842406701E-2</v>
+      </c>
+      <c r="K137">
+        <v>0.23351903435468799</v>
+      </c>
+      <c r="L137">
+        <v>2.1194605009633799E-2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A138" s="2" t="s">
         <v>272</v>
       </c>
@@ -3742,10 +7042,34 @@
         <v>11999.793750000001</v>
       </c>
       <c r="E138" s="4">
-        <v>1.0500161475571019</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.75">
+        <v>1.0500161475571019E-2</v>
+      </c>
+      <c r="F138">
+        <v>4.5200172191131802E-3</v>
+      </c>
+      <c r="G138">
+        <v>-1.9920611584828E-2</v>
+      </c>
+      <c r="H138">
+        <v>0.104838709677419</v>
+      </c>
+      <c r="I138">
+        <v>4.5079146593255397E-2</v>
+      </c>
+      <c r="J138">
+        <v>0.10402944595118099</v>
+      </c>
+      <c r="K138">
+        <v>0.185356975105683</v>
+      </c>
+      <c r="L138">
+        <v>-0.52757899372453998</v>
+      </c>
+      <c r="M138">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A139" s="2" t="s">
         <v>274</v>
       </c>
@@ -3759,10 +7083,34 @@
         <v>70061.865999999995</v>
       </c>
       <c r="E139" s="4">
-        <v>25.032608695652176</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.75">
+        <v>0.25032608695652175</v>
+      </c>
+      <c r="F139">
+        <v>9.0794979079497795E-2</v>
+      </c>
+      <c r="G139">
+        <v>0.24861687413554601</v>
+      </c>
+      <c r="H139">
+        <v>0.16870696250956299</v>
+      </c>
+      <c r="I139">
+        <v>0.103917525773195</v>
+      </c>
+      <c r="J139">
+        <v>2.07300585849482E-2</v>
+      </c>
+      <c r="K139">
+        <v>-8.7043521760880496E-2</v>
+      </c>
+      <c r="L139">
+        <v>-0.21532438478747201</v>
+      </c>
+      <c r="M139">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A140" s="2" t="s">
         <v>276</v>
       </c>
@@ -3776,10 +7124,34 @@
         <v>33326.639999999999</v>
       </c>
       <c r="E140" s="4">
-        <v>9.9899987512501589</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.75">
+        <v>9.9899987512501592E-2</v>
+      </c>
+      <c r="F140">
+        <v>-2.1224489795918299E-2</v>
+      </c>
+      <c r="G140">
+        <v>-3.20769847634315E-3</v>
+      </c>
+      <c r="H140">
+        <v>7.1428571428571296E-3</v>
+      </c>
+      <c r="I140">
+        <v>-3.8174273858920998E-2</v>
+      </c>
+      <c r="J140">
+        <v>-3.7313432835820802E-2</v>
+      </c>
+      <c r="K140">
+        <v>-7.1061643835616403E-2</v>
+      </c>
+      <c r="L140">
+        <v>-0.15299539170506901</v>
+      </c>
+      <c r="M140">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A141" s="2" t="s">
         <v>278</v>
       </c>
@@ -3793,10 +7165,34 @@
         <v>48067.280112</v>
       </c>
       <c r="E141" s="4">
-        <v>8.4375549822344027</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.75">
+        <v>8.437554982234402E-2</v>
+      </c>
+      <c r="F141">
+        <v>-0.10060120240480901</v>
+      </c>
+      <c r="G141">
+        <v>-8.0676898858716997E-2</v>
+      </c>
+      <c r="H141">
+        <v>-5.0497322111706197E-2</v>
+      </c>
+      <c r="I141">
+        <v>-7.3075420085971093E-2</v>
+      </c>
+      <c r="J141">
+        <v>-3.6226415094339597E-2</v>
+      </c>
+      <c r="K141">
+        <v>-0.525555555555555</v>
+      </c>
+      <c r="L141">
+        <v>-0.65521398432790801</v>
+      </c>
+      <c r="M141">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A142" s="2" t="s">
         <v>280</v>
       </c>
@@ -3810,10 +7206,34 @@
         <v>25215.502454999998</v>
       </c>
       <c r="E142" s="4">
-        <v>4.9372404284414699</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.75">
+        <v>4.9372404284414702E-2</v>
+      </c>
+      <c r="F142">
+        <v>-1.41843971631204E-2</v>
+      </c>
+      <c r="G142">
+        <v>-2.3364485981307902E-3</v>
+      </c>
+      <c r="H142">
+        <v>1.6055045871559599E-2</v>
+      </c>
+      <c r="I142">
+        <v>1.6055045871559599E-2</v>
+      </c>
+      <c r="J142">
+        <v>-4.6838407494146196E-3</v>
+      </c>
+      <c r="K142">
+        <v>1.83066361556064E-2</v>
+      </c>
+      <c r="L142">
+        <v>-8.3333333333333301E-2</v>
+      </c>
+      <c r="M142">
+        <v>0.20200000000000001</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A143" s="2" t="s">
         <v>282</v>
       </c>
@@ -3827,10 +7247,34 @@
         <v>1928415.547186</v>
       </c>
       <c r="E143" s="4">
-        <v>14.788856549815499</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.75">
+        <v>0.14788856549815499</v>
+      </c>
+      <c r="F143">
+        <v>2.40475108716816E-2</v>
+      </c>
+      <c r="G143">
+        <v>-3.4111619270314003E-2</v>
+      </c>
+      <c r="H143">
+        <v>7.4392120652508303E-2</v>
+      </c>
+      <c r="I143">
+        <v>-0.27427966101694901</v>
+      </c>
+      <c r="J143">
+        <v>-0.38674721018168401</v>
+      </c>
+      <c r="K143">
+        <v>-0.13912878787878699</v>
+      </c>
+      <c r="L143">
+        <v>-0.167974211589249</v>
+      </c>
+      <c r="M143">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A144" s="2" t="s">
         <v>284</v>
       </c>
@@ -3844,10 +7288,34 @@
         <v>207299.21910399999</v>
       </c>
       <c r="E144" s="4">
-        <v>29.916627086151756</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.75">
+        <v>0.29916627086151754</v>
+      </c>
+      <c r="F144">
+        <v>3.7031225482504301E-2</v>
+      </c>
+      <c r="G144">
+        <v>0.10212143379663401</v>
+      </c>
+      <c r="H144">
+        <v>0.17045147337118099</v>
+      </c>
+      <c r="I144">
+        <v>0.14526462395543099</v>
+      </c>
+      <c r="J144">
+        <v>-0.10377697841726601</v>
+      </c>
+      <c r="K144">
+        <v>-8.8771987506164503E-3</v>
+      </c>
+      <c r="L144">
+        <v>-2.4028032704822198E-2</v>
+      </c>
+      <c r="M144">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A145" s="2" t="s">
         <v>286</v>
       </c>
@@ -3861,10 +7329,34 @@
         <v>876016.25685600005</v>
       </c>
       <c r="E145" s="4">
-        <v>39.925305007991476</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.75">
+        <v>0.39925305007991474</v>
+      </c>
+      <c r="F145">
+        <v>2.06434316353886E-2</v>
+      </c>
+      <c r="G145">
+        <v>-7.3767666321957401E-3</v>
+      </c>
+      <c r="H145">
+        <v>-0.56094434355303902</v>
+      </c>
+      <c r="I145">
+        <v>-0.727799456071893</v>
+      </c>
+      <c r="J145">
+        <v>-0.60748074807480701</v>
+      </c>
+      <c r="K145">
+        <v>-0.45901148277583598</v>
+      </c>
+      <c r="L145">
+        <v>-0.33078324225865202</v>
+      </c>
+      <c r="M145">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A146" s="2" t="s">
         <v>288</v>
       </c>
@@ -3878,10 +7370,34 @@
         <v>5066.362048</v>
       </c>
       <c r="E146" s="4">
-        <v>1.2966733333333345</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.75">
+        <v>1.2966733333333345E-2</v>
+      </c>
+      <c r="F146">
+        <v>-3.2994923857868098E-2</v>
+      </c>
+      <c r="G146">
+        <v>-2.71293375394322E-2</v>
+      </c>
+      <c r="H146">
+        <v>-8.6741016109046203E-3</v>
+      </c>
+      <c r="I146">
+        <v>-2.71293375394322E-2</v>
+      </c>
+      <c r="J146">
+        <v>-1.3698630136986399E-2</v>
+      </c>
+      <c r="K146">
+        <v>3.6719706242349199E-3</v>
+      </c>
+      <c r="L146">
+        <v>-0.12664359861591701</v>
+      </c>
+      <c r="M146">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A147" s="2" t="s">
         <v>290</v>
       </c>
@@ -3895,10 +7411,34 @@
         <v>142191.45969600001</v>
       </c>
       <c r="E147" s="4">
-        <v>23.709102145448927</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.75">
+        <v>0.23709102145448926</v>
+      </c>
+      <c r="F147">
+        <v>-0.18088737201365099</v>
+      </c>
+      <c r="G147">
+        <v>-0.32880354505169801</v>
+      </c>
+      <c r="H147">
+        <v>-0.40826549780839</v>
+      </c>
+      <c r="I147">
+        <v>-0.41803278688524498</v>
+      </c>
+      <c r="J147">
+        <v>-0.40694401000938302</v>
+      </c>
+      <c r="K147">
+        <v>-0.55425017277124999</v>
+      </c>
+      <c r="L147">
+        <v>-0.76877703499803296</v>
+      </c>
+      <c r="M147">
+        <v>0.27179999999999999</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A148" s="2" t="s">
         <v>292</v>
       </c>
@@ -3912,10 +7452,34 @@
         <v>3985.6184159999998</v>
       </c>
       <c r="E148" s="4">
-        <v>1.2879449914049061</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.75">
+        <v>1.2879449914049062E-2</v>
+      </c>
+      <c r="F148">
+        <v>-5.13043478260869E-2</v>
+      </c>
+      <c r="G148">
+        <v>-5.359477124183E-2</v>
+      </c>
+      <c r="H148">
+        <v>-2.1546261089987199E-2</v>
+      </c>
+      <c r="I148">
+        <v>-4.4492440604751597E-2</v>
+      </c>
+      <c r="J148">
+        <v>9.0163934426228994E-3</v>
+      </c>
+      <c r="K148">
+        <v>1.46699266503667E-2</v>
+      </c>
+      <c r="L148">
+        <v>3.4730538922155697E-2</v>
+      </c>
+      <c r="M148">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A149" s="2" t="s">
         <v>294</v>
       </c>
@@ -3929,10 +7493,34 @@
         <v>13603.757917999999</v>
       </c>
       <c r="E149" s="4">
-        <v>3.5391629023150806</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.75">
+        <v>3.5391629023150808E-2</v>
+      </c>
+      <c r="F149">
+        <v>1.12973760932945E-2</v>
+      </c>
+      <c r="G149">
+        <v>-8.0876494023904205E-2</v>
+      </c>
+      <c r="H149">
+        <v>-3.6287242169595002E-2</v>
+      </c>
+      <c r="I149">
+        <v>-2.57088846880907E-2</v>
+      </c>
+      <c r="J149">
+        <v>8.0438756855576703E-3</v>
+      </c>
+      <c r="K149">
+        <v>8.7453750420450699E-2</v>
+      </c>
+      <c r="L149">
+        <v>-1.04283054003723E-2</v>
+      </c>
+      <c r="M149">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A150" s="2" t="s">
         <v>296</v>
       </c>
@@ -3946,10 +7534,34 @@
         <v>87057.666431999998</v>
       </c>
       <c r="E150" s="4">
-        <v>8.8605382145044302</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.75">
+        <v>8.8605382145044306E-2</v>
+      </c>
+      <c r="F150">
+        <v>-7.3249089740843903E-2</v>
+      </c>
+      <c r="G150">
+        <v>-8.1588603496654394E-2</v>
+      </c>
+      <c r="H150">
+        <v>8.6916909620991301E-2</v>
+      </c>
+      <c r="I150">
+        <v>-0.30596820432629601</v>
+      </c>
+      <c r="J150">
+        <v>-0.240346534653465</v>
+      </c>
+      <c r="K150">
+        <v>-0.228186274509804</v>
+      </c>
+      <c r="L150">
+        <v>-0.50570913461538403</v>
+      </c>
+      <c r="M150">
+        <v>0.20630000000000001</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A151" s="2" t="s">
         <v>298</v>
       </c>
@@ -3963,10 +7575,34 @@
         <v>28166.735322</v>
       </c>
       <c r="E151" s="4">
-        <v>3.0946864460045873</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.75">
+        <v>3.0946864460045874E-2</v>
+      </c>
+      <c r="F151">
+        <v>2.9210689869484101E-2</v>
+      </c>
+      <c r="G151">
+        <v>3.5802469135802401E-2</v>
+      </c>
+      <c r="H151">
+        <v>-5.5405405405405297E-2</v>
+      </c>
+      <c r="I151">
+        <v>-0.103886925795052</v>
+      </c>
+      <c r="J151">
+        <v>-0.10310734463276799</v>
+      </c>
+      <c r="K151">
+        <v>9.6587622903412301E-2</v>
+      </c>
+      <c r="L151">
+        <v>0.19276485788113701</v>
+      </c>
+      <c r="M151">
+        <v>0.44240000000000002</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A152" s="2" t="s">
         <v>300</v>
       </c>
@@ -3980,10 +7616,34 @@
         <v>9481.7349119999999</v>
       </c>
       <c r="E152" s="4">
-        <v>1.5707927868465106</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.75">
+        <v>1.5707927868465105E-2</v>
+      </c>
+      <c r="F152">
+        <v>1.8975332068310699E-3</v>
+      </c>
+      <c r="G152">
+        <v>-5.7361376673038898E-3</v>
+      </c>
+      <c r="H152">
+        <v>-5.7361376673038898E-3</v>
+      </c>
+      <c r="I152">
+        <v>-4.7808764940239001E-2</v>
+      </c>
+      <c r="J152">
+        <v>-3.8167938931296802E-3</v>
+      </c>
+      <c r="K152">
+        <v>-8.6776859504132206E-2</v>
+      </c>
+      <c r="L152">
+        <v>-0.387862796833773</v>
+      </c>
+      <c r="M152">
+        <v>-2.6700000000000002E-2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A153" s="2" t="s">
         <v>302</v>
       </c>
@@ -3997,10 +7657,34 @@
         <v>108229.04549600001</v>
       </c>
       <c r="E153" s="4">
-        <v>18.571472633201623</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.75">
+        <v>0.18571472633201622</v>
+      </c>
+      <c r="F153">
+        <v>2.1385799828913601E-2</v>
+      </c>
+      <c r="G153">
+        <v>1.29421915444348E-2</v>
+      </c>
+      <c r="H153">
+        <v>9.5238095238096201E-3</v>
+      </c>
+      <c r="I153">
+        <v>-2.6929982046678499E-2</v>
+      </c>
+      <c r="J153">
+        <v>4.4277360066833797E-2</v>
+      </c>
+      <c r="K153">
+        <v>-0.104247104247104</v>
+      </c>
+      <c r="L153">
+        <v>5.2195526097763102E-2</v>
+      </c>
+      <c r="M153">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A154" s="2" t="s">
         <v>304</v>
       </c>
@@ -4014,10 +7698,34 @@
         <v>635962.44027499994</v>
       </c>
       <c r="E154" s="4">
-        <v>15.302857001552081</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.75">
+        <v>0.15302857001552081</v>
+      </c>
+      <c r="F154">
+        <v>2.79850746268656E-2</v>
+      </c>
+      <c r="G154">
+        <v>-2.0368194281237699E-2</v>
+      </c>
+      <c r="H154">
+        <v>-2.69438029253272E-3</v>
+      </c>
+      <c r="I154">
+        <v>8.46802529866479E-2</v>
+      </c>
+      <c r="J154">
+        <v>0.162379421221864</v>
+      </c>
+      <c r="K154">
+        <v>0.44668649107901398</v>
+      </c>
+      <c r="L154">
+        <v>0.55764985566309999</v>
+      </c>
+      <c r="M154">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A155" s="2" t="s">
         <v>306</v>
       </c>
@@ -4031,10 +7739,34 @@
         <v>87683.108531999998</v>
       </c>
       <c r="E155" s="4">
-        <v>4.2117534979451818</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.75">
+        <v>4.2117534979451816E-2</v>
+      </c>
+      <c r="F155">
+        <v>-1.38686131386862E-2</v>
+      </c>
+      <c r="G155">
+        <v>-8.2197117257498994E-2</v>
+      </c>
+      <c r="H155">
+        <v>-3.7341299477221798E-2</v>
+      </c>
+      <c r="I155">
+        <v>-3.4251675353685798E-2</v>
+      </c>
+      <c r="J155">
+        <v>2.7651382569128399E-2</v>
+      </c>
+      <c r="K155">
+        <v>1.6985138004246201E-2</v>
+      </c>
+      <c r="L155">
+        <v>7.83012607830125E-2</v>
+      </c>
+      <c r="M155">
+        <v>0.28129999999999999</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A156" s="2" t="s">
         <v>308</v>
       </c>
@@ -4048,10 +7780,34 @@
         <v>64816.2</v>
       </c>
       <c r="E156" s="4">
-        <v>10.002249943751407</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.75">
+        <v>0.10002249943751407</v>
+      </c>
+      <c r="F156">
+        <v>9.0909090909090898E-2</v>
+      </c>
+      <c r="G156">
+        <v>0.24860853432282001</v>
+      </c>
+      <c r="H156">
+        <v>0.44897959183673403</v>
+      </c>
+      <c r="I156">
+        <v>0.39439252336448599</v>
+      </c>
+      <c r="J156">
+        <v>0.39416604338070299</v>
+      </c>
+      <c r="K156">
+        <v>0.40419271791099598</v>
+      </c>
+      <c r="L156">
+        <v>0.29900475984422298</v>
+      </c>
+      <c r="M156">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A157" s="2" t="s">
         <v>310</v>
       </c>
@@ -4065,10 +7821,34 @@
         <v>419.99174999999997</v>
       </c>
       <c r="E157" s="4">
-        <v>3.0027369287587646E-2</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.75">
+        <v>3.0027369287587645E-4</v>
+      </c>
+      <c r="F157">
+        <v>-4.2507204610950797E-2</v>
+      </c>
+      <c r="G157">
+        <v>-7.5037147102525903E-2</v>
+      </c>
+      <c r="H157">
+        <v>-9.7875569044005795E-2</v>
+      </c>
+      <c r="I157">
+        <v>-7.9689598567377798E-2</v>
+      </c>
+      <c r="J157">
+        <v>-0.10660752523707499</v>
+      </c>
+      <c r="K157">
+        <v>-1.0784257397299599</v>
+      </c>
+      <c r="L157">
+        <v>-1.6405109489051</v>
+      </c>
+      <c r="M157">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A158" s="2" t="s">
         <v>312</v>
       </c>
@@ -4082,10 +7862,34 @@
         <v>1323.9224400000001</v>
       </c>
       <c r="E158" s="4">
-        <v>0.21437659469631853</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.75">
+        <v>2.1437659469631856E-3</v>
+      </c>
+      <c r="F158">
+        <v>5.7539958304377997E-2</v>
+      </c>
+      <c r="G158">
+        <v>-3.2115677321156701E-2</v>
+      </c>
+      <c r="H158">
+        <v>3.0731846769582499E-2</v>
+      </c>
+      <c r="I158">
+        <v>4.5601688951442503E-2</v>
+      </c>
+      <c r="J158">
+        <v>0.111038280020975</v>
+      </c>
+      <c r="K158">
+        <v>0.21425260718424</v>
+      </c>
+      <c r="L158">
+        <v>-7.2433971216194895E-2</v>
+      </c>
+      <c r="M158">
+        <v>0.82499999999999996</v>
+      </c>
+    </row>
+    <row r="159" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A159" s="2" t="s">
         <v>314</v>
       </c>
@@ -4099,10 +7903,34 @@
         <v>225743.40000000002</v>
       </c>
       <c r="E159" s="4">
-        <v>9.3985973442734512</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.75">
+        <v>9.3985973442734516E-2</v>
+      </c>
+      <c r="F159">
+        <v>-1.5684517140936698E-2</v>
+      </c>
+      <c r="G159">
+        <v>-7.5529895602657396E-2</v>
+      </c>
+      <c r="H159">
+        <v>1.8122743682310399E-2</v>
+      </c>
+      <c r="I159">
+        <v>0.136077758719268</v>
+      </c>
+      <c r="J159">
+        <v>0.26011969532100099</v>
+      </c>
+      <c r="K159">
+        <v>0.37904109589041002</v>
+      </c>
+      <c r="L159">
+        <v>0.38743243243243197</v>
+      </c>
+      <c r="M159">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="160" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A160" s="2" t="s">
         <v>316</v>
       </c>
@@ -4116,10 +7944,34 @@
         <v>13925.060579999999</v>
       </c>
       <c r="E160" s="4">
-        <v>4.0384513451847539</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.75">
+        <v>4.0384513451847542E-2</v>
+      </c>
+      <c r="F160">
+        <v>3.2650945840891503E-2</v>
+      </c>
+      <c r="G160">
+        <v>-8.0428954423595505E-4</v>
+      </c>
+      <c r="H160">
+        <v>1.08638049814521E-2</v>
+      </c>
+      <c r="I160">
+        <v>5.1816103632207199E-2</v>
+      </c>
+      <c r="J160">
+        <v>0.14262746899402801</v>
+      </c>
+      <c r="K160">
+        <v>0.16487695749440701</v>
+      </c>
+      <c r="L160">
+        <v>0.30172091283202401</v>
+      </c>
+      <c r="M160">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A161" s="2" t="s">
         <v>318</v>
       </c>
@@ -4133,10 +7985,34 @@
         <v>133499.48651000002</v>
       </c>
       <c r="E161" s="4">
-        <v>23.708346458689221</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.75">
+        <v>0.2370834645868922</v>
+      </c>
+      <c r="F161">
+        <v>0.13953488372093001</v>
+      </c>
+      <c r="G161">
+        <v>0.23747622067216201</v>
+      </c>
+      <c r="H161">
+        <v>0.14822029396139499</v>
+      </c>
+      <c r="I161">
+        <v>-6.8888888888888902E-2</v>
+      </c>
+      <c r="J161">
+        <v>-0.116009280742459</v>
+      </c>
+      <c r="K161">
+        <v>-0.23017902813299199</v>
+      </c>
+      <c r="L161">
+        <v>-0.15736284889316601</v>
+      </c>
+      <c r="M161">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A162" s="2" t="s">
         <v>320</v>
       </c>
@@ -4150,10 +8026,34 @@
         <v>2603.6928899999998</v>
       </c>
       <c r="E162" s="4">
-        <v>6.302259532370158E-2</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.75">
+        <v>6.3022595323701579E-4</v>
+      </c>
+      <c r="F162">
+        <v>-5.8566372909582901E-2</v>
+      </c>
+      <c r="G162">
+        <v>-7.847295864263E-2</v>
+      </c>
+      <c r="H162">
+        <v>3.52733686067014E-3</v>
+      </c>
+      <c r="I162">
+        <v>9.0882002383790197E-2</v>
+      </c>
+      <c r="J162">
+        <v>7.0667072799268899E-2</v>
+      </c>
+      <c r="K162">
+        <v>0.171059066456555</v>
+      </c>
+      <c r="L162">
+        <v>0.23187311178247699</v>
+      </c>
+      <c r="M162">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A163" s="2" t="s">
         <v>322</v>
       </c>
@@ -4167,10 +8067,34 @@
         <v>806.12505999999996</v>
       </c>
       <c r="E163" s="4">
-        <v>1.5473877251281465E-2</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.75">
+        <v>1.5473877251281464E-4</v>
+      </c>
+      <c r="F163">
+        <v>4.9528104902697698E-2</v>
+      </c>
+      <c r="G163">
+        <v>2.0063721691208101E-2</v>
+      </c>
+      <c r="H163">
+        <v>8.1961923201032502E-2</v>
+      </c>
+      <c r="I163">
+        <v>9.8320716958149208E-3</v>
+      </c>
+      <c r="J163">
+        <v>9.9042039426807102E-2</v>
+      </c>
+      <c r="K163">
+        <v>0.111354052787755</v>
+      </c>
+      <c r="L163">
+        <v>-1.1915347679174799E-2</v>
+      </c>
+      <c r="M163">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="164" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A164" s="2" t="s">
         <v>324</v>
       </c>
@@ -4184,10 +8108,34 @@
         <v>1063.78944</v>
       </c>
       <c r="E164" s="4">
-        <v>0.47750710055348122</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.75">
+        <v>4.7750710055348118E-3</v>
+      </c>
+      <c r="F164">
+        <v>-9.0090090090089708E-3</v>
+      </c>
+      <c r="G164">
+        <v>-2.09662716499542E-2</v>
+      </c>
+      <c r="H164">
+        <v>-3.1307550644567202E-2</v>
+      </c>
+      <c r="I164">
+        <v>-2.00364298724953E-2</v>
+      </c>
+      <c r="J164">
+        <v>-3.5842293906809199E-3</v>
+      </c>
+      <c r="K164">
+        <v>5.0042408821034702E-2</v>
+      </c>
+      <c r="L164">
+        <v>-1.1743450767840899E-2</v>
+      </c>
+      <c r="M164">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="165" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A165" s="2" t="s">
         <v>326</v>
       </c>
@@ -4201,10 +8149,34 @@
         <v>7929.2121349999998</v>
       </c>
       <c r="E165" s="4">
-        <v>0.93292035398677342</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.75">
+        <v>9.329203539867735E-3</v>
+      </c>
+      <c r="F165">
+        <v>-4.3874172185430403E-2</v>
+      </c>
+      <c r="G165">
+        <v>-0.103237095363079</v>
+      </c>
+      <c r="H165">
+        <v>-8.4264832330180395E-2</v>
+      </c>
+      <c r="I165">
+        <v>-0.15582034830430699</v>
+      </c>
+      <c r="J165">
+        <v>-0.190745986779981</v>
+      </c>
+      <c r="K165">
+        <v>-0.205544933078393</v>
+      </c>
+      <c r="L165">
+        <v>-0.63341968911917101</v>
+      </c>
+      <c r="M165">
+        <v>-0.26</v>
+      </c>
+    </row>
+    <row r="166" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A166" s="2" t="s">
         <v>328</v>
       </c>
@@ -4218,10 +8190,34 @@
         <v>12266.805299999998</v>
       </c>
       <c r="E166" s="4">
-        <v>0.90406478986729866</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.75">
+        <v>9.0406478986729873E-3</v>
+      </c>
+      <c r="F166">
+        <v>-2.1526980482204298E-2</v>
+      </c>
+      <c r="G166">
+        <v>-3.6642199697075502E-2</v>
+      </c>
+      <c r="H166">
+        <v>2.2252747252747299E-2</v>
+      </c>
+      <c r="I166">
+        <v>0.128550440744368</v>
+      </c>
+      <c r="J166">
+        <v>0.17074420988862399</v>
+      </c>
+      <c r="K166">
+        <v>0.43146964856230002</v>
+      </c>
+      <c r="L166">
+        <v>0.40295252474416998</v>
+      </c>
+      <c r="M166">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="167" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A167" s="2" t="s">
         <v>330</v>
       </c>
@@ -4235,10 +8231,34 @@
         <v>80574.999999999985</v>
       </c>
       <c r="E167" s="4">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.75">
+        <v>0.25</v>
+      </c>
+      <c r="F167">
+        <v>9.0832157968970498E-2</v>
+      </c>
+      <c r="G167">
+        <v>0.248717948717948</v>
+      </c>
+      <c r="H167">
+        <v>0.105963938973647</v>
+      </c>
+      <c r="I167">
+        <v>0.144184811471056</v>
+      </c>
+      <c r="J167">
+        <v>2.18512898330806E-2</v>
+      </c>
+      <c r="K167">
+        <v>0.118917441224713</v>
+      </c>
+      <c r="L167">
+        <v>-5.0521512385919003E-2</v>
+      </c>
+      <c r="M167">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="168" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A168" s="2" t="s">
         <v>332</v>
       </c>
@@ -4252,10 +8272,34 @@
         <v>19367.005649999999</v>
       </c>
       <c r="E168" s="4">
-        <v>0.89009848122513802</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.75">
+        <v>8.9009848122513797E-3</v>
+      </c>
+      <c r="F168">
+        <v>4.2372881355932498E-3</v>
+      </c>
+      <c r="G168">
+        <v>-1.7316017316017299E-2</v>
+      </c>
+      <c r="H168">
+        <v>1.87891440501043E-2</v>
+      </c>
+      <c r="I168">
+        <v>3.2921810699588501E-2</v>
+      </c>
+      <c r="J168">
+        <v>6.1876247504989997E-2</v>
+      </c>
+      <c r="K168">
+        <v>1.5363128491620101E-2</v>
+      </c>
+      <c r="L168">
+        <v>7.9033311561071198E-2</v>
+      </c>
+      <c r="M168">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="169" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A169" s="2" t="s">
         <v>334</v>
       </c>
@@ -4269,7 +8313,28 @@
         <v>74711.057819999987</v>
       </c>
       <c r="E169" s="4">
-        <v>25.565128004207708</v>
+        <v>0.2556512800420771</v>
+      </c>
+      <c r="F169">
+        <v>4.82573726541555E-2</v>
+      </c>
+      <c r="G169">
+        <v>0.12669126691266899</v>
+      </c>
+      <c r="H169">
+        <v>0.15476190476190399</v>
+      </c>
+      <c r="I169">
+        <v>0.124537607891491</v>
+      </c>
+      <c r="J169">
+        <v>9.3231162196679498E-2</v>
+      </c>
+      <c r="K169">
+        <v>0.19683257918552</v>
+      </c>
+      <c r="M169">
+        <v>1.5800000000000002E-2</v>
       </c>
     </row>
   </sheetData>

--- a/data/聚类数据集.xlsx
+++ b/data/聚类数据集.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\限售股分析\RestrictStockAnalysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A5C41DC-856D-4B48-902B-54033DA3D10F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6D8BDB7-89AB-4ED0-9B4E-673FDACD4E99}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1086,6 +1086,7 @@
     <font>
       <sz val="11"/>
       <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1416,7 +1417,7 @@
   <dimension ref="A1:M169"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>

--- a/data/聚类数据集.xlsx
+++ b/data/聚类数据集.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\限售股分析\RestrictStockAnalysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6D8BDB7-89AB-4ED0-9B4E-673FDACD4E99}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F28F2363-B9CE-4558-8BAA-372FF13ADE73}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1416,13 +1416,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M169"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" topLeftCell="A149" workbookViewId="0">
+      <selection activeCell="E160" sqref="E160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
     <col min="1" max="1" width="9.6796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6796875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.7265625" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="14.1328125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.26953125" bestFit="1" customWidth="1"/>
@@ -1473,4907 +1474,4904 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A2" s="2" t="s">
-        <v>2</v>
+        <v>270</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>3</v>
+        <v>271</v>
       </c>
       <c r="C2" s="5">
-        <v>44287</v>
+        <v>44315</v>
       </c>
       <c r="D2" s="3">
-        <v>108287.86310999999</v>
+        <v>19070.707604000003</v>
       </c>
       <c r="E2" s="4">
-        <v>0.20327045529801324</v>
+        <v>4.101384980168845E-3</v>
       </c>
       <c r="F2">
-        <v>0.38217988231997702</v>
+        <v>0.112365591397849</v>
       </c>
       <c r="G2">
-        <v>0.25456389452332601</v>
+        <v>5.5491990846681799E-2</v>
       </c>
       <c r="H2">
-        <v>9.9999999999900002E-2</v>
+        <v>9.1522880720179903E-3</v>
       </c>
       <c r="I2">
-        <v>0.15192307692307599</v>
+        <v>3.9697542533081102E-2</v>
       </c>
       <c r="J2">
-        <v>0.151270207852193</v>
+        <v>5.3868194842406701E-2</v>
       </c>
       <c r="K2">
-        <v>0.31050656660412701</v>
+        <v>0.23351903435468799</v>
       </c>
       <c r="L2">
-        <v>0.42786715101193501</v>
-      </c>
-      <c r="M2">
-        <v>0.41</v>
+        <v>2.1194605009633799E-2</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A3" s="2" t="s">
-        <v>4</v>
+        <v>186</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>5</v>
+        <v>187</v>
       </c>
       <c r="C3" s="5">
-        <v>44287</v>
+        <v>44308</v>
       </c>
       <c r="D3" s="3">
-        <v>71997.543340000004</v>
+        <v>8249.0852999999988</v>
       </c>
       <c r="E3" s="4">
-        <v>0.22727817316409793</v>
+        <v>1.0254449929404252E-2</v>
       </c>
       <c r="F3">
-        <v>-8.2303286101899201E-2</v>
+        <v>-3.8821693328131103E-2</v>
       </c>
       <c r="G3">
-        <v>-0.18874172185430399</v>
+        <v>-5.9701492537313397E-2</v>
       </c>
       <c r="H3">
-        <v>-0.24566273421235199</v>
+        <v>-7.55402948899212E-2</v>
       </c>
       <c r="I3">
-        <v>-0.25612316305108401</v>
+        <v>-6.7562149157979007E-2</v>
       </c>
       <c r="J3">
-        <v>-0.35727788279773098</v>
+        <v>0.14119829046044599</v>
       </c>
       <c r="K3">
-        <v>0.108960039712087</v>
+        <v>0.22786920901906699</v>
       </c>
       <c r="L3">
-        <v>2.23311546840958E-2</v>
+        <v>0.20876671619613599</v>
       </c>
       <c r="M3">
-        <v>0.46010000000000001</v>
+        <v>2.4182999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>80</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>7</v>
+        <v>81</v>
       </c>
       <c r="C4" s="5">
-        <v>44288</v>
+        <v>44298</v>
       </c>
       <c r="D4" s="3">
-        <v>4315.0060799999992</v>
+        <v>53338.243696000005</v>
       </c>
       <c r="E4" s="4">
-        <v>4.1274169098744554E-3</v>
+        <v>0.20330409262250942</v>
       </c>
       <c r="F4">
-        <v>-4.0438656614119203E-2</v>
+        <v>-0.12627551020408101</v>
       </c>
       <c r="G4">
-        <v>2.75464445868033E-2</v>
+        <v>-0.137153895685769</v>
       </c>
       <c r="H4">
-        <v>1.5883306320907599E-2</v>
+        <v>-0.18682795698924701</v>
       </c>
       <c r="I4">
-        <v>0.115126785193821</v>
+        <v>-0.255152807391613</v>
       </c>
       <c r="J4">
-        <v>2.47349823321554E-2</v>
+        <v>-0.17654896735509601</v>
       </c>
       <c r="K4">
-        <v>-9.4448449891852901E-2</v>
+        <v>-7.3556231003039499E-2</v>
       </c>
       <c r="L4">
-        <v>0.109677419354838</v>
+        <v>-3.3352837916910398E-2</v>
       </c>
       <c r="M4">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A5" s="2" t="s">
-        <v>8</v>
+        <v>166</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>9</v>
+        <v>167</v>
       </c>
       <c r="C5" s="5">
-        <v>44288</v>
+        <v>44306</v>
       </c>
       <c r="D5" s="3">
-        <v>44215.142400000004</v>
+        <v>77809.667715999996</v>
       </c>
       <c r="E5" s="4">
-        <v>0.16666468537804405</v>
+        <v>0.20316529729729729</v>
       </c>
       <c r="F5">
-        <v>-1.14942528735633E-2</v>
+        <v>-0.17544855780149901</v>
       </c>
       <c r="G5">
-        <v>-1.53846153846153E-2</v>
+        <v>-0.32705128205128198</v>
       </c>
       <c r="H5">
-        <v>1.4925373134328301E-2</v>
+        <v>-0.35519769573186699</v>
       </c>
       <c r="I5">
-        <v>-7.63358778625954E-3</v>
+        <v>-0.28106435643564298</v>
       </c>
       <c r="J5">
-        <v>-3.5294117647058899E-2</v>
+        <v>-0.27491070328858203</v>
       </c>
       <c r="K5">
-        <v>-2.3255813953488299E-2</v>
+        <v>-0.18364779874213799</v>
       </c>
       <c r="L5">
-        <v>-8.6419753086419707E-2</v>
+        <v>0.353829827080342</v>
       </c>
       <c r="M5">
-        <v>3.5799999999999998E-2</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A6" s="2" t="s">
-        <v>10</v>
+        <v>96</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>11</v>
+        <v>97</v>
       </c>
       <c r="C6" s="5">
-        <v>44288</v>
+        <v>44299</v>
       </c>
       <c r="D6" s="3">
-        <v>1283.9293230000001</v>
+        <v>67077.842625000005</v>
       </c>
       <c r="E6" s="4">
-        <v>4.6118814962815688E-3</v>
+        <v>0.21541511254019294</v>
       </c>
       <c r="F6">
-        <v>3.4274193548386997E-2</v>
+        <v>9.7908322207387096E-3</v>
       </c>
       <c r="G6">
-        <v>2.6422764227642202E-2</v>
+        <v>-9.2292587137947898E-2</v>
       </c>
       <c r="H6">
-        <v>6.6276803118908295E-2</v>
+        <v>-0.159458051068264</v>
       </c>
       <c r="I6">
-        <v>6.2240663900415402E-3</v>
+        <v>-0.104766633565044</v>
       </c>
       <c r="J6">
-        <v>3.2323232323232302E-2</v>
+        <v>-0.103670634920634</v>
       </c>
       <c r="K6">
-        <v>0.114602587800369</v>
+        <v>-9.8223099703849806E-2</v>
       </c>
       <c r="L6">
-        <v>-4.3572984749455299E-2</v>
+        <v>7.7911313717364206E-2</v>
       </c>
       <c r="M6">
-        <v>0.06</v>
+        <v>0.28999999999999998</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A7" s="2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C7" s="5">
-        <v>44288</v>
+        <v>44287</v>
       </c>
       <c r="D7" s="3">
-        <v>1019.3263739999999</v>
+        <v>71997.543340000004</v>
       </c>
       <c r="E7" s="4">
-        <v>3.9217717351220215E-3</v>
+        <v>0.22727817316409793</v>
       </c>
       <c r="F7">
-        <v>-8.6378737541527497E-3</v>
+        <v>-8.2303286101899201E-2</v>
       </c>
       <c r="G7">
-        <v>-1.60642570281124E-2</v>
+        <v>-0.18874172185430399</v>
       </c>
       <c r="H7">
-        <v>-7.2992700729926597E-3</v>
+        <v>-0.24566273421235199</v>
       </c>
       <c r="I7">
-        <v>2.75464445868033E-2</v>
+        <v>-0.25612316305108401</v>
       </c>
       <c r="J7">
-        <v>-6.7510548523206607E-2</v>
+        <v>-0.35727788279773098</v>
       </c>
       <c r="K7">
-        <v>-8.42857142857142E-2</v>
+        <v>0.108960039712087</v>
       </c>
       <c r="L7">
-        <v>-8.5836909871244496E-2</v>
+        <v>2.23311546840958E-2</v>
       </c>
       <c r="M7">
-        <v>0.26</v>
+        <v>0.46010000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A8" s="2" t="s">
-        <v>14</v>
+        <v>188</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>15</v>
+        <v>189</v>
       </c>
       <c r="C8" s="5">
-        <v>44292</v>
+        <v>44308</v>
       </c>
       <c r="D8" s="3">
-        <v>4983.3126579999998</v>
+        <v>83559.254325000002</v>
       </c>
       <c r="E8" s="4">
-        <v>8.1033719355215802E-3</v>
+        <v>0.21948845370370371</v>
       </c>
       <c r="F8">
-        <v>6.9745069745069693E-2</v>
+        <v>0.18327154772937801</v>
       </c>
       <c r="G8">
-        <v>6.9297401347449494E-2</v>
+        <v>0.19373284537968799</v>
       </c>
       <c r="H8">
-        <v>7.3754789272030594E-2</v>
+        <v>0.177554829678021</v>
       </c>
       <c r="I8">
-        <v>3.5892323030907197E-2</v>
+        <v>0.177554829678021</v>
       </c>
       <c r="J8">
-        <v>-3.5331905781584502E-2</v>
+        <v>0.32921027592768698</v>
       </c>
       <c r="K8">
-        <v>-7.2062084257206199E-2</v>
+        <v>0.29074446680080401</v>
       </c>
       <c r="L8">
-        <v>-0.119861030689056</v>
+        <v>0.39948892674616698</v>
       </c>
       <c r="M8">
-        <v>0.16</v>
+        <v>0.69</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A9" s="2" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="C9" s="5">
-        <v>44292</v>
+        <v>44294</v>
       </c>
       <c r="D9" s="3">
-        <v>44377.066681999997</v>
+        <v>109874.789848</v>
       </c>
       <c r="E9" s="4">
-        <v>2.291793910358109E-2</v>
+        <v>0.20350952</v>
       </c>
       <c r="F9">
-        <v>-7.7383924113829106E-2</v>
+        <v>-0.433426257799017</v>
       </c>
       <c r="G9">
-        <v>5.4752518615856297E-2</v>
+        <v>-0.446871231408281</v>
       </c>
       <c r="H9">
-        <v>0.150059078377314</v>
+        <v>-0.274852420306965</v>
       </c>
       <c r="I9">
-        <v>0.10045852438515999</v>
+        <v>-0.45017459038409902</v>
       </c>
       <c r="J9">
-        <v>-1.3621418506340899E-2</v>
+        <v>-0.45114903910764598</v>
       </c>
       <c r="K9">
-        <v>0.270453008789722</v>
+        <v>-3.8668718737976199E-2</v>
       </c>
       <c r="L9">
-        <v>0.15736040609137</v>
+        <v>9.9716524929131106E-2</v>
       </c>
       <c r="M9">
-        <v>0.14000000000000001</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A10" s="2" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="C10" s="5">
-        <v>44292</v>
+        <v>44287</v>
       </c>
       <c r="D10" s="3">
-        <v>135606.285864</v>
+        <v>108287.86310999999</v>
       </c>
       <c r="E10" s="4">
-        <v>0.59191623537353732</v>
+        <v>0.20327045529801324</v>
       </c>
       <c r="F10">
-        <v>2.2451456310679602E-2</v>
+        <v>0.38217988231997702</v>
       </c>
       <c r="G10">
-        <v>5.6239015817223202E-2</v>
+        <v>0.25456389452332601</v>
       </c>
       <c r="H10">
-        <v>3.41726618705036E-2</v>
+        <v>9.9999999999900002E-2</v>
       </c>
       <c r="I10">
-        <v>2.8347406513871999E-2</v>
+        <v>0.15192307692307599</v>
       </c>
       <c r="J10">
-        <v>-1.8975332068311101E-2</v>
+        <v>0.151270207852193</v>
       </c>
       <c r="K10">
-        <v>0.22918660287081299</v>
+        <v>0.31050656660412701</v>
       </c>
       <c r="L10">
-        <v>-0.23353751914241899</v>
+        <v>0.42786715101193501</v>
       </c>
       <c r="M10">
-        <v>0.25</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A11" s="2" t="s">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>21</v>
+        <v>77</v>
       </c>
       <c r="C11" s="5">
-        <v>44292</v>
+        <v>44298</v>
       </c>
       <c r="D11" s="3">
-        <v>85077</v>
+        <v>71443.63029999999</v>
       </c>
       <c r="E11" s="4">
-        <v>0.25</v>
+        <v>0.22700912343470483</v>
       </c>
       <c r="F11">
-        <v>0.31713217506047903</v>
+        <v>-0.234649122807017</v>
       </c>
       <c r="G11">
-        <v>0.17595541401273801</v>
+        <v>-0.25055530875166498</v>
       </c>
       <c r="H11">
-        <v>0.21412300683371199</v>
+        <v>-0.28333713243674402</v>
       </c>
       <c r="I11">
-        <v>0.14060337669526701</v>
+        <v>-0.46423927178153401</v>
       </c>
       <c r="J11">
-        <v>9.1308165057067597E-2</v>
+        <v>-0.451030927835051</v>
       </c>
       <c r="K11">
-        <v>2.4505183788878299E-2</v>
+        <v>-0.23981501871834399</v>
       </c>
       <c r="L11">
-        <v>-0.14745011086474499</v>
+        <v>-0.12532480511692901</v>
       </c>
       <c r="M11">
-        <v>0.23</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A12" s="2" t="s">
-        <v>22</v>
+        <v>150</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>23</v>
+        <v>151</v>
       </c>
       <c r="C12" s="5">
-        <v>44292</v>
+        <v>44305</v>
       </c>
       <c r="D12" s="3">
-        <v>64800.000000000007</v>
+        <v>104776.297228</v>
       </c>
       <c r="E12" s="4">
-        <v>0.25</v>
+        <v>0.20349653749999999</v>
       </c>
       <c r="F12">
-        <v>0.31699604743082999</v>
+        <v>-0.48363301060396402</v>
       </c>
       <c r="G12">
-        <v>0.31392271042879799</v>
+        <v>-0.68481675392670105</v>
       </c>
       <c r="H12">
-        <v>0.29964874358281501</v>
+        <v>-0.70264550264550196</v>
       </c>
       <c r="I12">
-        <v>0.16414059980651399</v>
+        <v>-0.57359413202933895</v>
       </c>
       <c r="J12">
-        <v>0.12609575185434899</v>
+        <v>-0.65025641025641001</v>
       </c>
       <c r="K12">
-        <v>0.16843118383060601</v>
+        <v>-0.58756783423778902</v>
       </c>
       <c r="L12">
-        <v>3.9999999999999897E-2</v>
+        <v>-0.49674418604651099</v>
       </c>
       <c r="M12">
-        <v>0.42559999999999998</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A13" s="2" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="C13" s="5">
-        <v>44292</v>
+        <v>44295</v>
       </c>
       <c r="D13" s="3">
-        <v>23248.628015999999</v>
+        <v>82648.853050000005</v>
       </c>
       <c r="E13" s="4">
-        <v>2.4276052403058371E-2</v>
+        <v>8.2641084788029923E-2</v>
       </c>
       <c r="F13">
-        <v>-1.9838354151359299E-2</v>
+        <v>-0.36807460230389399</v>
       </c>
       <c r="G13">
-        <v>-6.5264684554025799E-3</v>
+        <v>5.0266565118050201E-2</v>
       </c>
       <c r="H13">
-        <v>1.90812720848056E-2</v>
+        <v>-6.9468267581475104E-2</v>
       </c>
       <c r="I13">
-        <v>6.4423765211166599E-3</v>
+        <v>3.7065637065636897E-2</v>
       </c>
       <c r="J13">
-        <v>3.8115038115037997E-2</v>
+        <v>-0.106477373558119</v>
       </c>
       <c r="K13">
-        <v>5.0179211469532897E-3</v>
+        <v>7.4582560296845901E-2</v>
       </c>
       <c r="L13">
-        <v>-8.0996884735202501E-2</v>
+        <v>-0.2177734375</v>
       </c>
       <c r="M13">
-        <v>0.16470000000000001</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A14" s="2" t="s">
-        <v>26</v>
+        <v>268</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>27</v>
+        <v>269</v>
       </c>
       <c r="C14" s="5">
-        <v>44292</v>
+        <v>44315</v>
       </c>
       <c r="D14" s="3">
-        <v>77875.878861000005</v>
+        <v>62704.41444</v>
       </c>
       <c r="E14" s="4">
-        <v>0.22746780833333333</v>
+        <v>0.20355139534883718</v>
       </c>
       <c r="F14">
-        <v>-0.39442815249266799</v>
+        <v>-0.18805970149253701</v>
       </c>
       <c r="G14">
-        <v>-0.463076923076923</v>
+        <v>-0.25684210526315698</v>
       </c>
       <c r="H14">
-        <v>-0.465331278890601</v>
+        <v>-0.338064998132237</v>
       </c>
       <c r="I14">
-        <v>-0.49215481171548098</v>
+        <v>-0.34864457831325302</v>
       </c>
       <c r="J14">
-        <v>-0.71763997591812101</v>
+        <v>-0.33956619296933399</v>
       </c>
       <c r="K14">
-        <v>-0.27422956677087901</v>
+        <v>-0.30065359477124098</v>
       </c>
       <c r="L14">
-        <v>-0.37427745664739798</v>
+        <v>-0.33956619296933399</v>
       </c>
       <c r="M14">
-        <v>-8.0000000000000004E-4</v>
+        <v>0.56999999999999995</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A15" s="2" t="s">
-        <v>28</v>
+        <v>130</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>29</v>
+        <v>131</v>
       </c>
       <c r="C15" s="5">
-        <v>44292</v>
+        <v>44302</v>
       </c>
       <c r="D15" s="3">
-        <v>45639.379212</v>
+        <v>2570.1260000000002</v>
       </c>
       <c r="E15" s="4">
-        <v>0.20403871249999997</v>
+        <v>8.955142857142882E-3</v>
       </c>
       <c r="F15">
-        <v>-2.3051591657519299E-2</v>
+        <v>3.7558685446009397E-2</v>
       </c>
       <c r="G15">
-        <v>-9.0220137134608396E-3</v>
+        <v>8.6452762923351203E-2</v>
       </c>
       <c r="H15">
-        <v>-2.2303473491773199E-2</v>
+        <v>8.6859688195991006E-2</v>
       </c>
       <c r="I15">
-        <v>4.3121149897330499E-2</v>
+        <v>0.106169609766732</v>
       </c>
       <c r="J15">
-        <v>4.7359454855195902E-2</v>
+        <v>0.19164037854889501</v>
       </c>
       <c r="K15">
-        <v>-0.38759305210918099</v>
+        <v>0.31700816258537401</v>
       </c>
       <c r="L15">
-        <v>-0.365234375</v>
+        <v>0.35341428796719698</v>
       </c>
       <c r="M15">
-        <v>0.34</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A16" s="2" t="s">
-        <v>30</v>
+        <v>262</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>31</v>
+        <v>263</v>
       </c>
       <c r="C16" s="5">
-        <v>44293</v>
+        <v>44314</v>
       </c>
       <c r="D16" s="3">
-        <v>2792.0803999999998</v>
+        <v>151937.96580000001</v>
       </c>
       <c r="E16" s="4">
-        <v>6.5078317862582932E-3</v>
+        <v>0.22712051665661445</v>
       </c>
       <c r="F16">
-        <v>6.8230277185501106E-2</v>
+        <v>0.20509708737863999</v>
       </c>
       <c r="G16">
-        <v>3.9560439560439399E-2</v>
+        <v>0.19285274183610601</v>
       </c>
       <c r="H16">
-        <v>7.6109936575052897E-2</v>
+        <v>0.275282142066828</v>
       </c>
       <c r="I16">
-        <v>6.0215053763440898E-2</v>
+        <v>0.31777939797937699</v>
       </c>
       <c r="J16">
-        <v>2.3463687150837801E-2</v>
+        <v>0.43363597060095099</v>
       </c>
       <c r="K16">
-        <v>-5.4282267792521197E-2</v>
+        <v>0.41523078296580601</v>
       </c>
       <c r="L16">
-        <v>9.2419522326064402E-2</v>
+        <v>0.58594095707693195</v>
       </c>
       <c r="M16">
-        <v>0.68989999999999996</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A17" s="2" t="s">
-        <v>32</v>
+        <v>314</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>33</v>
+        <v>315</v>
       </c>
       <c r="C17" s="5">
-        <v>44293</v>
+        <v>44316</v>
       </c>
       <c r="D17" s="3">
-        <v>88653.818444000004</v>
+        <v>225743.40000000002</v>
       </c>
       <c r="E17" s="4">
-        <v>0.25005652033570047</v>
+        <v>9.3985973442734516E-2</v>
       </c>
       <c r="F17">
-        <v>0.317020768679875</v>
+        <v>-1.5684517140936698E-2</v>
       </c>
       <c r="G17">
-        <v>0.37286277948268298</v>
+        <v>-7.5529895602657396E-2</v>
       </c>
       <c r="H17">
-        <v>0.359955257270693</v>
+        <v>1.8122743682310399E-2</v>
       </c>
       <c r="I17">
-        <v>0.213146314631463</v>
+        <v>0.136077758719268</v>
       </c>
       <c r="J17">
-        <v>0.17000290107339699</v>
+        <v>0.26011969532100099</v>
       </c>
       <c r="K17">
-        <v>0.141356542617046</v>
+        <v>0.37904109589041002</v>
       </c>
       <c r="L17">
-        <v>0.33185427370387599</v>
+        <v>0.38743243243243197</v>
       </c>
       <c r="M17">
-        <v>0.48</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A18" s="2" t="s">
-        <v>34</v>
+        <v>266</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>35</v>
+        <v>267</v>
       </c>
       <c r="C18" s="5">
-        <v>44294</v>
+        <v>44315</v>
       </c>
       <c r="D18" s="3">
-        <v>85757.902159999998</v>
+        <v>234878.22357600002</v>
       </c>
       <c r="E18" s="4">
-        <v>0.22731867096181843</v>
+        <v>0.33432147880299257</v>
       </c>
       <c r="F18">
-        <v>-0.356631810676939</v>
+        <v>-4.0380047505938203E-2</v>
       </c>
       <c r="G18">
-        <v>-0.38795045045045001</v>
+        <v>-8.5501858736059394E-2</v>
       </c>
       <c r="H18">
-        <v>-0.324556689951638</v>
+        <v>-5.6694813027744297E-2</v>
       </c>
       <c r="I18">
-        <v>-0.29532317393589003</v>
+        <v>-5.6057866184448399E-2</v>
       </c>
       <c r="J18">
-        <v>-0.501218026796589</v>
+        <v>1.3513513513513599E-2</v>
       </c>
       <c r="K18">
-        <v>-0.43731778425655898</v>
+        <v>2.3411371237458199E-2</v>
       </c>
       <c r="L18">
-        <v>-0.159999999999999</v>
+        <v>-0.136186770428015</v>
       </c>
       <c r="M18">
-        <v>0.19</v>
+        <v>-0.06</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A19" s="2" t="s">
-        <v>36</v>
+        <v>118</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>37</v>
+        <v>119</v>
       </c>
       <c r="C19" s="5">
-        <v>44294</v>
+        <v>44301</v>
       </c>
       <c r="D19" s="3">
-        <v>109874.789848</v>
+        <v>7634.9926800000003</v>
       </c>
       <c r="E19" s="4">
-        <v>0.20350952</v>
+        <v>1.054556999999999E-2</v>
       </c>
       <c r="F19">
-        <v>-0.433426257799017</v>
+        <v>1.0793824292936001E-2</v>
       </c>
       <c r="G19">
-        <v>-0.446871231408281</v>
+        <v>5.3578788295095504E-3</v>
       </c>
       <c r="H19">
-        <v>-0.274852420306965</v>
+        <v>-1.24458117745769E-2</v>
       </c>
       <c r="I19">
-        <v>-0.45017459038409902</v>
+        <v>-1.24458117745769E-2</v>
       </c>
       <c r="J19">
-        <v>-0.45114903910764598</v>
+        <v>8.8980150581792102E-3</v>
       </c>
       <c r="K19">
-        <v>-3.8668718737976199E-2</v>
+        <v>1.96343940419768E-2</v>
       </c>
       <c r="L19">
-        <v>9.9716524929131106E-2</v>
+        <v>5.2107881644409403E-2</v>
       </c>
       <c r="M19">
-        <v>1.1000000000000001</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A20" s="2" t="s">
-        <v>38</v>
+        <v>248</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>39</v>
+        <v>249</v>
       </c>
       <c r="C20" s="5">
-        <v>44295</v>
+        <v>44314</v>
       </c>
       <c r="D20" s="3">
-        <v>142580.87935800001</v>
+        <v>99361.624104000002</v>
       </c>
       <c r="E20" s="4">
-        <v>0.23711315000000002</v>
+        <v>0.20354315000000001</v>
       </c>
       <c r="F20">
-        <v>-0.42317523430843501</v>
+        <v>1.38181818181817E-2</v>
       </c>
       <c r="G20">
-        <v>-0.41954674220963101</v>
+        <v>7.7551020408163099E-2</v>
       </c>
       <c r="H20">
-        <v>-0.62063389391979296</v>
+        <v>0.151173708920187</v>
       </c>
       <c r="I20">
-        <v>-0.60198209718670004</v>
+        <v>0.18041704442429701</v>
       </c>
       <c r="J20">
-        <v>-0.251811141643767</v>
+        <v>3.7956722241929697E-2</v>
       </c>
       <c r="K20">
-        <v>-0.56105919003115201</v>
+        <v>7.4718526100306895E-2</v>
       </c>
       <c r="L20">
-        <v>-0.56691682301438395</v>
+        <v>0.196206283343212</v>
       </c>
       <c r="M20">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A21" s="2" t="s">
-        <v>40</v>
+        <v>236</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>41</v>
+        <v>237</v>
       </c>
       <c r="C21" s="5">
-        <v>44295</v>
+        <v>44313</v>
       </c>
       <c r="D21" s="3">
-        <v>82648.853050000005</v>
+        <v>58414.739647000002</v>
       </c>
       <c r="E21" s="4">
-        <v>8.2641084788029923E-2</v>
+        <v>5.8697480125993733E-2</v>
       </c>
       <c r="F21">
-        <v>-0.36807460230389399</v>
+        <v>2.44428468727532E-2</v>
       </c>
       <c r="G21">
-        <v>5.0266565118050201E-2</v>
+        <v>-1.0834969865240201E-2</v>
       </c>
       <c r="H21">
-        <v>-6.9468267581475104E-2</v>
+        <v>4.2834241744148599E-2</v>
       </c>
       <c r="I21">
-        <v>3.7065637065636897E-2</v>
+        <v>9.5716968558793095E-2</v>
       </c>
       <c r="J21">
-        <v>-0.106477373558119</v>
+        <v>0.151923186182603</v>
       </c>
       <c r="K21">
-        <v>7.4582560296845901E-2</v>
+        <v>0.21329187308948999</v>
       </c>
       <c r="L21">
-        <v>-0.2177734375</v>
+        <v>0.121941176470588</v>
       </c>
       <c r="M21">
-        <v>0.19</v>
+        <v>1.77</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A22" s="2" t="s">
-        <v>42</v>
+        <v>92</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>43</v>
+        <v>93</v>
       </c>
       <c r="C22" s="5">
-        <v>44295</v>
+        <v>44299</v>
       </c>
       <c r="D22" s="3">
-        <v>217211.97517000002</v>
+        <v>89016.552819999997</v>
       </c>
       <c r="E22" s="4">
-        <v>0.23710856517065107</v>
+        <v>8.1178893053473256E-2</v>
       </c>
       <c r="F22">
-        <v>8.5714285714284903E-3</v>
+        <v>8.0536912751677903E-2</v>
       </c>
       <c r="G22">
-        <v>-5.1196607088761101E-2</v>
+        <v>4.6956521739130397E-2</v>
       </c>
       <c r="H22">
-        <v>-0.31091802040045302</v>
+        <v>0.37727272727272698</v>
       </c>
       <c r="I22">
-        <v>-0.27059685097033997</v>
+        <v>0.36500579374275699</v>
       </c>
       <c r="J22">
-        <v>-0.322408536585366</v>
+        <v>0.278947368421052</v>
       </c>
       <c r="K22">
-        <v>-0.37154150197628399</v>
+        <v>0.494278331487633</v>
       </c>
       <c r="L22">
-        <v>-0.494401378122308</v>
+        <v>0.33381959640165298</v>
       </c>
       <c r="M22">
-        <v>0.2286</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A23" s="2" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="C23" s="5">
-        <v>44295</v>
+        <v>44292</v>
       </c>
       <c r="D23" s="3">
-        <v>91500.853375000006</v>
+        <v>77875.878861000005</v>
       </c>
       <c r="E23" s="4">
-        <v>7.0417953734981612E-3</v>
+        <v>0.22746780833333333</v>
       </c>
       <c r="F23">
-        <v>-1.2077294685990499E-2</v>
+        <v>-0.39442815249266799</v>
       </c>
       <c r="G23">
-        <v>9.4562647754137096E-3</v>
+        <v>-0.463076923076923</v>
+      </c>
+      <c r="H23">
+        <v>-0.465331278890601</v>
       </c>
       <c r="I23">
-        <v>1.6431924882628901E-2</v>
+        <v>-0.49215481171548098</v>
       </c>
       <c r="J23">
-        <v>2.7842227378190001E-2</v>
+        <v>-0.71763997591812101</v>
       </c>
       <c r="K23">
-        <v>2.10280373831775E-2</v>
+        <v>-0.27422956677087901</v>
+      </c>
+      <c r="L23">
+        <v>-0.37427745664739798</v>
       </c>
       <c r="M23">
-        <v>0.13100000000000001</v>
+        <v>-8.0000000000000004E-4</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A24" s="2" t="s">
-        <v>46</v>
+        <v>124</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>47</v>
+        <v>125</v>
       </c>
       <c r="C24" s="5">
-        <v>44295</v>
+        <v>44302</v>
       </c>
       <c r="D24" s="3">
-        <v>156739.64829100002</v>
+        <v>676295.50067600003</v>
       </c>
       <c r="E24" s="4">
-        <v>0.23858192874554335</v>
+        <v>0.60259527802735358</v>
       </c>
       <c r="F24">
-        <v>-0.53860691144708395</v>
+        <v>-0.122645290581162</v>
       </c>
       <c r="G24">
-        <v>-0.58173744102137104</v>
+        <v>-8.7766990291262198E-2</v>
       </c>
       <c r="H24">
-        <v>-0.700178997613365</v>
+        <v>-0.143265306122449</v>
       </c>
       <c r="I24">
-        <v>-5.1476014760147501E-2</v>
+        <v>-0.19752030782385599</v>
       </c>
       <c r="J24">
-        <v>1.5376641326883199E-2</v>
+        <v>-0.14983579638752001</v>
       </c>
       <c r="K24">
-        <v>-3.3925979680696702E-2</v>
+        <v>-1.11913357400722E-2</v>
       </c>
       <c r="L24">
-        <v>-0.23810558331522899</v>
+        <v>9.3527508090614705E-2</v>
       </c>
       <c r="M24">
-        <v>0.43</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A25" s="2" t="s">
-        <v>48</v>
+        <v>260</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>49</v>
+        <v>261</v>
       </c>
       <c r="C25" s="5">
-        <v>44295</v>
+        <v>44314</v>
       </c>
       <c r="D25" s="3">
-        <v>5123.9831999999997</v>
+        <v>6787.3821400000006</v>
       </c>
       <c r="E25" s="4">
-        <v>4.6155353014073345E-3</v>
+        <v>1.225092005781633E-2</v>
       </c>
       <c r="F25">
-        <v>-3.3476394849785297E-2</v>
+        <v>-6.2068965517241399E-2</v>
       </c>
       <c r="G25">
-        <v>-2.3809523809523701E-2</v>
+        <v>-6.7221067221067202E-2</v>
       </c>
       <c r="H25">
-        <v>-3.2590051457975902E-2</v>
+        <v>4.2288557213930197E-2</v>
       </c>
       <c r="I25">
-        <v>-7.7887197851387494E-2</v>
+        <v>0.274952919020715</v>
       </c>
       <c r="J25">
-        <v>-0.107635694572217</v>
+        <v>0.22496225465525899</v>
       </c>
       <c r="K25">
-        <v>-0.128397375820056</v>
+        <v>0.28338762214983698</v>
       </c>
       <c r="L25">
-        <v>-0.167798254122211</v>
+        <v>0.15477497255762801</v>
       </c>
       <c r="M25">
-        <v>0.27</v>
+        <v>-0.26</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A26" s="2" t="s">
-        <v>50</v>
+        <v>170</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>51</v>
+        <v>171</v>
       </c>
       <c r="C26" s="5">
-        <v>44295</v>
+        <v>44307</v>
       </c>
       <c r="D26" s="3">
-        <v>78107.112000000008</v>
+        <v>78041.304439</v>
       </c>
       <c r="E26" s="4">
-        <v>0.45441708957206173</v>
+        <v>0.2035469103325114</v>
       </c>
       <c r="F26">
-        <v>-8.8161209068009297E-3</v>
+        <v>-6.7133229652669796E-2</v>
       </c>
       <c r="G26">
-        <v>3.0266343825665801E-2</v>
+        <v>0.18796844181459499</v>
       </c>
       <c r="H26">
-        <v>1.29390018484288E-2</v>
+        <v>0.251318421531187</v>
       </c>
       <c r="I26">
-        <v>-3.5552682611506001E-2</v>
+        <v>0.28062205137165802</v>
       </c>
       <c r="J26">
-        <v>-9.3515358361774603E-2</v>
+        <v>0.325081967213114</v>
       </c>
       <c r="K26">
-        <v>-3.95846852693056E-2</v>
+        <v>0.25524602026049198</v>
       </c>
       <c r="L26">
-        <v>-4.3648208469055302E-2</v>
+        <v>0.30690235690235601</v>
       </c>
       <c r="M26">
-        <v>0.19</v>
+        <v>0.31490000000000001</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A27" s="2" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="C27" s="5">
-        <v>44295</v>
+        <v>44294</v>
       </c>
       <c r="D27" s="3">
-        <v>109571.07791199999</v>
+        <v>85757.902159999998</v>
       </c>
       <c r="E27" s="4">
-        <v>0.18535079760487214</v>
+        <v>0.22731867096181843</v>
       </c>
       <c r="F27">
-        <v>-3.6357091432685298E-2</v>
+        <v>-0.356631810676939</v>
       </c>
       <c r="G27">
-        <v>3.5833891493636902E-2</v>
+        <v>-0.38795045045045001</v>
       </c>
       <c r="H27">
-        <v>0.13361420403249999</v>
+        <v>-0.324556689951638</v>
       </c>
       <c r="I27">
-        <v>0.134915865384615</v>
+        <v>-0.29532317393589003</v>
       </c>
       <c r="J27">
-        <v>8.1951530612244902E-2</v>
+        <v>-0.501218026796589</v>
       </c>
       <c r="K27">
-        <v>0.17836757990867499</v>
+        <v>-0.43731778425655898</v>
       </c>
       <c r="L27">
-        <v>0.26537381985200298</v>
+        <v>-0.159999999999999</v>
       </c>
       <c r="M27">
-        <v>0.34</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A28" s="2" t="s">
-        <v>54</v>
+        <v>210</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>55</v>
+        <v>211</v>
       </c>
       <c r="C28" s="5">
-        <v>44295</v>
+        <v>44312</v>
       </c>
       <c r="D28" s="3">
-        <v>248243.17726799997</v>
+        <v>10726.401024000001</v>
       </c>
       <c r="E28" s="4">
-        <v>0.29123397115384614</v>
+        <v>1.025000643989003E-2</v>
       </c>
       <c r="F28">
-        <v>-2.34765234765234E-2</v>
+        <v>-6.1207778915046099E-2</v>
       </c>
       <c r="G28">
-        <v>3.1892274982282101E-2</v>
+        <v>-7.0521424883841097E-2</v>
       </c>
       <c r="H28">
-        <v>5.4453161052145899E-2</v>
+        <v>-2.65346534653466E-2</v>
       </c>
       <c r="I28">
-        <v>8.9535658742501606E-2</v>
+        <v>-6.08820218970633E-2</v>
       </c>
       <c r="J28">
-        <v>2.8449502133712699E-2</v>
+        <v>9.8591549295774503E-2</v>
       </c>
       <c r="K28">
-        <v>-0.34980237154150101</v>
+        <v>0.24043956043956</v>
       </c>
       <c r="L28">
-        <v>-0.2262118491921</v>
+        <v>8.1502480510276296E-2</v>
       </c>
       <c r="M28">
-        <v>0.44</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A29" s="2" t="s">
-        <v>56</v>
+        <v>328</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>57</v>
+        <v>329</v>
       </c>
       <c r="C29" s="5">
-        <v>44298</v>
+        <v>44316</v>
       </c>
       <c r="D29" s="3">
-        <v>57997.125</v>
+        <v>12266.805299999998</v>
       </c>
       <c r="E29" s="4">
-        <v>0.15852215082854243</v>
+        <v>9.0406478986729873E-3</v>
       </c>
       <c r="F29">
-        <v>1.03154136084109E-2</v>
+        <v>-2.1526980482204298E-2</v>
       </c>
       <c r="G29">
-        <v>5.02569960022844E-2</v>
+        <v>-3.6642199697075502E-2</v>
       </c>
       <c r="H29">
-        <v>4.8627002288329398E-2</v>
+        <v>2.2252747252747299E-2</v>
       </c>
       <c r="I29">
-        <v>3.5942028985507198E-2</v>
+        <v>0.128550440744368</v>
       </c>
       <c r="J29">
-        <v>2.06124852767961E-2</v>
+        <v>0.17074420988862399</v>
       </c>
       <c r="K29">
-        <v>0.13863950276243001</v>
+        <v>0.43146964856230002</v>
       </c>
       <c r="L29">
-        <v>6.0451977401129897E-2</v>
+        <v>0.40295252474416998</v>
       </c>
       <c r="M29">
-        <v>0.18</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A30" s="2" t="s">
-        <v>58</v>
+        <v>190</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>59</v>
+        <v>191</v>
       </c>
       <c r="C30" s="5">
-        <v>44298</v>
+        <v>44309</v>
       </c>
       <c r="D30" s="3">
-        <v>13254.048210000001</v>
+        <v>2182.0583839999999</v>
       </c>
       <c r="E30" s="4">
-        <v>1.612881052829607E-2</v>
+        <v>1.0013116666666662E-2</v>
       </c>
       <c r="F30">
-        <v>1.9624573378839601E-2</v>
+        <v>-4.9710982658959499E-2</v>
       </c>
       <c r="G30">
-        <v>7.0388349514563006E-2</v>
+        <v>-5.0925925925925798E-2</v>
       </c>
       <c r="H30">
-        <v>1.7108639863130801E-2</v>
+        <v>-5.2753623188405797E-2</v>
       </c>
       <c r="I30">
-        <v>-1.9520851818988501E-2</v>
+        <v>-4.9104563835933E-2</v>
       </c>
       <c r="J30">
-        <v>-4.0760869565217399E-2</v>
+        <v>-5.45876887340302E-2</v>
       </c>
       <c r="K30">
-        <v>6.5853658536585397E-2</v>
+        <v>4.0676175382989899E-2</v>
       </c>
       <c r="L30">
-        <v>-2.61780104712036E-3</v>
+        <v>8.0506329113923997E-2</v>
       </c>
       <c r="M30">
-        <v>0.09</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A31" s="2" t="s">
-        <v>60</v>
+        <v>164</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>61</v>
+        <v>165</v>
       </c>
       <c r="C31" s="5">
-        <v>44298</v>
+        <v>44306</v>
       </c>
       <c r="D31" s="3">
-        <v>20771.891072999999</v>
+        <v>1459354.7464910001</v>
       </c>
       <c r="E31" s="4">
-        <v>3.19326942528248E-2</v>
+        <v>0.24587873327796281</v>
       </c>
       <c r="F31">
-        <v>1.20320855614974E-2</v>
+        <v>1.84577522559474E-2</v>
       </c>
       <c r="G31">
-        <v>2.3778071334214002E-2</v>
+        <v>2.7235772357723599E-2</v>
       </c>
       <c r="H31">
-        <v>4.8906048906048799E-2</v>
+        <v>1.66875260742591E-3</v>
       </c>
       <c r="I31">
-        <v>7.0440251572327098E-2</v>
+        <v>-9.8714416896235002E-2</v>
       </c>
       <c r="J31">
-        <v>4.0259740259740301E-2</v>
+        <v>-8.7233075874602301E-2</v>
+      </c>
+      <c r="K31">
+        <v>0.19751844399731699</v>
       </c>
       <c r="L31">
-        <v>-1.7906336088154201E-2</v>
+        <v>0.11304670126019201</v>
       </c>
       <c r="M31">
-        <v>0.08</v>
+        <v>4.2000000000000003E-2</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A32" s="2" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="C32" s="5">
-        <v>44298</v>
+        <v>44295</v>
       </c>
       <c r="D32" s="3">
-        <v>59193.341358000005</v>
+        <v>78107.112000000008</v>
       </c>
       <c r="E32" s="4">
-        <v>0.10223550564220198</v>
+        <v>0.45441708957206173</v>
       </c>
       <c r="F32">
-        <v>-7.97266514806379E-2</v>
+        <v>-8.8161209068009297E-3</v>
       </c>
       <c r="G32">
-        <v>-1.28205128205129E-2</v>
+        <v>3.0266343825665801E-2</v>
       </c>
       <c r="H32">
-        <v>-4.2372881355933097E-3</v>
+        <v>1.29390018484288E-2</v>
       </c>
       <c r="I32">
-        <v>3.0674846625766701E-2</v>
+        <v>-3.5552682611506001E-2</v>
       </c>
       <c r="J32">
-        <v>2.6694045174537901E-2</v>
+        <v>-9.3515358361774603E-2</v>
       </c>
       <c r="K32">
-        <v>0.22801302931595999</v>
+        <v>-3.95846852693056E-2</v>
       </c>
       <c r="L32">
-        <v>0.16402116402116301</v>
+        <v>-4.3648208469055302E-2</v>
       </c>
       <c r="M32">
-        <v>0.17</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A33" s="2" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="C33" s="5">
-        <v>44298</v>
+        <v>44295</v>
       </c>
       <c r="D33" s="3">
-        <v>13160.376990000001</v>
+        <v>109571.07791199999</v>
       </c>
       <c r="E33" s="4">
-        <v>7.7254522302563092E-2</v>
+        <v>0.18535079760487214</v>
       </c>
       <c r="F33">
-        <v>3.5269709543568402E-2</v>
+        <v>-3.6357091432685298E-2</v>
       </c>
       <c r="G33">
-        <v>6.4102564102562704E-3</v>
+        <v>3.5833891493636902E-2</v>
       </c>
       <c r="H33">
-        <v>8.8235294117646898E-2</v>
+        <v>0.13361420403249999</v>
       </c>
       <c r="I33">
-        <v>0.17406749555950199</v>
+        <v>0.134915865384615</v>
       </c>
       <c r="J33">
-        <v>0.26540284360189498</v>
+        <v>8.1951530612244902E-2</v>
       </c>
       <c r="K33">
-        <v>0.30075187969924799</v>
+        <v>0.17836757990867499</v>
       </c>
       <c r="L33">
-        <v>0.36038514442915998</v>
+        <v>0.26537381985200298</v>
       </c>
       <c r="M33">
-        <v>0.32</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A34" s="2" t="s">
-        <v>66</v>
+        <v>316</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>67</v>
+        <v>317</v>
       </c>
       <c r="C34" s="5">
-        <v>44298</v>
+        <v>44316</v>
       </c>
       <c r="D34" s="3">
-        <v>572</v>
+        <v>13925.060579999999</v>
       </c>
       <c r="E34" s="4">
-        <v>1.4974656844680113E-3</v>
+        <v>4.0384513451847542E-2</v>
       </c>
       <c r="F34">
-        <v>0.12806539509536699</v>
+        <v>3.2650945840891503E-2</v>
       </c>
       <c r="G34">
-        <v>5.9829059829059603E-2</v>
+        <v>-8.0428954423595505E-4</v>
       </c>
       <c r="H34">
-        <v>6.1333333333333198E-2</v>
+        <v>1.08638049814521E-2</v>
       </c>
       <c r="I34">
-        <v>7.001321003963E-2</v>
+        <v>5.1816103632207199E-2</v>
       </c>
       <c r="J34">
-        <v>0.10272750446087101</v>
+        <v>0.14262746899402801</v>
       </c>
       <c r="K34">
-        <v>0.17156978112497001</v>
+        <v>0.16487695749440701</v>
       </c>
       <c r="L34">
-        <v>0.375554372893382</v>
+        <v>0.30172091283202401</v>
       </c>
       <c r="M34">
-        <v>0.53500000000000003</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A35" s="2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C35" s="5">
         <v>44298</v>
       </c>
       <c r="D35" s="3">
-        <v>644662.72779999999</v>
+        <v>84583.58</v>
       </c>
       <c r="E35" s="4">
-        <v>0.52680371944359483</v>
+        <v>0.25003749812509374</v>
       </c>
       <c r="F35">
-        <v>2.96186597556467E-3</v>
+        <v>0.31709286675639198</v>
       </c>
       <c r="G35">
-        <v>3.1120705162799099E-2</v>
+        <v>0.40165094339622598</v>
       </c>
       <c r="H35">
-        <v>2.0371044016005702E-2</v>
+        <v>0.28211658177702298</v>
       </c>
       <c r="I35">
-        <v>-1.9110690633869401E-2</v>
+        <v>0.32954545454545398</v>
       </c>
       <c r="J35">
-        <v>-8.6982845610494505E-2</v>
+        <v>0.252724594992636</v>
       </c>
       <c r="K35">
-        <v>-0.15554602016734601</v>
+        <v>0.38852735598939497</v>
       </c>
       <c r="L35">
-        <v>-0.26669802445907798</v>
+        <v>0.45323275862068901</v>
       </c>
       <c r="M35">
-        <v>1.66</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A36" s="2" t="s">
-        <v>70</v>
+        <v>308</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>71</v>
+        <v>309</v>
       </c>
       <c r="C36" s="5">
-        <v>44298</v>
+        <v>44316</v>
       </c>
       <c r="D36" s="3">
-        <v>209481.9265</v>
+        <v>64816.2</v>
       </c>
       <c r="E36" s="4">
-        <v>0.68867926008933422</v>
+        <v>0.10002249943751407</v>
       </c>
       <c r="F36">
-        <v>-7.6832151300235798E-3</v>
+        <v>9.0909090909090898E-2</v>
       </c>
       <c r="G36">
-        <v>-5.3066037735848897E-3</v>
+        <v>0.24860853432282001</v>
       </c>
       <c r="H36">
-        <v>-3.3333333333333298E-2</v>
+        <v>0.44897959183673403</v>
       </c>
       <c r="I36">
-        <v>5.7490326147042498E-2</v>
+        <v>0.39439252336448599</v>
       </c>
       <c r="J36">
-        <v>6.4215148188803403E-2</v>
+        <v>0.39416604338070299</v>
       </c>
       <c r="K36">
-        <v>0.23473967684021499</v>
+        <v>0.40419271791099598</v>
       </c>
       <c r="L36">
-        <v>0.37270051508462099</v>
+        <v>0.29900475984422298</v>
       </c>
       <c r="M36">
-        <v>1.18</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A37" s="2" t="s">
-        <v>72</v>
+        <v>216</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>73</v>
+        <v>217</v>
       </c>
       <c r="C37" s="5">
-        <v>44298</v>
+        <v>44312</v>
       </c>
       <c r="D37" s="3">
-        <v>84583.58</v>
+        <v>85098.090000000011</v>
       </c>
       <c r="E37" s="4">
-        <v>0.25003749812509374</v>
+        <v>0.25002884504442136</v>
       </c>
       <c r="F37">
-        <v>0.31709286675639198</v>
+        <v>-0.20275650842266399</v>
       </c>
       <c r="G37">
-        <v>0.40165094339622598</v>
+        <v>-0.29947054930509598</v>
       </c>
       <c r="H37">
-        <v>0.28211658177702298</v>
+        <v>-0.271285205568145</v>
       </c>
       <c r="I37">
-        <v>0.32954545454545398</v>
+        <v>-0.26595744680851002</v>
       </c>
       <c r="J37">
-        <v>0.252724594992636</v>
+        <v>-0.35273854633138102</v>
       </c>
       <c r="K37">
-        <v>0.38852735598939497</v>
+        <v>-0.44534412955465502</v>
       </c>
       <c r="L37">
-        <v>0.45323275862068901</v>
+        <v>-0.59504467912266401</v>
       </c>
       <c r="M37">
-        <v>0.35</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A38" s="2" t="s">
-        <v>74</v>
+        <v>330</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>75</v>
+        <v>331</v>
       </c>
       <c r="C38" s="5">
-        <v>44298</v>
+        <v>44316</v>
       </c>
       <c r="D38" s="3">
-        <v>81202.03</v>
+        <v>80574.999999999985</v>
       </c>
       <c r="E38" s="4">
-        <v>0.16379654520773998</v>
+        <v>0.25</v>
       </c>
       <c r="F38">
-        <v>7.8201368523949204E-3</v>
+        <v>9.0832157968970498E-2</v>
       </c>
       <c r="G38">
-        <v>-2.96442687747046E-3</v>
+        <v>0.248717948717948</v>
       </c>
       <c r="H38">
-        <v>-3.2553407934893197E-2</v>
+        <v>0.105963938973647</v>
       </c>
       <c r="I38">
-        <v>-2.52525252525252E-2</v>
+        <v>0.144184811471056</v>
       </c>
       <c r="J38">
-        <v>-1.9743336623888998E-3</v>
+        <v>2.18512898330806E-2</v>
       </c>
       <c r="K38">
-        <v>0.21682098765432101</v>
+        <v>0.118917441224713</v>
       </c>
       <c r="L38">
-        <v>0.54545454545454497</v>
+        <v>-5.0521512385919003E-2</v>
       </c>
       <c r="M38">
-        <v>0.21629999999999999</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A39" s="2" t="s">
-        <v>76</v>
+        <v>162</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>77</v>
+        <v>163</v>
       </c>
       <c r="C39" s="5">
-        <v>44298</v>
+        <v>44306</v>
       </c>
       <c r="D39" s="3">
-        <v>71443.63029999999</v>
+        <v>201174.905</v>
       </c>
       <c r="E39" s="4">
-        <v>0.22700912343470483</v>
+        <v>0.25000146484088898</v>
       </c>
       <c r="F39">
-        <v>-0.234649122807017</v>
+        <v>0.181991672449687</v>
       </c>
       <c r="G39">
-        <v>-0.25055530875166498</v>
+        <v>1.2565445026178E-2</v>
       </c>
       <c r="H39">
-        <v>-0.28333713243674402</v>
+        <v>2.1378165213781601E-2</v>
       </c>
       <c r="I39">
-        <v>-0.46423927178153401</v>
+        <v>9.67432950191571E-2</v>
       </c>
       <c r="J39">
-        <v>-0.451030927835051</v>
+        <v>0.30559646539027902</v>
       </c>
       <c r="K39">
-        <v>-0.23981501871834399</v>
+        <v>0.53959574260326104</v>
       </c>
       <c r="L39">
-        <v>-0.12532480511692901</v>
+        <v>0.62484086569064201</v>
       </c>
       <c r="M39">
-        <v>0.37</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A40" s="2" t="s">
-        <v>78</v>
+        <v>168</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="C40" s="5">
-        <v>44298</v>
+        <v>44307</v>
       </c>
       <c r="D40" s="3">
-        <v>1210103.3287500001</v>
+        <v>83769.48</v>
       </c>
       <c r="E40" s="4">
-        <v>6.8032361284970477E-2</v>
+        <v>0.25005377816141755</v>
       </c>
       <c r="F40">
-        <v>4.2166484914576502E-2</v>
+        <v>0.16519546027742699</v>
       </c>
       <c r="G40">
-        <v>3.90226112326768E-2</v>
+        <v>0.117137141587019</v>
       </c>
       <c r="H40">
-        <v>0.100682593856655</v>
+        <v>6.5411764705882294E-2</v>
       </c>
       <c r="I40">
-        <v>6.9890575361807095E-2</v>
+        <v>0.17661691542288499</v>
       </c>
       <c r="J40">
-        <v>-2.6636225266362299E-3</v>
+        <v>0.100339750849377</v>
       </c>
       <c r="K40">
-        <v>-0.498010233086981</v>
+        <v>0.136709410997609</v>
       </c>
       <c r="L40">
-        <v>-0.54274004683840704</v>
+        <v>0.33018549747048898</v>
       </c>
       <c r="M40">
-        <v>0.65</v>
+        <v>1.0900000000000001</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A41" s="2" t="s">
-        <v>80</v>
+        <v>234</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>81</v>
+        <v>235</v>
       </c>
       <c r="C41" s="5">
-        <v>44298</v>
+        <v>44313</v>
       </c>
       <c r="D41" s="3">
-        <v>53338.243696000005</v>
+        <v>102700</v>
       </c>
       <c r="E41" s="4">
-        <v>0.20330409262250942</v>
+        <v>0.25</v>
       </c>
       <c r="F41">
-        <v>-0.12627551020408101</v>
+        <v>0.24871982443306501</v>
       </c>
       <c r="G41">
-        <v>-0.137153895685769</v>
+        <v>0.37917485265225898</v>
       </c>
       <c r="H41">
-        <v>-0.18682795698924701</v>
+        <v>0.57601403653627803</v>
       </c>
       <c r="I41">
-        <v>-0.255152807391613</v>
+        <v>0.64960764244285196</v>
       </c>
       <c r="J41">
-        <v>-0.17654896735509601</v>
+        <v>0.65215918712955101</v>
       </c>
       <c r="K41">
-        <v>-7.3556231003039499E-2</v>
+        <v>0.54857142857142804</v>
       </c>
       <c r="L41">
-        <v>-3.3352837916910398E-2</v>
+        <v>0.37492391965916</v>
       </c>
       <c r="M41">
-        <v>0.25</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A42" s="2" t="s">
-        <v>82</v>
+        <v>134</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>83</v>
+        <v>135</v>
       </c>
       <c r="C42" s="5">
-        <v>44299</v>
+        <v>44302</v>
       </c>
       <c r="D42" s="3">
-        <v>3912.11</v>
+        <v>59264</v>
       </c>
       <c r="E42" s="4">
-        <v>2.7480258078206531E-3</v>
+        <v>0.25</v>
       </c>
       <c r="F42">
-        <v>9.38967136150234E-2</v>
+        <v>0.317109144542772</v>
       </c>
       <c r="G42">
-        <v>5.0196850393700698E-2</v>
+        <v>0.435537945748247</v>
       </c>
       <c r="H42">
-        <v>-1.5789473684210499E-2</v>
+        <v>0.31126812941613902</v>
       </c>
       <c r="I42">
-        <v>-7.3068893528183999E-3</v>
+        <v>0.30113207547169801</v>
       </c>
       <c r="J42">
-        <v>-0.100342075256556</v>
+        <v>0.32111436950146599</v>
       </c>
       <c r="K42">
-        <v>-0.137971698113207</v>
+        <v>0.26942800788954602</v>
       </c>
       <c r="L42">
-        <v>-0.209273182957393</v>
+        <v>0.28823981552651801</v>
       </c>
       <c r="M42">
-        <v>0.52</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A43" s="2" t="s">
-        <v>84</v>
+        <v>172</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>85</v>
+        <v>173</v>
       </c>
       <c r="C43" s="5">
-        <v>44299</v>
+        <v>44307</v>
       </c>
       <c r="D43" s="3">
-        <v>5830.0715199999995</v>
+        <v>66939</v>
       </c>
       <c r="E43" s="4">
-        <v>2.3079119583608757E-2</v>
+        <v>0.25078864353312302</v>
       </c>
       <c r="F43">
-        <v>2.4128686327077702E-2</v>
+        <v>0.31722348361984998</v>
       </c>
       <c r="G43">
-        <v>1.35501355013549E-2</v>
+        <v>0.23370950127411699</v>
       </c>
       <c r="H43">
-        <v>8.1743869209808702E-3</v>
+        <v>0.26088483146067398</v>
       </c>
       <c r="I43">
-        <v>2.8037383177569999E-2</v>
+        <v>0.31544715447154398</v>
       </c>
       <c r="J43">
-        <v>3.32005312084993E-2</v>
+        <v>0.50423928403203</v>
       </c>
       <c r="K43">
-        <v>5.3315994798439501E-2</v>
+        <v>0.39891490576813199</v>
       </c>
       <c r="L43">
-        <v>6.1855670103092703E-2</v>
+        <v>0.24226061915046701</v>
       </c>
       <c r="M43">
-        <v>0.1736</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A44" s="2" t="s">
-        <v>86</v>
+        <v>182</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>87</v>
+        <v>183</v>
       </c>
       <c r="C44" s="5">
-        <v>44299</v>
+        <v>44308</v>
       </c>
       <c r="D44" s="3">
-        <v>1213.4820999999999</v>
+        <v>2987.25</v>
       </c>
       <c r="E44" s="4">
-        <v>3.2258917906646898E-3</v>
+        <v>3.6888975152422177E-4</v>
       </c>
       <c r="F44">
-        <v>4.52488687782805E-2</v>
+        <v>0.12805843591970101</v>
       </c>
       <c r="G44">
-        <v>4.7169811320755799E-3</v>
+        <v>0.11659680173886</v>
       </c>
       <c r="H44">
-        <v>-1.9323671497584499E-2</v>
+        <v>4.07417813992694E-2</v>
       </c>
       <c r="I44">
-        <v>-2.92682926829268E-2</v>
+        <v>-4.05858478913003E-3</v>
       </c>
       <c r="J44">
-        <v>-1.9323671497584499E-2</v>
+        <v>-0.401477832512315</v>
       </c>
       <c r="K44">
-        <v>-4.76190476190466E-3</v>
+        <v>-7.4395770392749194E-2</v>
       </c>
       <c r="L44">
-        <v>-3.4313725490195998E-2</v>
+        <v>7.2484242555966097E-2</v>
       </c>
       <c r="M44">
-        <v>3.7699999999999997E-2</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A45" s="2" t="s">
-        <v>88</v>
+        <v>276</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>89</v>
+        <v>277</v>
       </c>
       <c r="C45" s="5">
-        <v>44299</v>
+        <v>44315</v>
       </c>
       <c r="D45" s="3">
-        <v>137962.25265499999</v>
+        <v>33326.639999999999</v>
       </c>
       <c r="E45" s="4">
-        <v>0.23773025396520645</v>
+        <v>9.9899987512501592E-2</v>
       </c>
       <c r="F45">
-        <v>-0.46682464454976202</v>
+        <v>-2.1224489795918299E-2</v>
       </c>
       <c r="G45">
-        <v>-0.55919395465994903</v>
+        <v>-3.20769847634315E-3</v>
       </c>
       <c r="H45">
-        <v>-0.60196687370600399</v>
+        <v>7.1428571428571296E-3</v>
       </c>
       <c r="I45">
-        <v>-0.70805739514348698</v>
+        <v>-3.8174273858920998E-2</v>
       </c>
       <c r="J45">
-        <v>-0.637566137566137</v>
+        <v>-3.7313432835820802E-2</v>
       </c>
       <c r="K45">
-        <v>-0.72519509476031196</v>
+        <v>-7.1061643835616403E-2</v>
       </c>
       <c r="L45">
-        <v>-0.91285537700865205</v>
+        <v>-0.15299539170506901</v>
       </c>
       <c r="M45">
-        <v>0.33</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A46" s="2" t="s">
-        <v>90</v>
+        <v>6</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>91</v>
+        <v>7</v>
       </c>
       <c r="C46" s="5">
-        <v>44299</v>
+        <v>44288</v>
       </c>
       <c r="D46" s="3">
-        <v>17068.964616000001</v>
+        <v>4315.0060799999992</v>
       </c>
       <c r="E46" s="4">
-        <v>3.6675642229979676E-2</v>
+        <v>4.1274169098744554E-3</v>
       </c>
       <c r="F46">
-        <v>-2.60504201680672E-2</v>
+        <v>-4.0438656614119203E-2</v>
       </c>
       <c r="G46">
-        <v>-0.16285714285714201</v>
+        <v>2.75464445868033E-2</v>
       </c>
       <c r="H46">
-        <v>-0.21613545816733001</v>
+        <v>1.5883306320907599E-2</v>
       </c>
       <c r="I46">
-        <v>-0.20414201183431899</v>
+        <v>0.115126785193821</v>
       </c>
       <c r="J46">
-        <v>9.6893491124260198E-2</v>
+        <v>2.47349823321554E-2</v>
       </c>
       <c r="K46">
-        <v>6.7938931297709795E-2</v>
+        <v>-9.4448449891852901E-2</v>
       </c>
       <c r="L46">
-        <v>-1.15990057995029E-2</v>
+        <v>0.109677419354838</v>
       </c>
       <c r="M46">
-        <v>2.7400000000000001E-2</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A47" s="2" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="C47" s="5">
-        <v>44299</v>
+        <v>44298</v>
       </c>
       <c r="D47" s="3">
-        <v>89016.552819999997</v>
+        <v>209481.9265</v>
       </c>
       <c r="E47" s="4">
-        <v>8.1178893053473256E-2</v>
+        <v>0.68867926008933422</v>
       </c>
       <c r="F47">
-        <v>8.0536912751677903E-2</v>
+        <v>-7.6832151300235798E-3</v>
       </c>
       <c r="G47">
-        <v>4.6956521739130397E-2</v>
+        <v>-5.3066037735848897E-3</v>
       </c>
       <c r="H47">
-        <v>0.37727272727272698</v>
+        <v>-3.3333333333333298E-2</v>
       </c>
       <c r="I47">
-        <v>0.36500579374275699</v>
+        <v>5.7490326147042498E-2</v>
       </c>
       <c r="J47">
-        <v>0.278947368421052</v>
+        <v>6.4215148188803403E-2</v>
       </c>
       <c r="K47">
-        <v>0.494278331487633</v>
+        <v>0.23473967684021499</v>
       </c>
       <c r="L47">
-        <v>0.33381959640165298</v>
+        <v>0.37270051508462099</v>
       </c>
       <c r="M47">
-        <v>0.22</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A48" s="2" t="s">
-        <v>94</v>
+        <v>152</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>95</v>
+        <v>153</v>
       </c>
       <c r="C48" s="5">
-        <v>44299</v>
+        <v>44305</v>
       </c>
       <c r="D48" s="3">
-        <v>414304.74533200002</v>
+        <v>240830.37720000002</v>
       </c>
       <c r="E48" s="4">
-        <v>0.65804603166459441</v>
+        <v>0.4482502162655298</v>
       </c>
       <c r="F48">
-        <v>2.3856858846918499E-2</v>
+        <v>5.4919908466819101E-2</v>
       </c>
       <c r="G48">
-        <v>-5.2518756698821001E-2</v>
+        <v>1.27490039840637E-2</v>
       </c>
       <c r="H48">
-        <v>-8.3885209713024197E-2</v>
+        <v>8.0064051240992494E-3</v>
       </c>
       <c r="I48">
-        <v>-5.2518756698821001E-2</v>
+        <v>2.9757243539545699E-2</v>
       </c>
       <c r="J48">
-        <v>-2.82722513089004E-2</v>
+        <v>4.9117421335379802E-2</v>
       </c>
       <c r="K48">
-        <v>3.2512315270935899E-2</v>
+        <v>0.45942408376963301</v>
       </c>
       <c r="L48">
-        <v>0.13935144609991201</v>
+        <v>0.55254604550379105</v>
       </c>
       <c r="M48">
-        <v>0.18729999999999999</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A49" s="2" t="s">
-        <v>96</v>
+        <v>142</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>97</v>
+        <v>143</v>
       </c>
       <c r="C49" s="5">
-        <v>44299</v>
+        <v>44305</v>
       </c>
       <c r="D49" s="3">
-        <v>67077.842625000005</v>
+        <v>79181.744615999996</v>
       </c>
       <c r="E49" s="4">
-        <v>0.21541511254019294</v>
+        <v>0.31997540138143493</v>
       </c>
       <c r="F49">
-        <v>9.7908322207387096E-3</v>
+        <v>1.2830188679245199E-2</v>
       </c>
       <c r="G49">
-        <v>-9.2292587137947898E-2</v>
+        <v>2.7509293680297298E-2</v>
       </c>
       <c r="H49">
-        <v>-0.159458051068264</v>
+        <v>1.8018018018018001E-2</v>
       </c>
       <c r="I49">
-        <v>-0.104766633565044</v>
+        <v>-4.9942374183633799E-3</v>
       </c>
       <c r="J49">
-        <v>-0.103670634920634</v>
+        <v>-7.2131147540983598E-2</v>
       </c>
       <c r="K49">
-        <v>-9.8223099703849806E-2</v>
+        <v>1.7280240420736299E-2</v>
       </c>
       <c r="L49">
-        <v>7.7911313717364206E-2</v>
+        <v>-3.8240917782032699E-4</v>
       </c>
       <c r="M49">
-        <v>0.28999999999999998</v>
+        <v>2.63E-2</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A50" s="2" t="s">
-        <v>98</v>
+        <v>176</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>99</v>
+        <v>177</v>
       </c>
       <c r="C50" s="5">
-        <v>44300</v>
+        <v>44307</v>
       </c>
       <c r="D50" s="3">
-        <v>125967.85448000001</v>
+        <v>1412950</v>
       </c>
       <c r="E50" s="4">
-        <v>4.9298777858657133E-2</v>
+        <v>0.77906743152428604</v>
       </c>
       <c r="F50">
-        <v>3.29144225014961E-2</v>
+        <v>5.5514705882352799E-2</v>
       </c>
       <c r="G50">
-        <v>1.2224938875305499E-2</v>
+        <v>7.1893063583814906E-2</v>
       </c>
       <c r="H50">
-        <v>-7.9492317969271795E-2</v>
+        <v>6.13810741687979E-2</v>
       </c>
       <c r="I50">
-        <v>-7.9492317969271795E-2</v>
+        <v>2.7262400605830999E-2</v>
       </c>
       <c r="J50">
-        <v>-6.03674540682414E-2</v>
+        <v>2.0960365853658399E-2</v>
       </c>
       <c r="K50">
-        <v>7.4985689753863702E-2</v>
+        <v>0.149900727994705</v>
       </c>
       <c r="L50">
-        <v>8.5889570552147507E-3</v>
+        <v>0.355494229804315</v>
       </c>
       <c r="M50">
-        <v>0.32</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A51" s="2" t="s">
-        <v>100</v>
+        <v>178</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>101</v>
+        <v>179</v>
       </c>
       <c r="C51" s="5">
-        <v>44300</v>
+        <v>44307</v>
       </c>
       <c r="D51" s="3">
-        <v>11817.415520999999</v>
+        <v>67019.399999999994</v>
       </c>
       <c r="E51" s="4">
-        <v>8.6251882098594301E-2</v>
+        <v>0.18</v>
       </c>
       <c r="F51">
-        <v>2.5931928687196099E-2</v>
+        <v>-6.19946091644204E-2</v>
       </c>
       <c r="G51">
-        <v>2.5931928687196099E-2</v>
+        <v>-0.109859154929577</v>
       </c>
       <c r="H51">
-        <v>0.185636856368563</v>
+        <v>-0.114568599717114</v>
       </c>
       <c r="I51">
-        <v>0.185636856368563</v>
+        <v>-0.106741573033707</v>
       </c>
       <c r="J51">
-        <v>0.14630681818181801</v>
+        <v>-0.145348837209302</v>
       </c>
       <c r="K51">
-        <v>0.106983655274888</v>
+        <v>-0.190332326283987</v>
       </c>
       <c r="L51">
-        <v>0.126453488372093</v>
+        <v>-0.285481239804241</v>
       </c>
       <c r="M51">
-        <v>-1.8100000000000002E-2</v>
+        <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A52" s="2" t="s">
-        <v>102</v>
+        <v>30</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>103</v>
+        <v>31</v>
       </c>
       <c r="C52" s="5">
-        <v>44301</v>
+        <v>44293</v>
       </c>
       <c r="D52" s="3">
-        <v>164512.68657600001</v>
+        <v>2792.0803999999998</v>
       </c>
       <c r="E52" s="4">
-        <v>4.2004407467408989E-3</v>
+        <v>6.5078317862582932E-3</v>
       </c>
       <c r="F52">
-        <v>4.7468354430379799E-2</v>
+        <v>6.8230277185501106E-2</v>
       </c>
       <c r="G52">
-        <v>8.4642676127724303E-2</v>
+        <v>3.9560439560439399E-2</v>
       </c>
       <c r="H52">
-        <v>8.0682107406464795E-2</v>
+        <v>7.6109936575052897E-2</v>
       </c>
       <c r="I52">
-        <v>8.0682107406464795E-2</v>
+        <v>6.0215053763440898E-2</v>
       </c>
       <c r="J52">
-        <v>8.5222236292262901E-2</v>
+        <v>2.3463687150837801E-2</v>
       </c>
       <c r="K52">
-        <v>0.21281464530892399</v>
+        <v>-5.4282267792521197E-2</v>
       </c>
       <c r="L52">
-        <v>0.10238568588469101</v>
+        <v>9.2419522326064402E-2</v>
       </c>
       <c r="M52">
-        <v>0.55000000000000004</v>
+        <v>0.68989999999999996</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A53" s="2" t="s">
-        <v>104</v>
+        <v>278</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>105</v>
+        <v>279</v>
       </c>
       <c r="C53" s="5">
-        <v>44301</v>
+        <v>44315</v>
       </c>
       <c r="D53" s="3">
-        <v>3358.4752949999997</v>
+        <v>48067.280112</v>
       </c>
       <c r="E53" s="4">
-        <v>1.4681797267495256E-3</v>
+        <v>8.437554982234402E-2</v>
       </c>
       <c r="F53">
-        <v>5.26501766784453E-2</v>
+        <v>-0.10060120240480901</v>
       </c>
       <c r="G53">
-        <v>3.7342908438061102E-2</v>
+        <v>-8.0676898858716997E-2</v>
       </c>
       <c r="H53">
-        <v>4.3524794862647202E-2</v>
+        <v>-5.0497322111706197E-2</v>
       </c>
       <c r="I53">
-        <v>4.3524794862647202E-2</v>
+        <v>-7.3075420085971093E-2</v>
       </c>
       <c r="J53">
-        <v>-5.2197802197802103E-2</v>
+        <v>-3.6226415094339597E-2</v>
       </c>
       <c r="K53">
-        <v>-6.6428003182179701E-2</v>
+        <v>-0.525555555555555</v>
       </c>
       <c r="L53">
-        <v>7.5517241379310304E-2</v>
+        <v>-0.65521398432790801</v>
       </c>
       <c r="M53">
-        <v>0.55000000000000004</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A54" s="2" t="s">
-        <v>106</v>
+        <v>48</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>107</v>
+        <v>49</v>
       </c>
       <c r="C54" s="5">
-        <v>44301</v>
+        <v>44295</v>
       </c>
       <c r="D54" s="3">
-        <v>372174.25689999998</v>
+        <v>5123.9831999999997</v>
       </c>
       <c r="E54" s="4">
-        <v>0.2133779555922995</v>
+        <v>4.6155353014073345E-3</v>
       </c>
       <c r="F54">
-        <v>0.141666666666666</v>
+        <v>-3.3476394849785297E-2</v>
       </c>
       <c r="G54">
-        <v>0.20093095422808299</v>
+        <v>-2.3809523809523701E-2</v>
       </c>
       <c r="H54">
-        <v>0.29931972789115602</v>
+        <v>-3.2590051457975902E-2</v>
       </c>
       <c r="I54">
-        <v>0.29931972789115602</v>
+        <v>-7.7887197851387494E-2</v>
       </c>
       <c r="J54">
-        <v>0.34603174603174602</v>
+        <v>-0.107635694572217</v>
       </c>
       <c r="K54">
-        <v>0.36167575607337599</v>
+        <v>-0.128397375820056</v>
       </c>
       <c r="L54">
-        <v>0.29731204802838002</v>
+        <v>-0.167798254122211</v>
       </c>
       <c r="M54">
-        <v>0.96899999999999997</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A55" s="2" t="s">
-        <v>108</v>
+        <v>140</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>109</v>
+        <v>141</v>
       </c>
       <c r="C55" s="5">
-        <v>44301</v>
+        <v>44305</v>
       </c>
       <c r="D55" s="3">
-        <v>90137.150185999999</v>
+        <v>153603.32089999999</v>
       </c>
       <c r="E55" s="4">
-        <v>0.23708822619047618</v>
+        <v>8.682623790423058E-2</v>
       </c>
       <c r="F55">
-        <v>-0.21797631862217401</v>
+        <v>-1.31229495391343E-2</v>
       </c>
       <c r="G55">
-        <v>-0.22755627881746601</v>
+        <v>-6.0680405626430997E-2</v>
       </c>
       <c r="H55">
-        <v>-0.28799089356858198</v>
+        <v>-5.9294348252204997E-2</v>
       </c>
       <c r="I55">
-        <v>-0.28799089356858198</v>
+        <v>-0.10854700854700799</v>
       </c>
       <c r="J55">
-        <v>-0.22357393890240501</v>
+        <v>1.6933497536945701E-3</v>
       </c>
       <c r="K55">
-        <v>-0.18699186991869901</v>
+        <v>-0.49252013808975798</v>
       </c>
       <c r="L55">
-        <v>-0.29092983456930899</v>
+        <v>-0.29080414012738798</v>
       </c>
       <c r="M55">
-        <v>0.71</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A56" s="2" t="s">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>111</v>
+        <v>141</v>
       </c>
       <c r="C56" s="5">
-        <v>44301</v>
+        <v>44312</v>
       </c>
       <c r="D56" s="3">
-        <v>190521.47528099999</v>
+        <v>6423.1196579999996</v>
       </c>
       <c r="E56" s="4">
-        <v>0.211319127679133</v>
+        <v>3.7958110922555479E-3</v>
       </c>
       <c r="F56">
-        <v>-0.117315573770491</v>
+        <v>-1.32309702711532E-2</v>
       </c>
       <c r="G56">
-        <v>-0.13181110534509499</v>
+        <v>-1.48887434554974E-2</v>
       </c>
       <c r="H56">
-        <v>-0.24557395773843499</v>
+        <v>-6.4526536538149905E-4</v>
       </c>
       <c r="I56">
-        <v>-0.24557395773843499</v>
+        <v>-1.6551950180268699E-2</v>
       </c>
       <c r="J56">
-        <v>-0.21775544388609699</v>
+        <v>4.3779867427162E-2</v>
       </c>
       <c r="K56">
-        <v>-0.31385542168674602</v>
+        <v>-0.284265010351967</v>
       </c>
       <c r="L56">
-        <v>-0.37429111531190901</v>
+        <v>-0.29094693028095697</v>
       </c>
       <c r="M56">
-        <v>0.12</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A57" s="2" t="s">
-        <v>112</v>
+        <v>252</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
       <c r="C57" s="5">
-        <v>44301</v>
+        <v>44314</v>
       </c>
       <c r="D57" s="3">
-        <v>10352.9647</v>
+        <v>213187.43230399999</v>
       </c>
       <c r="E57" s="4">
-        <v>3.3332575757575748E-2</v>
+        <v>0.29839662857966975</v>
       </c>
       <c r="F57">
-        <v>-2.9838022165388002E-3</v>
+        <v>-9.1474797759800802E-2</v>
       </c>
       <c r="G57">
-        <v>-4.1150442477875998E-2</v>
+        <v>-0.125802310654685</v>
       </c>
       <c r="H57">
-        <v>-4.0689960194604198E-2</v>
+        <v>-6.9512195121951198E-2</v>
       </c>
       <c r="I57">
-        <v>-4.0689960194604198E-2</v>
+        <v>-7.2782874617736804E-2</v>
       </c>
       <c r="J57">
-        <v>-3.2017543859649097E-2</v>
+        <v>-0.155467720685111</v>
       </c>
       <c r="K57">
-        <v>2.48653128885204E-2</v>
+        <v>-0.23870056497175099</v>
       </c>
       <c r="L57">
-        <v>-9.0051457975986599E-3</v>
+        <v>-0.43417825020441497</v>
       </c>
       <c r="M57">
-        <v>0.83</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A58" s="2" t="s">
-        <v>114</v>
+        <v>282</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>115</v>
+        <v>283</v>
       </c>
       <c r="C58" s="5">
-        <v>44301</v>
+        <v>44315</v>
       </c>
       <c r="D58" s="3">
-        <v>3519.7776960000001</v>
+        <v>1928415.547186</v>
       </c>
       <c r="E58" s="4">
-        <v>9.2603746693386314E-3</v>
+        <v>0.14788856549815499</v>
       </c>
       <c r="F58">
-        <v>8.3565459610027305E-3</v>
+        <v>2.40475108716816E-2</v>
       </c>
       <c r="G58">
-        <v>-2.8169014084507599E-3</v>
+        <v>-3.4111619270314003E-2</v>
       </c>
       <c r="H58">
-        <v>1.3850415512465301E-2</v>
+        <v>7.4392120652508303E-2</v>
       </c>
       <c r="I58">
-        <v>1.3850415512465301E-2</v>
+        <v>-0.27427966101694901</v>
       </c>
       <c r="J58">
-        <v>3.3921302578018897E-2</v>
+        <v>-0.38674721018168401</v>
       </c>
       <c r="K58">
-        <v>2.0632737276478599E-2</v>
+        <v>-0.13912878787878699</v>
       </c>
       <c r="L58">
-        <v>-0.19063545150501601</v>
+        <v>-0.167974211589249</v>
       </c>
       <c r="M58">
-        <v>0.3745</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A59" s="2" t="s">
-        <v>116</v>
+        <v>254</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>117</v>
+        <v>255</v>
       </c>
       <c r="C59" s="5">
-        <v>44301</v>
+        <v>44314</v>
       </c>
       <c r="D59" s="3">
-        <v>70370.764320000002</v>
+        <v>17736.645424000002</v>
       </c>
       <c r="E59" s="4">
-        <v>9.8249834850822997E-3</v>
+        <v>4.717215376224914E-2</v>
       </c>
       <c r="F59">
-        <v>6.1248527679623001E-2</v>
+        <v>-2.1951219512195301E-2</v>
       </c>
       <c r="G59">
-        <v>2.9190992493744899E-3</v>
+        <v>-2.5703794369645101E-2</v>
       </c>
       <c r="H59">
-        <v>-1.9181585677749299E-2</v>
+        <v>1.75849941383351E-2</v>
       </c>
       <c r="I59">
-        <v>-1.9181585677749299E-2</v>
+        <v>4.3378995433789799E-2</v>
       </c>
       <c r="J59">
-        <v>-3.2829373650107997E-2</v>
+        <v>4.3924700513405503E-2</v>
       </c>
       <c r="K59">
-        <v>-0.12570621468926499</v>
+        <v>5.7897695334457398E-2</v>
       </c>
       <c r="L59">
-        <v>-0.164637116415002</v>
+        <v>0.190338164251207</v>
       </c>
       <c r="M59">
-        <v>0.56000000000000005</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A60" s="2" t="s">
-        <v>118</v>
+        <v>326</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>119</v>
+        <v>327</v>
       </c>
       <c r="C60" s="5">
-        <v>44301</v>
+        <v>44316</v>
       </c>
       <c r="D60" s="3">
-        <v>7634.9926800000003</v>
+        <v>7929.2121349999998</v>
       </c>
       <c r="E60" s="4">
-        <v>1.054556999999999E-2</v>
+        <v>9.329203539867735E-3</v>
       </c>
       <c r="F60">
-        <v>1.0793824292936001E-2</v>
+        <v>-4.3874172185430403E-2</v>
       </c>
       <c r="G60">
-        <v>5.3578788295095504E-3</v>
+        <v>-0.103237095363079</v>
       </c>
       <c r="H60">
-        <v>-1.24458117745769E-2</v>
+        <v>-8.4264832330180395E-2</v>
       </c>
       <c r="I60">
-        <v>-1.24458117745769E-2</v>
+        <v>-0.15582034830430699</v>
       </c>
       <c r="J60">
-        <v>8.8980150581792102E-3</v>
+        <v>-0.190745986779981</v>
       </c>
       <c r="K60">
-        <v>1.96343940419768E-2</v>
+        <v>-0.205544933078393</v>
       </c>
       <c r="L60">
-        <v>5.2107881644409403E-2</v>
+        <v>-0.63341968911917101</v>
       </c>
       <c r="M60">
-        <v>2.1</v>
+        <v>-0.26</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A61" s="2" t="s">
-        <v>120</v>
+        <v>158</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>121</v>
+        <v>159</v>
       </c>
       <c r="C61" s="5">
-        <v>44301</v>
+        <v>44306</v>
       </c>
       <c r="D61" s="3">
-        <v>44528.744167999997</v>
+        <v>59896.799999999996</v>
       </c>
       <c r="E61" s="4">
-        <v>0.10000000020076918</v>
+        <v>0.1061628430049483</v>
       </c>
       <c r="F61">
-        <v>0.31807780320366102</v>
+        <v>6.2084257206208499E-2</v>
       </c>
       <c r="G61">
-        <v>0.43667296786389398</v>
+        <v>7.6419213973799097E-2</v>
       </c>
       <c r="H61">
-        <v>0.64982373678025795</v>
+        <v>7.86321062949248E-2</v>
       </c>
       <c r="I61">
-        <v>0.64982373678025795</v>
+        <v>9.94251649989355E-2</v>
       </c>
       <c r="J61">
-        <v>0.781844802342606</v>
+        <v>6.8076668869795104E-2</v>
       </c>
       <c r="K61">
-        <v>0.73744493392070398</v>
+        <v>-0.46063535911602099</v>
       </c>
       <c r="L61">
-        <v>0.68565400843881796</v>
+        <v>-0.46620450606585701</v>
       </c>
       <c r="M61">
-        <v>0.03</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A62" s="2" t="s">
-        <v>122</v>
+        <v>32</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>123</v>
+        <v>33</v>
       </c>
       <c r="C62" s="5">
-        <v>44302</v>
+        <v>44293</v>
       </c>
       <c r="D62" s="3">
-        <v>291467.96218500001</v>
+        <v>88653.818444000004</v>
       </c>
       <c r="E62" s="4">
-        <v>4.1952230705300055E-2</v>
+        <v>0.25005652033570047</v>
       </c>
       <c r="F62">
-        <v>4.4799519647741502E-2</v>
+        <v>0.317020768679875</v>
       </c>
       <c r="G62">
-        <v>3.0242481712272899E-2</v>
+        <v>0.37286277948268298</v>
       </c>
       <c r="H62">
-        <v>0.12937062937062899</v>
+        <v>0.359955257270693</v>
       </c>
       <c r="I62">
-        <v>0.117511094674556</v>
+        <v>0.213146314631463</v>
       </c>
       <c r="J62">
-        <v>0.18127233738384499</v>
+        <v>0.17000290107339699</v>
       </c>
       <c r="K62">
-        <v>0.28457214241099299</v>
+        <v>0.141356542617046</v>
       </c>
       <c r="L62">
-        <v>0.220179738562091</v>
+        <v>0.33185427370387599</v>
       </c>
       <c r="M62">
-        <v>1.78</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A63" s="2" t="s">
-        <v>124</v>
+        <v>68</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>125</v>
+        <v>69</v>
       </c>
       <c r="C63" s="5">
-        <v>44302</v>
+        <v>44298</v>
       </c>
       <c r="D63" s="3">
-        <v>676295.50067600003</v>
+        <v>644662.72779999999</v>
       </c>
       <c r="E63" s="4">
-        <v>0.60259527802735358</v>
+        <v>0.52680371944359483</v>
       </c>
       <c r="F63">
-        <v>-0.122645290581162</v>
+        <v>2.96186597556467E-3</v>
       </c>
       <c r="G63">
-        <v>-8.7766990291262198E-2</v>
+        <v>3.1120705162799099E-2</v>
       </c>
       <c r="H63">
-        <v>-0.143265306122449</v>
+        <v>2.0371044016005702E-2</v>
       </c>
       <c r="I63">
-        <v>-0.19752030782385599</v>
+        <v>-1.9110690633869401E-2</v>
       </c>
       <c r="J63">
-        <v>-0.14983579638752001</v>
+        <v>-8.6982845610494505E-2</v>
       </c>
       <c r="K63">
-        <v>-1.11913357400722E-2</v>
+        <v>-0.15554602016734601</v>
       </c>
       <c r="L63">
-        <v>9.3527508090614705E-2</v>
+        <v>-0.26669802445907798</v>
       </c>
       <c r="M63">
-        <v>0.05</v>
+        <v>1.66</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A64" s="2" t="s">
-        <v>126</v>
+        <v>324</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>127</v>
+        <v>325</v>
       </c>
       <c r="C64" s="5">
-        <v>44302</v>
+        <v>44316</v>
       </c>
       <c r="D64" s="3">
-        <v>5618.343304</v>
+        <v>1063.78944</v>
       </c>
       <c r="E64" s="4">
-        <v>1.1641629032258117E-2</v>
+        <v>4.7750710055348118E-3</v>
       </c>
       <c r="F64">
-        <v>0.13855688357680301</v>
+        <v>-9.0090090090089708E-3</v>
       </c>
       <c r="G64">
-        <v>1.8163471241170501E-2</v>
+        <v>-2.09662716499542E-2</v>
       </c>
       <c r="H64">
-        <v>-4.6236559139784902E-2</v>
+        <v>-3.1307550644567202E-2</v>
       </c>
       <c r="I64">
-        <v>-4.0363539160652301E-2</v>
+        <v>-2.00364298724953E-2</v>
       </c>
       <c r="J64">
-        <v>7.7021822849810296E-4</v>
+        <v>-3.5842293906809199E-3</v>
       </c>
       <c r="K64">
-        <v>-4.39914163090128E-2</v>
+        <v>5.0042408821034702E-2</v>
       </c>
       <c r="L64">
-        <v>-6.6301369863013701E-2</v>
+        <v>-1.1743450767840899E-2</v>
       </c>
       <c r="M64">
-        <v>0.29299999999999998</v>
+        <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A65" s="2" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>129</v>
+        <v>105</v>
       </c>
       <c r="C65" s="5">
-        <v>44302</v>
+        <v>44301</v>
       </c>
       <c r="D65" s="3">
-        <v>1251.5471999999997</v>
+        <v>3358.4752949999997</v>
       </c>
       <c r="E65" s="4">
-        <v>2.0778384970158471E-3</v>
+        <v>1.4681797267495256E-3</v>
       </c>
       <c r="F65">
-        <v>1.8889202142655801E-2</v>
+        <v>5.26501766784453E-2</v>
       </c>
       <c r="G65">
-        <v>2.32949761436992E-2</v>
+        <v>3.7342908438061102E-2</v>
       </c>
       <c r="H65">
-        <v>-7.6399628827714103E-2</v>
+        <v>4.3524794862647202E-2</v>
       </c>
       <c r="I65">
-        <v>-0.13133940182054599</v>
+        <v>4.3524794862647202E-2</v>
       </c>
       <c r="J65">
-        <v>-0.13244386592905899</v>
+        <v>-5.2197802197802103E-2</v>
       </c>
       <c r="K65">
-        <v>-5.75043128234503E-4</v>
+        <v>-6.6428003182179701E-2</v>
       </c>
       <c r="L65">
-        <v>8.6614173228346497E-2</v>
+        <v>7.5517241379310304E-2</v>
       </c>
       <c r="M65">
-        <v>0.46</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A66" s="2" t="s">
-        <v>130</v>
+        <v>258</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>131</v>
+        <v>259</v>
       </c>
       <c r="C66" s="5">
-        <v>44302</v>
+        <v>44314</v>
       </c>
       <c r="D66" s="3">
-        <v>2570.1260000000002</v>
+        <v>14130.02448</v>
       </c>
       <c r="E66" s="4">
-        <v>8.955142857142882E-3</v>
+        <v>3.6989870589730243E-3</v>
       </c>
       <c r="F66">
-        <v>3.7558685446009397E-2</v>
+        <v>3.8919667590027698E-2</v>
       </c>
       <c r="G66">
-        <v>8.6452762923351203E-2</v>
+        <v>-5.5361216730038E-2</v>
       </c>
       <c r="H66">
-        <v>8.6859688195991006E-2</v>
+        <v>-1.15160349854228E-2</v>
       </c>
       <c r="I66">
-        <v>0.106169609766732</v>
+        <v>1.6929942622369999E-2</v>
       </c>
       <c r="J66">
-        <v>0.19164037854889501</v>
+        <v>5.2049180327868802E-2</v>
       </c>
       <c r="K66">
-        <v>0.31700816258537401</v>
+        <v>0.16402626347810301</v>
       </c>
       <c r="L66">
-        <v>0.35341428796719698</v>
+        <v>0.38636363636363602</v>
       </c>
       <c r="M66">
-        <v>0.49</v>
+        <v>3.2120000000000002</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A67" s="2" t="s">
-        <v>132</v>
+        <v>322</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>133</v>
+        <v>323</v>
       </c>
       <c r="C67" s="5">
-        <v>44302</v>
+        <v>44316</v>
       </c>
       <c r="D67" s="3">
-        <v>1747.2655200000002</v>
+        <v>806.12505999999996</v>
       </c>
       <c r="E67" s="4">
-        <v>3.7917177905671907E-3</v>
+        <v>1.5473877251281464E-4</v>
       </c>
       <c r="F67">
-        <v>-1.6871535309713199E-3</v>
+        <v>4.9528104902697698E-2</v>
       </c>
       <c r="G67">
-        <v>-0.60711523588553695</v>
+        <v>2.0063721691208101E-2</v>
       </c>
       <c r="H67">
-        <v>-0.82280701754385899</v>
+        <v>8.1961923201032502E-2</v>
       </c>
       <c r="I67">
-        <v>-0.81484716157205195</v>
+        <v>9.8320716958149208E-3</v>
       </c>
       <c r="J67">
-        <v>-0.82200789127575602</v>
+        <v>9.9042039426807102E-2</v>
       </c>
       <c r="K67">
-        <v>-0.93662628145386695</v>
+        <v>0.111354052787755</v>
       </c>
       <c r="L67">
-        <v>-0.67648245260185502</v>
+        <v>-1.1915347679174799E-2</v>
       </c>
       <c r="M67">
-        <v>0.64</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A68" s="2" t="s">
-        <v>134</v>
+        <v>14</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>135</v>
+        <v>15</v>
       </c>
       <c r="C68" s="5">
-        <v>44302</v>
+        <v>44292</v>
       </c>
       <c r="D68" s="3">
-        <v>59264</v>
+        <v>4983.3126579999998</v>
       </c>
       <c r="E68" s="4">
-        <v>0.25</v>
+        <v>8.1033719355215802E-3</v>
       </c>
       <c r="F68">
-        <v>0.317109144542772</v>
+        <v>6.9745069745069693E-2</v>
       </c>
       <c r="G68">
-        <v>0.435537945748247</v>
+        <v>6.9297401347449494E-2</v>
       </c>
       <c r="H68">
-        <v>0.31126812941613902</v>
+        <v>7.3754789272030594E-2</v>
       </c>
       <c r="I68">
-        <v>0.30113207547169801</v>
+        <v>3.5892323030907197E-2</v>
       </c>
       <c r="J68">
-        <v>0.32111436950146599</v>
+        <v>-3.5331905781584502E-2</v>
       </c>
       <c r="K68">
-        <v>0.26942800788954602</v>
+        <v>-7.2062084257206199E-2</v>
       </c>
       <c r="L68">
-        <v>0.28823981552651801</v>
+        <v>-0.119861030689056</v>
       </c>
       <c r="M68">
-        <v>0.43</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A69" s="2" t="s">
-        <v>136</v>
+        <v>320</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>137</v>
+        <v>321</v>
       </c>
       <c r="C69" s="5">
-        <v>44305</v>
+        <v>44316</v>
       </c>
       <c r="D69" s="3">
-        <v>259107.20000000001</v>
+        <v>2603.6928899999998</v>
       </c>
       <c r="E69" s="4">
-        <v>0.13566084788029925</v>
+        <v>6.3022595323701579E-4</v>
       </c>
       <c r="F69">
-        <v>-2.2761434399828199E-2</v>
+        <v>-5.8566372909582901E-2</v>
       </c>
       <c r="G69">
-        <v>2.11672831894778E-2</v>
+        <v>-7.847295864263E-2</v>
       </c>
       <c r="H69">
-        <v>1.3054289266473101E-2</v>
+        <v>3.52733686067014E-3</v>
       </c>
       <c r="I69">
-        <v>9.4486692015209095E-2</v>
+        <v>9.0882002383790197E-2</v>
       </c>
       <c r="J69">
-        <v>7.4786324786324604E-2</v>
+        <v>7.0667072799268899E-2</v>
       </c>
       <c r="K69">
-        <v>0.21142384105960199</v>
+        <v>0.171059066456555</v>
       </c>
       <c r="L69">
-        <v>8.92925430210324E-2</v>
+        <v>0.23187311178247699</v>
       </c>
       <c r="M69">
-        <v>1.9020999999999999</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A70" s="2" t="s">
-        <v>138</v>
+        <v>112</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>139</v>
+        <v>113</v>
       </c>
       <c r="C70" s="5">
-        <v>44305</v>
+        <v>44301</v>
       </c>
       <c r="D70" s="3">
-        <v>99368.107019999996</v>
+        <v>10352.9647</v>
       </c>
       <c r="E70" s="4">
-        <v>0.23712426058631919</v>
+        <v>3.3332575757575748E-2</v>
       </c>
       <c r="F70">
-        <v>-0.19318181818181801</v>
+        <v>-2.9838022165388002E-3</v>
       </c>
       <c r="G70">
-        <v>-0.41891891891891903</v>
+        <v>-4.1150442477875998E-2</v>
       </c>
       <c r="H70">
-        <v>-0.46459227467811098</v>
+        <v>-4.0689960194604198E-2</v>
       </c>
       <c r="I70">
-        <v>-0.41450777202072497</v>
+        <v>-4.0689960194604198E-2</v>
       </c>
       <c r="J70">
-        <v>-0.43684210526315698</v>
+        <v>-3.2017543859649097E-2</v>
       </c>
       <c r="K70">
-        <v>-0.58077591198610301</v>
+        <v>2.48653128885204E-2</v>
       </c>
       <c r="L70">
-        <v>-0.68310727496917401</v>
+        <v>-9.0051457975986599E-3</v>
       </c>
       <c r="M70">
-        <v>-0.08</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A71" s="2" t="s">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>141</v>
+        <v>161</v>
       </c>
       <c r="C71" s="5">
-        <v>44305</v>
+        <v>44306</v>
       </c>
       <c r="D71" s="3">
-        <v>153603.32089999999</v>
+        <v>471441.96922200004</v>
       </c>
       <c r="E71" s="4">
-        <v>8.682623790423058E-2</v>
+        <v>5.5897085309623125E-2</v>
       </c>
       <c r="F71">
-        <v>-1.31229495391343E-2</v>
+        <v>-3.6679536679536703E-2</v>
       </c>
       <c r="G71">
-        <v>-6.0680405626430997E-2</v>
+        <v>-5.0880626223091897E-2</v>
       </c>
       <c r="H71">
-        <v>-5.9294348252204997E-2</v>
+        <v>-4.8828125E-2</v>
       </c>
       <c r="I71">
-        <v>-0.10854700854700799</v>
+        <v>-7.3999999999999996E-2</v>
       </c>
       <c r="J71">
-        <v>1.6933497536945701E-3</v>
+        <v>-5.50098231827112E-2</v>
       </c>
       <c r="K71">
-        <v>-0.49252013808975798</v>
+        <v>-0.27857142857142803</v>
       </c>
       <c r="L71">
-        <v>-0.29080414012738798</v>
+        <v>-0.34586466165413499</v>
       </c>
       <c r="M71">
-        <v>0.44</v>
+        <v>-0.32</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A72" s="2" t="s">
-        <v>142</v>
+        <v>244</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>143</v>
+        <v>245</v>
       </c>
       <c r="C72" s="5">
-        <v>44305</v>
+        <v>44313</v>
       </c>
       <c r="D72" s="3">
-        <v>79181.744615999996</v>
+        <v>79843.674899999998</v>
       </c>
       <c r="E72" s="4">
-        <v>0.31997540138143493</v>
+        <v>2.6155651142443048E-3</v>
       </c>
       <c r="F72">
-        <v>1.2830188679245199E-2</v>
+        <v>4.78612025127121E-3</v>
       </c>
       <c r="G72">
-        <v>2.7509293680297298E-2</v>
+        <v>-6.4980793854033395E-2</v>
       </c>
       <c r="H72">
-        <v>1.8018018018018001E-2</v>
+        <v>-8.3007812500000097E-2</v>
       </c>
       <c r="I72">
-        <v>-4.9942374183633799E-3</v>
+        <v>-4.8323769254002896E-3</v>
       </c>
       <c r="J72">
-        <v>-7.2131147540983598E-2</v>
+        <v>8.4731774415405706E-2</v>
       </c>
       <c r="K72">
-        <v>1.7280240420736299E-2</v>
+        <v>0.241795806745669</v>
       </c>
       <c r="L72">
-        <v>-3.8240917782032699E-4</v>
+        <v>0.38875620062465499</v>
       </c>
       <c r="M72">
-        <v>2.63E-2</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A73" s="2" t="s">
-        <v>144</v>
+        <v>184</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>145</v>
+        <v>185</v>
       </c>
       <c r="C73" s="5">
-        <v>44305</v>
+        <v>44308</v>
       </c>
       <c r="D73" s="3">
-        <v>19525.968852000002</v>
+        <v>340165.1715</v>
       </c>
       <c r="E73" s="4">
-        <v>4.1796053992271424E-2</v>
+        <v>0.24396503975033101</v>
       </c>
       <c r="F73">
-        <v>2.1069692058346801E-2</v>
+        <v>-2.3529411764705899E-2</v>
       </c>
       <c r="G73">
-        <v>3.9745627980922099E-2</v>
+        <v>-3.0139935414424199E-2</v>
       </c>
       <c r="H73">
-        <v>6.2111801242236003E-2</v>
+        <v>5.1975051975050798E-3</v>
       </c>
       <c r="I73">
-        <v>0.111764705882352</v>
+        <v>1.340206185567E-2</v>
       </c>
       <c r="J73">
-        <v>0.190348525469168</v>
+        <v>-4.9342105263158E-2</v>
       </c>
       <c r="K73">
-        <v>0.173734610123118</v>
+        <v>-0.10635838150289</v>
       </c>
       <c r="L73">
-        <v>-6.6666666666666697E-3</v>
+        <v>-8.2579185520362003E-2</v>
       </c>
       <c r="M73">
-        <v>9.2999999999999999E-2</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A74" s="2" t="s">
-        <v>146</v>
+        <v>120</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>147</v>
+        <v>121</v>
       </c>
       <c r="C74" s="5">
-        <v>44305</v>
+        <v>44301</v>
       </c>
       <c r="D74" s="3">
-        <v>4096.3325480000003</v>
+        <v>44528.744167999997</v>
       </c>
       <c r="E74" s="4">
-        <v>4.4083204426397064E-3</v>
+        <v>0.10000000020076918</v>
       </c>
       <c r="F74">
-        <v>-5.9382422802851196E-3</v>
+        <v>0.31807780320366102</v>
       </c>
       <c r="G74">
-        <v>1.76782557454316E-3</v>
+        <v>0.43667296786389398</v>
       </c>
       <c r="H74">
-        <v>-1.8641010222489599E-2</v>
+        <v>0.64982373678025795</v>
       </c>
       <c r="I74">
-        <v>1.5116279069767299E-2</v>
+        <v>0.64982373678025795</v>
       </c>
       <c r="J74">
-        <v>4.1855203619909402E-2</v>
+        <v>0.781844802342606</v>
       </c>
       <c r="K74">
-        <v>-3.4819792302993202E-2</v>
+        <v>0.73744493392070398</v>
       </c>
       <c r="L74">
-        <v>0.38578680203045601</v>
+        <v>0.68565400843881796</v>
       </c>
       <c r="M74">
-        <v>0.36109999999999998</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A75" s="2" t="s">
-        <v>148</v>
+        <v>64</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>149</v>
+        <v>65</v>
       </c>
       <c r="C75" s="5">
-        <v>44305</v>
+        <v>44298</v>
       </c>
       <c r="D75" s="3">
-        <v>567850.46383799997</v>
+        <v>13160.376990000001</v>
       </c>
       <c r="E75" s="4">
-        <v>4.1960530644241059E-2</v>
+        <v>7.7254522302563092E-2</v>
       </c>
       <c r="F75">
-        <v>2.7390438247011799E-2</v>
+        <v>3.5269709543568402E-2</v>
       </c>
       <c r="G75">
-        <v>-5.8823529411764698E-2</v>
+        <v>6.4102564102562704E-3</v>
       </c>
       <c r="H75">
-        <v>-6.6048034934497804E-2</v>
+        <v>8.8235294117646898E-2</v>
       </c>
       <c r="I75">
-        <v>-9.1366303436714202E-2</v>
+        <v>0.17406749555950199</v>
       </c>
       <c r="J75">
-        <v>-2.8165306659647199E-2</v>
+        <v>0.26540284360189498</v>
       </c>
       <c r="K75">
-        <v>-0.247126436781609</v>
+        <v>0.30075187969924799</v>
       </c>
       <c r="L75">
-        <v>-0.30722891566264998</v>
+        <v>0.36038514442915998</v>
       </c>
       <c r="M75">
-        <v>0.73229999999999995</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A76" s="2" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C76" s="5">
         <v>44305</v>
       </c>
       <c r="D76" s="3">
-        <v>104776.297228</v>
+        <v>4096.3325480000003</v>
       </c>
       <c r="E76" s="4">
-        <v>0.20349653749999999</v>
+        <v>4.4083204426397064E-3</v>
       </c>
       <c r="F76">
-        <v>-0.48363301060396402</v>
+        <v>-5.9382422802851196E-3</v>
       </c>
       <c r="G76">
-        <v>-0.68481675392670105</v>
+        <v>1.76782557454316E-3</v>
       </c>
       <c r="H76">
-        <v>-0.70264550264550196</v>
+        <v>-1.8641010222489599E-2</v>
       </c>
       <c r="I76">
-        <v>-0.57359413202933895</v>
+        <v>1.5116279069767299E-2</v>
       </c>
       <c r="J76">
-        <v>-0.65025641025641001</v>
+        <v>4.1855203619909402E-2</v>
       </c>
       <c r="K76">
-        <v>-0.58756783423778902</v>
+        <v>-3.4819792302993202E-2</v>
       </c>
       <c r="L76">
-        <v>-0.49674418604651099</v>
+        <v>0.38578680203045601</v>
       </c>
       <c r="M76">
-        <v>0.23</v>
+        <v>0.36109999999999998</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A77" s="2" t="s">
-        <v>152</v>
+        <v>8</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>153</v>
+        <v>9</v>
       </c>
       <c r="C77" s="5">
-        <v>44305</v>
+        <v>44288</v>
       </c>
       <c r="D77" s="3">
-        <v>240830.37720000002</v>
+        <v>44215.142400000004</v>
       </c>
       <c r="E77" s="4">
-        <v>0.4482502162655298</v>
+        <v>0.16666468537804405</v>
       </c>
       <c r="F77">
-        <v>5.4919908466819101E-2</v>
+        <v>-1.14942528735633E-2</v>
       </c>
       <c r="G77">
-        <v>1.27490039840637E-2</v>
+        <v>-1.53846153846153E-2</v>
       </c>
       <c r="H77">
-        <v>8.0064051240992494E-3</v>
+        <v>1.4925373134328301E-2</v>
       </c>
       <c r="I77">
-        <v>2.9757243539545699E-2</v>
+        <v>-7.63358778625954E-3</v>
       </c>
       <c r="J77">
-        <v>4.9117421335379802E-2</v>
+        <v>-3.5294117647058899E-2</v>
       </c>
       <c r="K77">
-        <v>0.45942408376963301</v>
+        <v>-2.3255813953488299E-2</v>
       </c>
       <c r="L77">
-        <v>0.55254604550379105</v>
+        <v>-8.6419753086419707E-2</v>
       </c>
       <c r="M77">
-        <v>0.6</v>
+        <v>3.5799999999999998E-2</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A78" s="2" t="s">
-        <v>154</v>
+        <v>62</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>155</v>
+        <v>63</v>
       </c>
       <c r="C78" s="5">
-        <v>44306</v>
+        <v>44298</v>
       </c>
       <c r="D78" s="3">
-        <v>947543.33917799999</v>
+        <v>59193.341358000005</v>
       </c>
       <c r="E78" s="4">
-        <v>4.9342033234854622E-2</v>
+        <v>0.10223550564220198</v>
       </c>
       <c r="F78">
-        <v>2.1670103092783399E-2</v>
+        <v>-7.97266514806379E-2</v>
       </c>
       <c r="G78">
-        <v>4.6442926045016097E-2</v>
+        <v>-1.28205128205129E-2</v>
       </c>
       <c r="H78">
-        <v>7.5714793666729497E-3</v>
+        <v>-4.2372881355933097E-3</v>
       </c>
       <c r="I78">
-        <v>-1.3867521367521301E-2</v>
+        <v>3.0674846625766701E-2</v>
       </c>
       <c r="J78">
-        <v>6.2476536721266102E-2</v>
+        <v>2.6694045174537901E-2</v>
       </c>
       <c r="K78">
-        <v>-0.198509724677949</v>
+        <v>0.22801302931595999</v>
       </c>
       <c r="L78">
-        <v>-0.151954357853848</v>
+        <v>0.16402116402116301</v>
       </c>
       <c r="M78">
-        <v>4.75</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A79" s="2" t="s">
-        <v>156</v>
+        <v>60</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>157</v>
+        <v>61</v>
       </c>
       <c r="C79" s="5">
-        <v>44306</v>
+        <v>44298</v>
       </c>
       <c r="D79" s="3">
-        <v>36088.801202999995</v>
+        <v>20771.891072999999</v>
       </c>
       <c r="E79" s="4">
-        <v>0.10835424999043539</v>
+        <v>3.19326942528248E-2</v>
       </c>
       <c r="F79">
-        <v>-3.61445783132529E-3</v>
+        <v>1.20320855614974E-2</v>
       </c>
       <c r="G79">
-        <v>-4.73595976529756E-2</v>
+        <v>2.3778071334214002E-2</v>
       </c>
       <c r="H79">
-        <v>-8.7467362924281894E-2</v>
+        <v>4.8906048906048799E-2</v>
       </c>
       <c r="I79">
-        <v>-9.4612352168199701E-2</v>
+        <v>7.0440251572327098E-2</v>
       </c>
       <c r="J79">
-        <v>-0.85111111111111104</v>
-      </c>
-      <c r="K79">
-        <v>-0.76983002832861103</v>
+        <v>4.0259740259740301E-2</v>
       </c>
       <c r="L79">
-        <v>-0.59273422562141398</v>
+        <v>-1.7906336088154201E-2</v>
       </c>
       <c r="M79">
-        <v>0.18</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A80" s="2" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="C80" s="5">
-        <v>44306</v>
+        <v>44305</v>
       </c>
       <c r="D80" s="3">
-        <v>59896.799999999996</v>
+        <v>19525.968852000002</v>
       </c>
       <c r="E80" s="4">
-        <v>0.1061628430049483</v>
+        <v>4.1796053992271424E-2</v>
       </c>
       <c r="F80">
-        <v>6.2084257206208499E-2</v>
+        <v>2.1069692058346801E-2</v>
       </c>
       <c r="G80">
-        <v>7.6419213973799097E-2</v>
+        <v>3.9745627980922099E-2</v>
       </c>
       <c r="H80">
-        <v>7.86321062949248E-2</v>
+        <v>6.2111801242236003E-2</v>
       </c>
       <c r="I80">
-        <v>9.94251649989355E-2</v>
+        <v>0.111764705882352</v>
       </c>
       <c r="J80">
-        <v>6.8076668869795104E-2</v>
+        <v>0.190348525469168</v>
       </c>
       <c r="K80">
-        <v>-0.46063535911602099</v>
+        <v>0.173734610123118</v>
       </c>
       <c r="L80">
-        <v>-0.46620450606585701</v>
+        <v>-6.6666666666666697E-3</v>
       </c>
       <c r="M80">
-        <v>0.35</v>
+        <v>9.2999999999999999E-2</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A81" s="2" t="s">
-        <v>160</v>
+        <v>114</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>161</v>
+        <v>115</v>
       </c>
       <c r="C81" s="5">
-        <v>44306</v>
+        <v>44301</v>
       </c>
       <c r="D81" s="3">
-        <v>471441.96922200004</v>
+        <v>3519.7776960000001</v>
       </c>
       <c r="E81" s="4">
-        <v>5.5897085309623125E-2</v>
+        <v>9.2603746693386314E-3</v>
       </c>
       <c r="F81">
-        <v>-3.6679536679536703E-2</v>
+        <v>8.3565459610027305E-3</v>
       </c>
       <c r="G81">
-        <v>-5.0880626223091897E-2</v>
+        <v>-2.8169014084507599E-3</v>
       </c>
       <c r="H81">
-        <v>-4.8828125E-2</v>
+        <v>1.3850415512465301E-2</v>
       </c>
       <c r="I81">
-        <v>-7.3999999999999996E-2</v>
+        <v>1.3850415512465301E-2</v>
       </c>
       <c r="J81">
-        <v>-5.50098231827112E-2</v>
+        <v>3.3921302578018897E-2</v>
       </c>
       <c r="K81">
-        <v>-0.27857142857142803</v>
+        <v>2.0632737276478599E-2</v>
       </c>
       <c r="L81">
-        <v>-0.34586466165413499</v>
+        <v>-0.19063545150501601</v>
       </c>
       <c r="M81">
-        <v>-0.32</v>
+        <v>0.3745</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A82" s="2" t="s">
-        <v>162</v>
+        <v>220</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>163</v>
+        <v>221</v>
       </c>
       <c r="C82" s="5">
-        <v>44306</v>
+        <v>44312</v>
       </c>
       <c r="D82" s="3">
-        <v>201174.905</v>
+        <v>139766.69981799999</v>
       </c>
       <c r="E82" s="4">
-        <v>0.25000146484088898</v>
+        <v>8.255468830979254E-2</v>
       </c>
       <c r="F82">
-        <v>0.181991672449687</v>
+        <v>1.14107883817428E-2</v>
       </c>
       <c r="G82">
-        <v>1.2565445026178E-2</v>
+        <v>-3.1578947368420302E-3</v>
       </c>
       <c r="H82">
-        <v>2.1378165213781601E-2</v>
-      </c>
-      <c r="I82">
-        <v>9.67432950191571E-2</v>
+        <v>-4.7252747252747203E-2</v>
       </c>
       <c r="J82">
-        <v>0.30559646539027902</v>
+        <v>-8.4656084656084696E-3</v>
       </c>
       <c r="K82">
-        <v>0.53959574260326104</v>
+        <v>-9.1013165426445303E-2</v>
       </c>
       <c r="L82">
-        <v>0.62484086569064201</v>
+        <v>-0.181649101053936</v>
       </c>
       <c r="M82">
-        <v>1.44</v>
+        <v>0.96099999999999997</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A83" s="2" t="s">
-        <v>164</v>
+        <v>16</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>165</v>
+        <v>17</v>
       </c>
       <c r="C83" s="5">
-        <v>44306</v>
+        <v>44292</v>
       </c>
       <c r="D83" s="3">
-        <v>1459354.7464910001</v>
+        <v>44377.066681999997</v>
       </c>
       <c r="E83" s="4">
-        <v>0.24587873327796281</v>
+        <v>2.291793910358109E-2</v>
       </c>
       <c r="F83">
-        <v>1.84577522559474E-2</v>
+        <v>-7.7383924113829106E-2</v>
       </c>
       <c r="G83">
-        <v>2.7235772357723599E-2</v>
+        <v>5.4752518615856297E-2</v>
       </c>
       <c r="H83">
-        <v>1.66875260742591E-3</v>
+        <v>0.150059078377314</v>
       </c>
       <c r="I83">
-        <v>-9.8714416896235002E-2</v>
+        <v>0.10045852438515999</v>
       </c>
       <c r="J83">
-        <v>-8.7233075874602301E-2</v>
+        <v>-1.3621418506340899E-2</v>
       </c>
       <c r="K83">
-        <v>0.19751844399731699</v>
+        <v>0.270453008789722</v>
       </c>
       <c r="L83">
-        <v>0.11304670126019201</v>
+        <v>0.15736040609137</v>
       </c>
       <c r="M83">
-        <v>4.2000000000000003E-2</v>
+        <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A84" s="2" t="s">
-        <v>166</v>
+        <v>192</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>167</v>
+        <v>193</v>
       </c>
       <c r="C84" s="5">
-        <v>44306</v>
+        <v>44309</v>
       </c>
       <c r="D84" s="3">
-        <v>77809.667715999996</v>
+        <v>151800</v>
       </c>
       <c r="E84" s="4">
-        <v>0.20316529729729729</v>
+        <v>0.14904059965245253</v>
       </c>
       <c r="F84">
-        <v>-0.17544855780149901</v>
+        <v>-0.131991051454138</v>
       </c>
       <c r="G84">
-        <v>-0.32705128205128198</v>
+        <v>-0.12195121951219499</v>
       </c>
       <c r="H84">
-        <v>-0.35519769573186699</v>
+        <v>-0.15525114155251099</v>
       </c>
       <c r="I84">
-        <v>-0.28106435643564298</v>
+        <v>-0.213429256594724</v>
       </c>
       <c r="J84">
-        <v>-0.27491070328858203</v>
+        <v>-0.19621749408983399</v>
       </c>
       <c r="K84">
-        <v>-0.18364779874213799</v>
+        <v>-0.28101265822784699</v>
       </c>
       <c r="L84">
-        <v>0.353829827080342</v>
+        <v>-0.23716381418092899</v>
       </c>
       <c r="M84">
-        <v>0.31</v>
+        <v>0.1641</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A85" s="2" t="s">
-        <v>168</v>
+        <v>58</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>169</v>
+        <v>59</v>
       </c>
       <c r="C85" s="5">
-        <v>44307</v>
+        <v>44298</v>
       </c>
       <c r="D85" s="3">
-        <v>83769.48</v>
+        <v>13254.048210000001</v>
       </c>
       <c r="E85" s="4">
-        <v>0.25005377816141755</v>
+        <v>1.612881052829607E-2</v>
       </c>
       <c r="F85">
-        <v>0.16519546027742699</v>
+        <v>1.9624573378839601E-2</v>
       </c>
       <c r="G85">
-        <v>0.117137141587019</v>
+        <v>7.0388349514563006E-2</v>
       </c>
       <c r="H85">
-        <v>6.5411764705882294E-2</v>
+        <v>1.7108639863130801E-2</v>
       </c>
       <c r="I85">
-        <v>0.17661691542288499</v>
+        <v>-1.9520851818988501E-2</v>
       </c>
       <c r="J85">
-        <v>0.100339750849377</v>
+        <v>-4.0760869565217399E-2</v>
       </c>
       <c r="K85">
-        <v>0.136709410997609</v>
+        <v>6.5853658536585397E-2</v>
       </c>
       <c r="L85">
-        <v>0.33018549747048898</v>
+        <v>-2.61780104712036E-3</v>
       </c>
       <c r="M85">
-        <v>1.0900000000000001</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A86" s="2" t="s">
-        <v>170</v>
+        <v>334</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>171</v>
+        <v>335</v>
       </c>
       <c r="C86" s="5">
-        <v>44307</v>
+        <v>44316</v>
       </c>
       <c r="D86" s="3">
-        <v>78041.304439</v>
+        <v>74711.057819999987</v>
       </c>
       <c r="E86" s="4">
-        <v>0.2035469103325114</v>
+        <v>0.2556512800420771</v>
       </c>
       <c r="F86">
-        <v>-6.7133229652669796E-2</v>
+        <v>4.82573726541555E-2</v>
       </c>
       <c r="G86">
-        <v>0.18796844181459499</v>
+        <v>0.12669126691266899</v>
       </c>
       <c r="H86">
-        <v>0.251318421531187</v>
+        <v>0.15476190476190399</v>
       </c>
       <c r="I86">
-        <v>0.28062205137165802</v>
+        <v>0.124537607891491</v>
       </c>
       <c r="J86">
-        <v>0.325081967213114</v>
+        <v>9.3231162196679498E-2</v>
       </c>
       <c r="K86">
-        <v>0.25524602026049198</v>
-      </c>
-      <c r="L86">
-        <v>0.30690235690235601</v>
+        <v>0.19683257918552</v>
       </c>
       <c r="M86">
-        <v>0.31490000000000001</v>
+        <v>1.5800000000000002E-2</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A87" s="2" t="s">
-        <v>172</v>
+        <v>44</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>173</v>
+        <v>45</v>
       </c>
       <c r="C87" s="5">
-        <v>44307</v>
+        <v>44295</v>
       </c>
       <c r="D87" s="3">
-        <v>66939</v>
+        <v>91500.853375000006</v>
       </c>
       <c r="E87" s="4">
-        <v>0.25078864353312302</v>
+        <v>7.0417953734981612E-3</v>
       </c>
       <c r="F87">
-        <v>0.31722348361984998</v>
+        <v>-1.2077294685990499E-2</v>
       </c>
       <c r="G87">
-        <v>0.23370950127411699</v>
-      </c>
-      <c r="H87">
-        <v>0.26088483146067398</v>
+        <v>9.4562647754137096E-3</v>
       </c>
       <c r="I87">
-        <v>0.31544715447154398</v>
+        <v>1.6431924882628901E-2</v>
       </c>
       <c r="J87">
-        <v>0.50423928403203</v>
+        <v>2.7842227378190001E-2</v>
       </c>
       <c r="K87">
-        <v>0.39891490576813199</v>
-      </c>
-      <c r="L87">
-        <v>0.24226061915046701</v>
+        <v>2.10280373831775E-2</v>
       </c>
       <c r="M87">
-        <v>0.49</v>
+        <v>0.13100000000000001</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A88" s="2" t="s">
-        <v>174</v>
+        <v>102</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>175</v>
+        <v>103</v>
       </c>
       <c r="C88" s="5">
-        <v>44307</v>
+        <v>44301</v>
       </c>
       <c r="D88" s="3">
-        <v>128270.27896800001</v>
+        <v>164512.68657600001</v>
       </c>
       <c r="E88" s="4">
-        <v>0.10139622380952382</v>
+        <v>4.2004407467408989E-3</v>
       </c>
       <c r="F88">
-        <v>-0.43565300285986602</v>
+        <v>4.7468354430379799E-2</v>
       </c>
       <c r="G88">
-        <v>-0.50750750750750695</v>
+        <v>8.4642676127724303E-2</v>
       </c>
       <c r="H88">
-        <v>-0.43223965763195399</v>
+        <v>8.0682107406464795E-2</v>
       </c>
       <c r="I88">
-        <v>-0.39897816999535501</v>
+        <v>8.0682107406464795E-2</v>
       </c>
       <c r="J88">
-        <v>-0.54066496163682798</v>
+        <v>8.5222236292262901E-2</v>
       </c>
       <c r="K88">
-        <v>-0.60042507970244396</v>
+        <v>0.21281464530892399</v>
       </c>
       <c r="L88">
-        <v>-0.68268156424580995</v>
+        <v>0.10238568588469101</v>
       </c>
       <c r="M88">
-        <v>0.32569999999999999</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A89" s="2" t="s">
-        <v>176</v>
+        <v>318</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>177</v>
+        <v>319</v>
       </c>
       <c r="C89" s="5">
-        <v>44307</v>
+        <v>44316</v>
       </c>
       <c r="D89" s="3">
-        <v>1412950</v>
+        <v>133499.48651000002</v>
       </c>
       <c r="E89" s="4">
-        <v>0.77906743152428604</v>
+        <v>0.2370834645868922</v>
       </c>
       <c r="F89">
-        <v>5.5514705882352799E-2</v>
+        <v>0.13953488372093001</v>
       </c>
       <c r="G89">
-        <v>7.1893063583814906E-2</v>
+        <v>0.23747622067216201</v>
       </c>
       <c r="H89">
-        <v>6.13810741687979E-2</v>
+        <v>0.14822029396139499</v>
       </c>
       <c r="I89">
-        <v>2.7262400605830999E-2</v>
+        <v>-6.8888888888888902E-2</v>
       </c>
       <c r="J89">
-        <v>2.0960365853658399E-2</v>
+        <v>-0.116009280742459</v>
       </c>
       <c r="K89">
-        <v>0.149900727994705</v>
+        <v>-0.23017902813299199</v>
       </c>
       <c r="L89">
-        <v>0.355494229804315</v>
+        <v>-0.15736284889316601</v>
       </c>
       <c r="M89">
-        <v>0.86</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A90" s="2" t="s">
-        <v>178</v>
+        <v>290</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>179</v>
+        <v>291</v>
       </c>
       <c r="C90" s="5">
-        <v>44307</v>
+        <v>44315</v>
       </c>
       <c r="D90" s="3">
-        <v>67019.399999999994</v>
+        <v>142191.45969600001</v>
       </c>
       <c r="E90" s="4">
-        <v>0.18</v>
+        <v>0.23709102145448926</v>
       </c>
       <c r="F90">
-        <v>-6.19946091644204E-2</v>
+        <v>-0.18088737201365099</v>
       </c>
       <c r="G90">
-        <v>-0.109859154929577</v>
+        <v>-0.32880354505169801</v>
       </c>
       <c r="H90">
-        <v>-0.114568599717114</v>
+        <v>-0.40826549780839</v>
       </c>
       <c r="I90">
-        <v>-0.106741573033707</v>
+        <v>-0.41803278688524498</v>
       </c>
       <c r="J90">
-        <v>-0.145348837209302</v>
+        <v>-0.40694401000938302</v>
       </c>
       <c r="K90">
-        <v>-0.190332326283987</v>
+        <v>-0.55425017277124999</v>
       </c>
       <c r="L90">
-        <v>-0.285481239804241</v>
+        <v>-0.76877703499803296</v>
       </c>
       <c r="M90">
-        <v>0.14000000000000001</v>
+        <v>0.27179999999999999</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A91" s="2" t="s">
-        <v>180</v>
+        <v>232</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>181</v>
+        <v>233</v>
       </c>
       <c r="C91" s="5">
-        <v>44307</v>
+        <v>44313</v>
       </c>
       <c r="D91" s="3">
-        <v>66148.105249999993</v>
+        <v>119710.35327999998</v>
       </c>
       <c r="E91" s="4">
-        <v>0.25394563837504536</v>
+        <v>0.23711353276619357</v>
       </c>
       <c r="F91">
-        <v>-0.11678486997635899</v>
+        <v>7.0043939002326194E-2</v>
       </c>
       <c r="G91">
-        <v>-0.14604560892770499</v>
+        <v>-2.6240730176839502E-2</v>
       </c>
       <c r="H91">
-        <v>-0.115203021718602</v>
+        <v>-4.7757716948165198E-2</v>
       </c>
       <c r="I91">
-        <v>-0.14939172749391699</v>
+        <v>-4.6234370456527903E-2</v>
       </c>
       <c r="J91">
-        <v>-0.15784313725490201</v>
+        <v>0.13509615384615301</v>
       </c>
       <c r="K91">
-        <v>-8.1006864988558303E-2</v>
+        <v>0.27780008028904002</v>
       </c>
       <c r="L91">
-        <v>-0.16412025628388299</v>
+        <v>0.410453875143372</v>
       </c>
       <c r="M91">
-        <v>0.28000000000000003</v>
+        <v>1.0900000000000001</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A92" s="2" t="s">
-        <v>182</v>
+        <v>228</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>183</v>
+        <v>229</v>
       </c>
       <c r="C92" s="5">
-        <v>44308</v>
+        <v>44313</v>
       </c>
       <c r="D92" s="3">
-        <v>2987.25</v>
+        <v>477805.29927000002</v>
       </c>
       <c r="E92" s="4">
-        <v>3.6888975152422177E-4</v>
+        <v>0.23711947561048777</v>
       </c>
       <c r="F92">
-        <v>0.12805843591970101</v>
+        <v>0.13457408732999199</v>
       </c>
       <c r="G92">
-        <v>0.11659680173886</v>
+        <v>3.0317613089509102E-2</v>
       </c>
       <c r="H92">
-        <v>4.07417813992694E-2</v>
+        <v>3.3341328855840603E-2</v>
       </c>
       <c r="I92">
-        <v>-4.05858478913003E-3</v>
+        <v>3.9332538736590997E-2</v>
       </c>
       <c r="J92">
-        <v>-0.401477832512315</v>
+        <v>-4.4492440604751597E-2</v>
       </c>
       <c r="K92">
-        <v>-7.4395770392749194E-2</v>
+        <v>-0.12152133580705</v>
       </c>
       <c r="L92">
-        <v>7.2484242555966097E-2</v>
+        <v>-0.18960936731280101</v>
       </c>
       <c r="M92">
-        <v>1.19</v>
+        <v>15.039400000000001</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A93" s="2" t="s">
-        <v>184</v>
+        <v>224</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>185</v>
+        <v>225</v>
       </c>
       <c r="C93" s="5">
-        <v>44308</v>
+        <v>44312</v>
       </c>
       <c r="D93" s="3">
-        <v>340165.1715</v>
+        <v>769836.80999999994</v>
       </c>
       <c r="E93" s="4">
-        <v>0.24396503975033101</v>
+        <v>6.5967164524421584E-2</v>
       </c>
       <c r="F93">
-        <v>-2.3529411764705899E-2</v>
+        <v>1.5748031496062902E-2</v>
       </c>
       <c r="G93">
-        <v>-3.0139935414424199E-2</v>
+        <v>1.9607843137254902E-2</v>
       </c>
       <c r="H93">
-        <v>5.1975051975050798E-3</v>
+        <v>-0.21713729308665999</v>
       </c>
       <c r="I93">
-        <v>1.340206185567E-2</v>
+        <v>-0.126126126126126</v>
       </c>
       <c r="J93">
-        <v>-4.9342105263158E-2</v>
+        <v>-4.4277360066833603E-2</v>
       </c>
       <c r="K93">
-        <v>-0.10635838150289</v>
+        <v>-4.0160642570281598E-3</v>
       </c>
       <c r="L93">
-        <v>-8.2579185520362003E-2</v>
+        <v>-7.2731173567903901E-2</v>
       </c>
       <c r="M93">
-        <v>0.25</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A94" s="2" t="s">
-        <v>186</v>
+        <v>212</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>187</v>
+        <v>213</v>
       </c>
       <c r="C94" s="5">
-        <v>44308</v>
+        <v>44312</v>
       </c>
       <c r="D94" s="3">
-        <v>8249.0852999999988</v>
+        <v>120432.704508</v>
       </c>
       <c r="E94" s="4">
-        <v>1.0254449929404252E-2</v>
+        <v>9.4403944706873549E-2</v>
       </c>
       <c r="F94">
-        <v>-3.8821693328131103E-2</v>
+        <v>-0.37494305239179898</v>
       </c>
       <c r="G94">
-        <v>-5.9701492537313397E-2</v>
+        <v>-0.38376891334250302</v>
       </c>
       <c r="H94">
-        <v>-7.55402948899212E-2</v>
+        <v>-0.42830099384761</v>
       </c>
       <c r="I94">
-        <v>-6.7562149157979007E-2</v>
+        <v>-0.49554013875123798</v>
       </c>
       <c r="J94">
-        <v>0.14119829046044599</v>
+        <v>-0.488165680473372</v>
       </c>
       <c r="K94">
-        <v>0.22786920901906699</v>
+        <v>-0.59682539682539604</v>
       </c>
       <c r="L94">
-        <v>0.20876671619613599</v>
+        <v>-0.82136391068195502</v>
       </c>
       <c r="M94">
-        <v>2.4182999999999999</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A95" s="2" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="C95" s="5">
-        <v>44308</v>
+        <v>44307</v>
       </c>
       <c r="D95" s="3">
-        <v>83559.254325000002</v>
+        <v>128270.27896800001</v>
       </c>
       <c r="E95" s="4">
-        <v>0.21948845370370371</v>
+        <v>0.10139622380952382</v>
       </c>
       <c r="F95">
-        <v>0.18327154772937801</v>
+        <v>-0.43565300285986602</v>
       </c>
       <c r="G95">
-        <v>0.19373284537968799</v>
+        <v>-0.50750750750750695</v>
       </c>
       <c r="H95">
-        <v>0.177554829678021</v>
+        <v>-0.43223965763195399</v>
       </c>
       <c r="I95">
-        <v>0.177554829678021</v>
+        <v>-0.39897816999535501</v>
       </c>
       <c r="J95">
-        <v>0.32921027592768698</v>
+        <v>-0.54066496163682798</v>
       </c>
       <c r="K95">
-        <v>0.29074446680080401</v>
+        <v>-0.60042507970244396</v>
       </c>
       <c r="L95">
-        <v>0.39948892674616698</v>
+        <v>-0.68268156424580995</v>
       </c>
       <c r="M95">
-        <v>0.69</v>
+        <v>0.32569999999999999</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A96" s="2" t="s">
-        <v>190</v>
+        <v>106</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>191</v>
+        <v>107</v>
       </c>
       <c r="C96" s="5">
-        <v>44309</v>
+        <v>44301</v>
       </c>
       <c r="D96" s="3">
-        <v>2182.0583839999999</v>
+        <v>372174.25689999998</v>
       </c>
       <c r="E96" s="4">
-        <v>1.0013116666666662E-2</v>
+        <v>0.2133779555922995</v>
       </c>
       <c r="F96">
-        <v>-4.9710982658959499E-2</v>
+        <v>0.141666666666666</v>
       </c>
       <c r="G96">
-        <v>-5.0925925925925798E-2</v>
+        <v>0.20093095422808299</v>
       </c>
       <c r="H96">
-        <v>-5.2753623188405797E-2</v>
+        <v>0.29931972789115602</v>
       </c>
       <c r="I96">
-        <v>-4.9104563835933E-2</v>
+        <v>0.29931972789115602</v>
       </c>
       <c r="J96">
-        <v>-5.45876887340302E-2</v>
+        <v>0.34603174603174602</v>
       </c>
       <c r="K96">
-        <v>4.0676175382989899E-2</v>
+        <v>0.36167575607337599</v>
       </c>
       <c r="L96">
-        <v>8.0506329113923997E-2</v>
+        <v>0.29731204802838002</v>
       </c>
       <c r="M96">
-        <v>0.36</v>
+        <v>0.96899999999999997</v>
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A97" s="2" t="s">
-        <v>192</v>
+        <v>138</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>193</v>
+        <v>139</v>
       </c>
       <c r="C97" s="5">
-        <v>44309</v>
+        <v>44305</v>
       </c>
       <c r="D97" s="3">
-        <v>151800</v>
+        <v>99368.107019999996</v>
       </c>
       <c r="E97" s="4">
-        <v>0.14904059965245253</v>
+        <v>0.23712426058631919</v>
       </c>
       <c r="F97">
-        <v>-0.131991051454138</v>
+        <v>-0.19318181818181801</v>
       </c>
       <c r="G97">
-        <v>-0.12195121951219499</v>
+        <v>-0.41891891891891903</v>
       </c>
       <c r="H97">
-        <v>-0.15525114155251099</v>
+        <v>-0.46459227467811098</v>
       </c>
       <c r="I97">
-        <v>-0.213429256594724</v>
+        <v>-0.41450777202072497</v>
       </c>
       <c r="J97">
-        <v>-0.19621749408983399</v>
+        <v>-0.43684210526315698</v>
       </c>
       <c r="K97">
-        <v>-0.28101265822784699</v>
+        <v>-0.58077591198610301</v>
       </c>
       <c r="L97">
-        <v>-0.23716381418092899</v>
+        <v>-0.68310727496917401</v>
       </c>
       <c r="M97">
-        <v>0.1641</v>
+        <v>-0.08</v>
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A98" s="2" t="s">
-        <v>194</v>
+        <v>108</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>195</v>
+        <v>109</v>
       </c>
       <c r="C98" s="5">
-        <v>44309</v>
+        <v>44301</v>
       </c>
       <c r="D98" s="3">
-        <v>2844.3369000000002</v>
+        <v>90137.150185999999</v>
       </c>
       <c r="E98" s="4">
-        <v>3.2292801580385343E-3</v>
+        <v>0.23708822619047618</v>
+      </c>
+      <c r="F98">
+        <v>-0.21797631862217401</v>
       </c>
       <c r="G98">
-        <v>-7.1123755334281304E-3</v>
+        <v>-0.22755627881746601</v>
       </c>
       <c r="H98">
-        <v>-3.2069970845481001E-2</v>
+        <v>-0.28799089356858198</v>
       </c>
       <c r="I98">
-        <v>-1.1428571428571401E-2</v>
+        <v>-0.28799089356858198</v>
       </c>
       <c r="J98">
-        <v>-1.41442715700138E-3</v>
+        <v>-0.22357393890240501</v>
       </c>
       <c r="K98">
-        <v>5.97609561752988E-2</v>
+        <v>-0.18699186991869901</v>
       </c>
       <c r="L98">
-        <v>0.24278074866310101</v>
+        <v>-0.29092983456930899</v>
       </c>
       <c r="M98">
-        <v>0.16289999999999999</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A99" s="2" t="s">
-        <v>196</v>
+        <v>110</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>197</v>
+        <v>111</v>
       </c>
       <c r="C99" s="5">
-        <v>44309</v>
+        <v>44301</v>
       </c>
       <c r="D99" s="3">
-        <v>27895.831548000002</v>
+        <v>190521.47528099999</v>
       </c>
       <c r="E99" s="4">
-        <v>7.2247867750854552E-2</v>
+        <v>0.211319127679133</v>
       </c>
       <c r="F99">
-        <v>-6.0594059405940599E-2</v>
+        <v>-0.117315573770491</v>
       </c>
       <c r="G99">
-        <v>-4.6093749999999899E-2</v>
+        <v>-0.13181110534509499</v>
       </c>
       <c r="H99">
-        <v>-7.3346693386773604E-2</v>
+        <v>-0.24557395773843499</v>
       </c>
       <c r="I99">
-        <v>-0.17973568281938301</v>
+        <v>-0.24557395773843499</v>
       </c>
       <c r="J99">
-        <v>-0.126156433978132</v>
+        <v>-0.21775544388609699</v>
       </c>
       <c r="K99">
-        <v>-2.2918258212375898E-2</v>
+        <v>-0.31385542168674602</v>
       </c>
       <c r="L99">
-        <v>6.06804629954402E-2</v>
+        <v>-0.37429111531190901</v>
       </c>
       <c r="M99">
-        <v>0.21</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A100" s="2" t="s">
-        <v>198</v>
+        <v>88</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>199</v>
+        <v>89</v>
       </c>
       <c r="C100" s="5">
-        <v>44309</v>
+        <v>44299</v>
       </c>
       <c r="D100" s="3">
-        <v>5177.833232</v>
+        <v>137962.25265499999</v>
       </c>
       <c r="E100" s="4">
-        <v>1.0859592840192533E-2</v>
+        <v>0.23773025396520645</v>
       </c>
       <c r="F100">
-        <v>3.6190476190476203E-2</v>
+        <v>-0.46682464454976202</v>
       </c>
       <c r="G100">
-        <v>3.4351145038168003E-2</v>
+        <v>-0.55919395465994903</v>
       </c>
       <c r="H100">
-        <v>4.70809792843691E-2</v>
+        <v>-0.60196687370600399</v>
       </c>
       <c r="I100">
-        <v>2.3166023166023099E-2</v>
+        <v>-0.70805739514348698</v>
       </c>
       <c r="J100">
-        <v>-5.4166666666666599E-2</v>
+        <v>-0.637566137566137</v>
       </c>
       <c r="K100">
-        <v>1.93798449612404E-2</v>
+        <v>-0.72519509476031196</v>
       </c>
       <c r="L100">
-        <v>3.9370078740158304E-3</v>
+        <v>-0.91285537700865205</v>
       </c>
       <c r="M100">
-        <v>0.217</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A101" s="2" t="s">
-        <v>200</v>
+        <v>46</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>201</v>
+        <v>47</v>
       </c>
       <c r="C101" s="5">
-        <v>44309</v>
+        <v>44295</v>
       </c>
       <c r="D101" s="3">
-        <v>75798.162284999999</v>
+        <v>156739.64829100002</v>
       </c>
       <c r="E101" s="4">
-        <v>8.4999028458660031E-2</v>
+        <v>0.23858192874554335</v>
       </c>
       <c r="F101">
-        <v>-8.0586080586080605E-2</v>
+        <v>-0.53860691144708395</v>
       </c>
       <c r="G101">
-        <v>-0.136071887034659</v>
+        <v>-0.58173744102137104</v>
       </c>
       <c r="H101">
-        <v>-9.8014888337468797E-2</v>
+        <v>-0.700178997613365</v>
       </c>
       <c r="I101">
-        <v>0.104251012145749</v>
+        <v>-5.1476014760147501E-2</v>
       </c>
       <c r="J101">
-        <v>9.3237704918032793E-2</v>
+        <v>1.5376641326883199E-2</v>
       </c>
       <c r="K101">
-        <v>0.27990235964198501</v>
+        <v>-3.3925979680696702E-2</v>
       </c>
       <c r="L101">
-        <v>0.28165584415584399</v>
+        <v>-0.23810558331522899</v>
       </c>
       <c r="M101">
-        <v>0.05</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A102" s="2" t="s">
-        <v>202</v>
+        <v>38</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>203</v>
+        <v>39</v>
       </c>
       <c r="C102" s="5">
-        <v>44309</v>
+        <v>44295</v>
       </c>
       <c r="D102" s="3">
-        <v>7488</v>
+        <v>142580.87935800001</v>
       </c>
       <c r="E102" s="4">
-        <v>4.1687190949838707E-2</v>
+        <v>0.23711315000000002</v>
       </c>
       <c r="F102">
-        <v>-0.13868613138686101</v>
+        <v>-0.42317523430843501</v>
       </c>
       <c r="G102">
-        <v>-0.42465753424657499</v>
+        <v>-0.41954674220963101</v>
       </c>
       <c r="H102">
-        <v>-0.38053097345132703</v>
+        <v>-0.62063389391979296</v>
       </c>
       <c r="I102">
-        <v>-0.14285714285714199</v>
+        <v>-0.60198209718670004</v>
       </c>
       <c r="J102">
-        <v>-0.39910313901345201</v>
+        <v>-0.251811141643767</v>
       </c>
       <c r="K102">
-        <v>-0.114285714285714</v>
+        <v>-0.56105919003115201</v>
       </c>
       <c r="L102">
-        <v>5.4545454545454397E-2</v>
+        <v>-0.56691682301438395</v>
       </c>
       <c r="M102">
-        <v>-0.2135</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A103" s="2" t="s">
-        <v>204</v>
+        <v>42</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>205</v>
+        <v>43</v>
       </c>
       <c r="C103" s="5">
-        <v>44309</v>
+        <v>44295</v>
       </c>
       <c r="D103" s="3">
-        <v>1512.2220709999999</v>
+        <v>217211.97517000002</v>
       </c>
       <c r="E103" s="4">
-        <v>3.7408195579460824E-3</v>
+        <v>0.23710856517065107</v>
       </c>
       <c r="F103">
-        <v>-8.0158730158730096E-2</v>
+        <v>8.5714285714284903E-3</v>
       </c>
       <c r="G103">
-        <v>-0.12201154163231601</v>
+        <v>-5.1196607088761101E-2</v>
       </c>
       <c r="H103">
-        <v>-0.11557377049180299</v>
+        <v>-0.31091802040045302</v>
       </c>
       <c r="I103">
-        <v>-0.110114192495921</v>
+        <v>-0.27059685097033997</v>
       </c>
       <c r="J103">
-        <v>-0.15436810856658101</v>
+        <v>-0.322408536585366</v>
       </c>
       <c r="K103">
-        <v>-0.25669436749769098</v>
+        <v>-0.37154150197628399</v>
       </c>
       <c r="L103">
-        <v>-0.42662473794549199</v>
+        <v>-0.494401378122308</v>
       </c>
       <c r="M103">
-        <v>0.16880000000000001</v>
+        <v>0.2286</v>
       </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A104" s="2" t="s">
-        <v>206</v>
+        <v>292</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>207</v>
+        <v>293</v>
       </c>
       <c r="C104" s="5">
-        <v>44312</v>
+        <v>44315</v>
       </c>
       <c r="D104" s="3">
-        <v>2223.8294000000001</v>
+        <v>3985.6184159999998</v>
       </c>
       <c r="E104" s="4">
-        <v>8.2651088707159197E-3</v>
+        <v>1.2879449914049062E-2</v>
       </c>
       <c r="F104">
-        <v>-2.8409090909090298E-3</v>
+        <v>-5.13043478260869E-2</v>
       </c>
       <c r="G104">
-        <v>-8.5714285714285094E-3</v>
+        <v>-5.359477124183E-2</v>
       </c>
       <c r="H104">
-        <v>1.3966480446927399E-2</v>
+        <v>-2.1546261089987199E-2</v>
       </c>
       <c r="I104">
-        <v>1.94444444444445E-2</v>
+        <v>-4.4492440604751597E-2</v>
       </c>
       <c r="J104">
-        <v>-1.43678160919539E-2</v>
+        <v>9.0163934426228994E-3</v>
       </c>
       <c r="K104">
-        <v>-2.31884057971013E-2</v>
+        <v>1.46699266503667E-2</v>
       </c>
       <c r="L104">
-        <v>-4.4378698224851999E-2</v>
+        <v>3.4730538922155697E-2</v>
       </c>
       <c r="M104">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A105" s="2" t="s">
-        <v>208</v>
+        <v>288</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>209</v>
+        <v>289</v>
       </c>
       <c r="C105" s="5">
-        <v>44312</v>
+        <v>44315</v>
       </c>
       <c r="D105" s="3">
-        <v>228369.56447000001</v>
+        <v>5066.362048</v>
       </c>
       <c r="E105" s="4">
-        <v>0.19281035759073903</v>
+        <v>1.2966733333333345E-2</v>
       </c>
       <c r="F105">
-        <v>-7.5450450450450401E-2</v>
+        <v>-3.2994923857868098E-2</v>
       </c>
       <c r="G105">
-        <v>-3.6916395222584102E-2</v>
+        <v>-2.71293375394322E-2</v>
       </c>
       <c r="H105">
-        <v>-6.4659977703455898E-2</v>
+        <v>-8.6741016109046203E-3</v>
       </c>
       <c r="I105">
-        <v>-7.3033707865168496E-2</v>
+        <v>-2.71293375394322E-2</v>
       </c>
       <c r="J105">
-        <v>-3.2432432432432497E-2</v>
+        <v>-1.3698630136986399E-2</v>
       </c>
       <c r="K105">
-        <v>0.14503133393017001</v>
+        <v>3.6719706242349199E-3</v>
       </c>
       <c r="L105">
-        <v>0.225466342254663</v>
+        <v>-0.12664359861591701</v>
       </c>
       <c r="M105">
-        <v>-0.02</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A106" s="2" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="C106" s="5">
-        <v>44312</v>
+        <v>44302</v>
       </c>
       <c r="D106" s="3">
-        <v>6423.1196579999996</v>
+        <v>5618.343304</v>
       </c>
       <c r="E106" s="4">
-        <v>3.7958110922555479E-3</v>
+        <v>1.1641629032258117E-2</v>
       </c>
       <c r="F106">
-        <v>-1.32309702711532E-2</v>
+        <v>0.13855688357680301</v>
       </c>
       <c r="G106">
-        <v>-1.48887434554974E-2</v>
+        <v>1.8163471241170501E-2</v>
       </c>
       <c r="H106">
-        <v>-6.4526536538149905E-4</v>
+        <v>-4.6236559139784902E-2</v>
       </c>
       <c r="I106">
-        <v>-1.6551950180268699E-2</v>
+        <v>-4.0363539160652301E-2</v>
       </c>
       <c r="J106">
-        <v>4.3779867427162E-2</v>
+        <v>7.7021822849810296E-4</v>
       </c>
       <c r="K106">
-        <v>-0.284265010351967</v>
+        <v>-4.39914163090128E-2</v>
       </c>
       <c r="L106">
-        <v>-0.29094693028095697</v>
+        <v>-6.6301369863013701E-2</v>
       </c>
       <c r="M106">
-        <v>0.44</v>
+        <v>0.29299999999999998</v>
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A107" s="2" t="s">
-        <v>210</v>
+        <v>284</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>211</v>
+        <v>285</v>
       </c>
       <c r="C107" s="5">
-        <v>44312</v>
+        <v>44315</v>
       </c>
       <c r="D107" s="3">
-        <v>10726.401024000001</v>
+        <v>207299.21910399999</v>
       </c>
       <c r="E107" s="4">
-        <v>1.025000643989003E-2</v>
+        <v>0.29916627086151754</v>
       </c>
       <c r="F107">
-        <v>-6.1207778915046099E-2</v>
+        <v>3.7031225482504301E-2</v>
       </c>
       <c r="G107">
-        <v>-7.0521424883841097E-2</v>
+        <v>0.10212143379663401</v>
       </c>
       <c r="H107">
-        <v>-2.65346534653466E-2</v>
+        <v>0.17045147337118099</v>
       </c>
       <c r="I107">
-        <v>-6.08820218970633E-2</v>
+        <v>0.14526462395543099</v>
       </c>
       <c r="J107">
-        <v>9.8591549295774503E-2</v>
+        <v>-0.10377697841726601</v>
       </c>
       <c r="K107">
-        <v>0.24043956043956</v>
+        <v>-8.8771987506164503E-3</v>
       </c>
       <c r="L107">
-        <v>8.1502480510276296E-2</v>
+        <v>-2.4028032704822198E-2</v>
       </c>
       <c r="M107">
-        <v>0.41</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A108" s="2" t="s">
-        <v>212</v>
+        <v>180</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>213</v>
+        <v>181</v>
       </c>
       <c r="C108" s="5">
-        <v>44312</v>
+        <v>44307</v>
       </c>
       <c r="D108" s="3">
-        <v>120432.704508</v>
+        <v>66148.105249999993</v>
       </c>
       <c r="E108" s="4">
-        <v>9.4403944706873549E-2</v>
+        <v>0.25394563837504536</v>
       </c>
       <c r="F108">
-        <v>-0.37494305239179898</v>
+        <v>-0.11678486997635899</v>
       </c>
       <c r="G108">
-        <v>-0.38376891334250302</v>
+        <v>-0.14604560892770499</v>
       </c>
       <c r="H108">
-        <v>-0.42830099384761</v>
+        <v>-0.115203021718602</v>
       </c>
       <c r="I108">
-        <v>-0.49554013875123798</v>
+        <v>-0.14939172749391699</v>
       </c>
       <c r="J108">
-        <v>-0.488165680473372</v>
+        <v>-0.15784313725490201</v>
       </c>
       <c r="K108">
-        <v>-0.59682539682539604</v>
+        <v>-8.1006864988558303E-2</v>
       </c>
       <c r="L108">
-        <v>-0.82136391068195502</v>
+        <v>-0.16412025628388299</v>
       </c>
       <c r="M108">
-        <v>0.18</v>
+        <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A109" s="2" t="s">
-        <v>214</v>
+        <v>56</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>215</v>
+        <v>57</v>
       </c>
       <c r="C109" s="5">
-        <v>44312</v>
+        <v>44298</v>
       </c>
       <c r="D109" s="3">
-        <v>98409.987500000003</v>
+        <v>57997.125</v>
       </c>
       <c r="E109" s="4">
-        <v>0.21159697683549272</v>
+        <v>0.15852215082854243</v>
       </c>
       <c r="F109">
-        <v>1.5739542906425201E-2</v>
+        <v>1.03154136084109E-2</v>
       </c>
       <c r="G109">
-        <v>-1.39937805419812E-2</v>
+        <v>5.02569960022844E-2</v>
       </c>
       <c r="H109">
-        <v>-4.3428571428571303E-2</v>
+        <v>4.8627002288329398E-2</v>
       </c>
       <c r="I109">
-        <v>-2.88483209375704E-2</v>
+        <v>3.5942028985507198E-2</v>
       </c>
       <c r="J109">
-        <v>-1.51211919057149E-2</v>
+        <v>2.06124852767961E-2</v>
       </c>
       <c r="K109">
-        <v>-5.6712962962962798E-2</v>
+        <v>0.13863950276243001</v>
       </c>
       <c r="L109">
-        <v>-0.22124130551096799</v>
+        <v>6.0451977401129897E-2</v>
       </c>
       <c r="M109">
-        <v>-0.06</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A110" s="2" t="s">
-        <v>216</v>
+        <v>28</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>217</v>
+        <v>29</v>
       </c>
       <c r="C110" s="5">
-        <v>44312</v>
+        <v>44292</v>
       </c>
       <c r="D110" s="3">
-        <v>85098.090000000011</v>
+        <v>45639.379212</v>
       </c>
       <c r="E110" s="4">
-        <v>0.25002884504442136</v>
+        <v>0.20403871249999997</v>
       </c>
       <c r="F110">
-        <v>-0.20275650842266399</v>
+        <v>-2.3051591657519299E-2</v>
       </c>
       <c r="G110">
-        <v>-0.29947054930509598</v>
+        <v>-9.0220137134608396E-3</v>
       </c>
       <c r="H110">
-        <v>-0.271285205568145</v>
+        <v>-2.2303473491773199E-2</v>
       </c>
       <c r="I110">
-        <v>-0.26595744680851002</v>
+        <v>4.3121149897330499E-2</v>
       </c>
       <c r="J110">
-        <v>-0.35273854633138102</v>
+        <v>4.7359454855195902E-2</v>
       </c>
       <c r="K110">
-        <v>-0.44534412955465502</v>
+        <v>-0.38759305210918099</v>
       </c>
       <c r="L110">
-        <v>-0.59504467912266401</v>
+        <v>-0.365234375</v>
       </c>
       <c r="M110">
-        <v>0.63</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A111" s="2" t="s">
-        <v>218</v>
+        <v>238</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>219</v>
+        <v>239</v>
       </c>
       <c r="C111" s="5">
-        <v>44312</v>
+        <v>44313</v>
       </c>
       <c r="D111" s="3">
-        <v>142939.92495300001</v>
+        <v>20838.253608000003</v>
       </c>
       <c r="E111" s="4">
-        <v>0.4389421033238694</v>
+        <v>0.14276830633474866</v>
       </c>
       <c r="F111">
-        <v>-1.4134275618374499E-2</v>
+        <v>-3.0726256983240101E-2</v>
       </c>
       <c r="G111">
-        <v>7.7170418006430694E-2</v>
+        <v>-3.1446540880502999E-2</v>
       </c>
       <c r="H111">
-        <v>0.122324159021406</v>
+        <v>-1.0958904109589E-2</v>
       </c>
       <c r="I111">
-        <v>0.10312499999999999</v>
+        <v>2.1220159151193602E-2</v>
       </c>
       <c r="J111">
-        <v>0.11692307692307601</v>
+        <v>6.58227848101266E-2</v>
       </c>
       <c r="K111">
-        <v>0.27525252525252503</v>
+        <v>-0.25617021276595697</v>
       </c>
       <c r="L111">
-        <v>0.36784140969162898</v>
+        <v>-0.22999999999999901</v>
       </c>
       <c r="M111">
-        <v>7.7999999999999996E-3</v>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A112" s="2" t="s">
-        <v>220</v>
+        <v>310</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>221</v>
+        <v>311</v>
       </c>
       <c r="C112" s="5">
-        <v>44312</v>
+        <v>44316</v>
       </c>
       <c r="D112" s="3">
-        <v>139766.69981799999</v>
+        <v>419.99174999999997</v>
       </c>
       <c r="E112" s="4">
-        <v>8.255468830979254E-2</v>
+        <v>3.0027369287587645E-4</v>
       </c>
       <c r="F112">
-        <v>1.14107883817428E-2</v>
+        <v>-4.2507204610950797E-2</v>
       </c>
       <c r="G112">
-        <v>-3.1578947368420302E-3</v>
+        <v>-7.5037147102525903E-2</v>
       </c>
       <c r="H112">
-        <v>-4.7252747252747203E-2</v>
+        <v>-9.7875569044005795E-2</v>
+      </c>
+      <c r="I112">
+        <v>-7.9689598567377798E-2</v>
       </c>
       <c r="J112">
-        <v>-8.4656084656084696E-3</v>
+        <v>-0.10660752523707499</v>
       </c>
       <c r="K112">
-        <v>-9.1013165426445303E-2</v>
+        <v>-1.0784257397299599</v>
       </c>
       <c r="L112">
-        <v>-0.181649101053936</v>
+        <v>-1.6405109489051</v>
       </c>
       <c r="M112">
-        <v>0.96099999999999997</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A113" s="2" t="s">
-        <v>222</v>
+        <v>132</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>223</v>
+        <v>133</v>
       </c>
       <c r="C113" s="5">
-        <v>44312</v>
+        <v>44302</v>
       </c>
       <c r="D113" s="3">
-        <v>6584.582985</v>
+        <v>1747.2655200000002</v>
       </c>
       <c r="E113" s="4">
-        <v>1.7252899912725467E-2</v>
+        <v>3.7917177905671907E-3</v>
       </c>
       <c r="F113">
-        <v>2.5356576862123399E-2</v>
+        <v>-1.6871535309713199E-3</v>
       </c>
       <c r="G113">
-        <v>0.100877192982456</v>
+        <v>-0.60711523588553695</v>
       </c>
       <c r="H113">
-        <v>0.14583333333333301</v>
+        <v>-0.82280701754385899</v>
       </c>
       <c r="I113">
-        <v>0.113832853025936</v>
+        <v>-0.81484716157205195</v>
       </c>
       <c r="J113">
-        <v>0.113832853025936</v>
+        <v>-0.82200789127575602</v>
       </c>
       <c r="K113">
-        <v>-3.18791946308725E-2</v>
+        <v>-0.93662628145386695</v>
       </c>
       <c r="L113">
-        <v>0.11127167630057699</v>
+        <v>-0.67648245260185502</v>
       </c>
       <c r="M113">
-        <v>-0.02</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A114" s="2" t="s">
-        <v>224</v>
+        <v>242</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>225</v>
+        <v>243</v>
       </c>
       <c r="C114" s="5">
-        <v>44312</v>
+        <v>44313</v>
       </c>
       <c r="D114" s="3">
-        <v>769836.80999999994</v>
+        <v>3627.9935999999998</v>
       </c>
       <c r="E114" s="4">
-        <v>6.5967164524421584E-2</v>
+        <v>8.3446145176424829E-3</v>
       </c>
       <c r="F114">
-        <v>1.5748031496062902E-2</v>
+        <v>-2.6993094789704901E-2</v>
       </c>
       <c r="G114">
-        <v>1.9607843137254902E-2</v>
+        <v>-1.9950124688279301E-2</v>
       </c>
       <c r="H114">
-        <v>-0.21713729308665999</v>
+        <v>-1.8046048537647699E-2</v>
       </c>
       <c r="I114">
-        <v>-0.126126126126126</v>
+        <v>-4.2702358189929797E-2</v>
       </c>
       <c r="J114">
-        <v>-4.4277360066833603E-2</v>
+        <v>-3.1525851197982298E-2</v>
       </c>
       <c r="K114">
-        <v>-4.0160642570281598E-3</v>
+        <v>-2.4509803921568098E-3</v>
       </c>
       <c r="L114">
-        <v>-7.2731173567903901E-2</v>
+        <v>-7.1381794368041901E-2</v>
       </c>
       <c r="M114">
-        <v>1.19</v>
+        <v>0.21859999999999999</v>
       </c>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A115" s="2" t="s">
-        <v>226</v>
+        <v>196</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>227</v>
+        <v>197</v>
       </c>
       <c r="C115" s="5">
-        <v>44312</v>
+        <v>44309</v>
       </c>
       <c r="D115" s="3">
-        <v>467494.13698000001</v>
+        <v>27895.831548000002</v>
       </c>
       <c r="E115" s="4">
-        <v>5.1034961214167111E-2</v>
+        <v>7.2247867750854552E-2</v>
       </c>
       <c r="F115">
-        <v>-2.8711056811240001E-2</v>
+        <v>-6.0594059405940599E-2</v>
       </c>
       <c r="G115">
-        <v>8.2449941107185197E-3</v>
+        <v>-4.6093749999999899E-2</v>
       </c>
       <c r="H115">
-        <v>0.21491841491841401</v>
+        <v>-7.3346693386773604E-2</v>
       </c>
       <c r="I115">
-        <v>0.26814428509343702</v>
+        <v>-0.17973568281938301</v>
       </c>
       <c r="J115">
-        <v>0.23972911963882601</v>
+        <v>-0.126156433978132</v>
       </c>
       <c r="K115">
-        <v>0.36308623298033199</v>
+        <v>-2.2918258212375898E-2</v>
       </c>
       <c r="L115">
-        <v>0.135523613963039</v>
+        <v>6.06804629954402E-2</v>
       </c>
       <c r="M115">
-        <v>0.32</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A116" s="2" t="s">
-        <v>228</v>
+        <v>246</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>229</v>
+        <v>247</v>
       </c>
       <c r="C116" s="5">
         <v>44313</v>
       </c>
       <c r="D116" s="3">
-        <v>477805.29927000002</v>
+        <v>4113.8467499999997</v>
       </c>
       <c r="E116" s="4">
-        <v>0.23711947561048777</v>
+        <v>8.3525123215555646E-3</v>
       </c>
       <c r="F116">
-        <v>0.13457408732999199</v>
+        <v>-1.4534883720929901E-3</v>
       </c>
       <c r="G116">
-        <v>3.0317613089509102E-2</v>
+        <v>-2.9112081513827598E-3</v>
       </c>
       <c r="H116">
-        <v>3.3341328855840603E-2</v>
+        <v>-5.8394160583941602E-3</v>
       </c>
       <c r="I116">
-        <v>3.9332538736590997E-2</v>
+        <v>2.8943560057887699E-3</v>
       </c>
       <c r="J116">
-        <v>-4.4492440604751597E-2</v>
+        <v>1.71184022824536E-2</v>
       </c>
       <c r="K116">
-        <v>-0.12152133580705</v>
+        <v>-2.8358208955223799E-2</v>
       </c>
       <c r="L116">
-        <v>-0.18960936731280101</v>
+        <v>-7.9937304075234999E-2</v>
       </c>
       <c r="M116">
-        <v>15.039400000000001</v>
+        <v>0.25309999999999999</v>
       </c>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A117" s="2" t="s">
-        <v>230</v>
+        <v>312</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>231</v>
+        <v>313</v>
       </c>
       <c r="C117" s="5">
-        <v>44313</v>
+        <v>44316</v>
       </c>
       <c r="D117" s="3">
-        <v>1052.0585000000001</v>
+        <v>1323.9224400000001</v>
       </c>
       <c r="E117" s="4">
-        <v>1.4038235191065951E-4</v>
+        <v>2.1437659469631856E-3</v>
       </c>
       <c r="F117">
-        <v>2.74611398963731E-2</v>
+        <v>5.7539958304377997E-2</v>
       </c>
       <c r="G117">
-        <v>-2.01086956521738E-2</v>
+        <v>-3.2115677321156701E-2</v>
       </c>
       <c r="H117">
-        <v>4.98126961628024E-2</v>
+        <v>3.0731846769582499E-2</v>
       </c>
       <c r="I117">
-        <v>6.1406140614061397E-2</v>
+        <v>4.5601688951442503E-2</v>
       </c>
       <c r="J117">
-        <v>2.5137633738443899E-2</v>
+        <v>0.111038280020975</v>
       </c>
       <c r="K117">
-        <v>-8.49710982658958E-2</v>
+        <v>0.21425260718424</v>
       </c>
       <c r="L117">
-        <v>-0.291810048176187</v>
+        <v>-7.2433971216194895E-2</v>
       </c>
       <c r="M117">
-        <v>0.78</v>
+        <v>0.82499999999999996</v>
       </c>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A118" s="2" t="s">
-        <v>232</v>
+        <v>66</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>233</v>
+        <v>67</v>
       </c>
       <c r="C118" s="5">
-        <v>44313</v>
+        <v>44298</v>
       </c>
       <c r="D118" s="3">
-        <v>119710.35327999998</v>
+        <v>572</v>
       </c>
       <c r="E118" s="4">
-        <v>0.23711353276619357</v>
+        <v>1.4974656844680113E-3</v>
       </c>
       <c r="F118">
-        <v>7.0043939002326194E-2</v>
+        <v>0.12806539509536699</v>
       </c>
       <c r="G118">
-        <v>-2.6240730176839502E-2</v>
+        <v>5.9829059829059603E-2</v>
       </c>
       <c r="H118">
-        <v>-4.7757716948165198E-2</v>
+        <v>6.1333333333333198E-2</v>
       </c>
       <c r="I118">
-        <v>-4.6234370456527903E-2</v>
+        <v>7.001321003963E-2</v>
       </c>
       <c r="J118">
-        <v>0.13509615384615301</v>
+        <v>0.10272750446087101</v>
       </c>
       <c r="K118">
-        <v>0.27780008028904002</v>
+        <v>0.17156978112497001</v>
       </c>
       <c r="L118">
-        <v>0.410453875143372</v>
+        <v>0.375554372893382</v>
       </c>
       <c r="M118">
-        <v>1.0900000000000001</v>
+        <v>0.53500000000000003</v>
       </c>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A119" s="2" t="s">
-        <v>234</v>
+        <v>272</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>235</v>
+        <v>273</v>
       </c>
       <c r="C119" s="5">
-        <v>44313</v>
+        <v>44315</v>
       </c>
       <c r="D119" s="3">
-        <v>102700</v>
+        <v>11999.793750000001</v>
       </c>
       <c r="E119" s="4">
-        <v>0.25</v>
+        <v>1.0500161475571019E-2</v>
       </c>
       <c r="F119">
-        <v>0.24871982443306501</v>
+        <v>4.5200172191131802E-3</v>
       </c>
       <c r="G119">
-        <v>0.37917485265225898</v>
+        <v>-1.9920611584828E-2</v>
       </c>
       <c r="H119">
-        <v>0.57601403653627803</v>
+        <v>0.104838709677419</v>
       </c>
       <c r="I119">
-        <v>0.64960764244285196</v>
+        <v>4.5079146593255397E-2</v>
       </c>
       <c r="J119">
-        <v>0.65215918712955101</v>
+        <v>0.10402944595118099</v>
       </c>
       <c r="K119">
-        <v>0.54857142857142804</v>
+        <v>0.185356975105683</v>
       </c>
       <c r="L119">
-        <v>0.37492391965916</v>
+        <v>-0.52757899372453998</v>
       </c>
       <c r="M119">
-        <v>0.74</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A120" s="2" t="s">
-        <v>236</v>
+        <v>128</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>237</v>
+        <v>129</v>
       </c>
       <c r="C120" s="5">
-        <v>44313</v>
+        <v>44302</v>
       </c>
       <c r="D120" s="3">
-        <v>58414.739647000002</v>
+        <v>1251.5471999999997</v>
       </c>
       <c r="E120" s="4">
-        <v>5.8697480125993733E-2</v>
+        <v>2.0778384970158471E-3</v>
       </c>
       <c r="F120">
-        <v>2.44428468727532E-2</v>
+        <v>1.8889202142655801E-2</v>
       </c>
       <c r="G120">
-        <v>-1.0834969865240201E-2</v>
+        <v>2.32949761436992E-2</v>
       </c>
       <c r="H120">
-        <v>4.2834241744148599E-2</v>
+        <v>-7.6399628827714103E-2</v>
       </c>
       <c r="I120">
-        <v>9.5716968558793095E-2</v>
+        <v>-0.13133940182054599</v>
       </c>
       <c r="J120">
-        <v>0.151923186182603</v>
+        <v>-0.13244386592905899</v>
       </c>
       <c r="K120">
-        <v>0.21329187308948999</v>
+        <v>-5.75043128234503E-4</v>
       </c>
       <c r="L120">
-        <v>0.121941176470588</v>
+        <v>8.6614173228346497E-2</v>
       </c>
       <c r="M120">
-        <v>1.77</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A121" s="2" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="C121" s="5">
         <v>44313</v>
       </c>
       <c r="D121" s="3">
-        <v>20838.253608000003</v>
+        <v>1052.0585000000001</v>
       </c>
       <c r="E121" s="4">
-        <v>0.14276830633474866</v>
+        <v>1.4038235191065951E-4</v>
       </c>
       <c r="F121">
-        <v>-3.0726256983240101E-2</v>
+        <v>2.74611398963731E-2</v>
       </c>
       <c r="G121">
-        <v>-3.1446540880502999E-2</v>
+        <v>-2.01086956521738E-2</v>
       </c>
       <c r="H121">
-        <v>-1.0958904109589E-2</v>
+        <v>4.98126961628024E-2</v>
       </c>
       <c r="I121">
-        <v>2.1220159151193602E-2</v>
+        <v>6.1406140614061397E-2</v>
       </c>
       <c r="J121">
-        <v>6.58227848101266E-2</v>
+        <v>2.5137633738443899E-2</v>
       </c>
       <c r="K121">
-        <v>-0.25617021276595697</v>
+        <v>-8.49710982658958E-2</v>
       </c>
       <c r="L121">
-        <v>-0.22999999999999901</v>
+        <v>-0.291810048176187</v>
       </c>
       <c r="M121">
-        <v>7.0000000000000007E-2</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.75">
@@ -6419,1926 +6417,1932 @@
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A123" s="2" t="s">
-        <v>242</v>
+        <v>332</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>243</v>
+        <v>333</v>
       </c>
       <c r="C123" s="5">
-        <v>44313</v>
+        <v>44316</v>
       </c>
       <c r="D123" s="3">
-        <v>3627.9935999999998</v>
+        <v>19367.005649999999</v>
       </c>
       <c r="E123" s="4">
-        <v>8.3446145176424829E-3</v>
+        <v>8.9009848122513797E-3</v>
       </c>
       <c r="F123">
-        <v>-2.6993094789704901E-2</v>
+        <v>4.2372881355932498E-3</v>
       </c>
       <c r="G123">
-        <v>-1.9950124688279301E-2</v>
+        <v>-1.7316017316017299E-2</v>
       </c>
       <c r="H123">
-        <v>-1.8046048537647699E-2</v>
+        <v>1.87891440501043E-2</v>
       </c>
       <c r="I123">
-        <v>-4.2702358189929797E-2</v>
+        <v>3.2921810699588501E-2</v>
       </c>
       <c r="J123">
-        <v>-3.1525851197982298E-2</v>
+        <v>6.1876247504989997E-2</v>
       </c>
       <c r="K123">
-        <v>-2.4509803921568098E-3</v>
+        <v>1.5363128491620101E-2</v>
       </c>
       <c r="L123">
-        <v>-7.1381794368041901E-2</v>
+        <v>7.9033311561071198E-2</v>
       </c>
       <c r="M123">
-        <v>0.21859999999999999</v>
+        <v>0.28999999999999998</v>
       </c>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A124" s="2" t="s">
-        <v>244</v>
+        <v>208</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>245</v>
+        <v>209</v>
       </c>
       <c r="C124" s="5">
-        <v>44313</v>
+        <v>44312</v>
       </c>
       <c r="D124" s="3">
-        <v>79843.674899999998</v>
+        <v>228369.56447000001</v>
       </c>
       <c r="E124" s="4">
-        <v>2.6155651142443048E-3</v>
+        <v>0.19281035759073903</v>
       </c>
       <c r="F124">
-        <v>4.78612025127121E-3</v>
+        <v>-7.5450450450450401E-2</v>
       </c>
       <c r="G124">
-        <v>-6.4980793854033395E-2</v>
+        <v>-3.6916395222584102E-2</v>
       </c>
       <c r="H124">
-        <v>-8.3007812500000097E-2</v>
+        <v>-6.4659977703455898E-2</v>
       </c>
       <c r="I124">
-        <v>-4.8323769254002896E-3</v>
+        <v>-7.3033707865168496E-2</v>
       </c>
       <c r="J124">
-        <v>8.4731774415405706E-2</v>
+        <v>-3.2432432432432497E-2</v>
       </c>
       <c r="K124">
-        <v>0.241795806745669</v>
+        <v>0.14503133393017001</v>
       </c>
       <c r="L124">
-        <v>0.38875620062465499</v>
+        <v>0.225466342254663</v>
       </c>
       <c r="M124">
-        <v>0.39</v>
+        <v>-0.02</v>
       </c>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A125" s="2" t="s">
-        <v>246</v>
+        <v>202</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>247</v>
+        <v>203</v>
       </c>
       <c r="C125" s="5">
-        <v>44313</v>
+        <v>44309</v>
       </c>
       <c r="D125" s="3">
-        <v>4113.8467499999997</v>
+        <v>7488</v>
       </c>
       <c r="E125" s="4">
-        <v>8.3525123215555646E-3</v>
+        <v>4.1687190949838707E-2</v>
       </c>
       <c r="F125">
-        <v>-1.4534883720929901E-3</v>
+        <v>-0.13868613138686101</v>
       </c>
       <c r="G125">
-        <v>-2.9112081513827598E-3</v>
+        <v>-0.42465753424657499</v>
       </c>
       <c r="H125">
-        <v>-5.8394160583941602E-3</v>
+        <v>-0.38053097345132703</v>
       </c>
       <c r="I125">
-        <v>2.8943560057887699E-3</v>
+        <v>-0.14285714285714199</v>
       </c>
       <c r="J125">
-        <v>1.71184022824536E-2</v>
+        <v>-0.39910313901345201</v>
       </c>
       <c r="K125">
-        <v>-2.8358208955223799E-2</v>
+        <v>-0.114285714285714</v>
       </c>
       <c r="L125">
-        <v>-7.9937304075234999E-2</v>
+        <v>5.4545454545454397E-2</v>
       </c>
       <c r="M125">
-        <v>0.25309999999999999</v>
+        <v>-0.2135</v>
       </c>
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A126" s="2" t="s">
-        <v>248</v>
+        <v>100</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>249</v>
+        <v>101</v>
       </c>
       <c r="C126" s="5">
-        <v>44314</v>
+        <v>44300</v>
       </c>
       <c r="D126" s="3">
-        <v>99361.624104000002</v>
+        <v>11817.415520999999</v>
       </c>
       <c r="E126" s="4">
-        <v>0.20354315000000001</v>
+        <v>8.6251882098594301E-2</v>
       </c>
       <c r="F126">
-        <v>1.38181818181817E-2</v>
+        <v>2.5931928687196099E-2</v>
       </c>
       <c r="G126">
-        <v>7.7551020408163099E-2</v>
+        <v>2.5931928687196099E-2</v>
       </c>
       <c r="H126">
-        <v>0.151173708920187</v>
+        <v>0.185636856368563</v>
       </c>
       <c r="I126">
-        <v>0.18041704442429701</v>
+        <v>0.185636856368563</v>
       </c>
       <c r="J126">
-        <v>3.7956722241929697E-2</v>
+        <v>0.14630681818181801</v>
       </c>
       <c r="K126">
-        <v>7.4718526100306895E-2</v>
+        <v>0.106983655274888</v>
       </c>
       <c r="L126">
-        <v>0.196206283343212</v>
+        <v>0.126453488372093</v>
       </c>
       <c r="M126">
-        <v>0.21</v>
+        <v>-1.8100000000000002E-2</v>
       </c>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A127" s="2" t="s">
-        <v>250</v>
+        <v>204</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>251</v>
+        <v>205</v>
       </c>
       <c r="C127" s="5">
-        <v>44314</v>
+        <v>44309</v>
       </c>
       <c r="D127" s="3">
-        <v>66718.906575000001</v>
+        <v>1512.2220709999999</v>
       </c>
       <c r="E127" s="4">
-        <v>3.2278622686931727E-2</v>
+        <v>3.7408195579460824E-3</v>
       </c>
       <c r="F127">
-        <v>-2.2156573116692102E-3</v>
+        <v>-8.0158730158730096E-2</v>
       </c>
       <c r="G127">
-        <v>-9.9230960059538201E-3</v>
+        <v>-0.12201154163231601</v>
       </c>
       <c r="H127">
-        <v>-1.6733266733266701E-2</v>
+        <v>-0.11557377049180299</v>
       </c>
       <c r="I127">
-        <v>-2.9563932002955699E-3</v>
+        <v>-0.110114192495921</v>
       </c>
       <c r="J127">
-        <v>6.3922740859967797E-2</v>
+        <v>-0.15436810856658101</v>
       </c>
       <c r="K127">
-        <v>6.1981566820276397E-2</v>
+        <v>-0.25669436749769098</v>
       </c>
       <c r="L127">
-        <v>7.3087431693989E-2</v>
+        <v>-0.42662473794549199</v>
       </c>
       <c r="M127">
-        <v>0.22</v>
+        <v>0.16880000000000001</v>
       </c>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A128" s="2" t="s">
-        <v>252</v>
+        <v>200</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>253</v>
+        <v>201</v>
       </c>
       <c r="C128" s="5">
-        <v>44314</v>
+        <v>44309</v>
       </c>
       <c r="D128" s="3">
-        <v>213187.43230399999</v>
+        <v>75798.162284999999</v>
       </c>
       <c r="E128" s="4">
-        <v>0.29839662857966975</v>
+        <v>8.4999028458660031E-2</v>
       </c>
       <c r="F128">
-        <v>-9.1474797759800802E-2</v>
+        <v>-8.0586080586080605E-2</v>
       </c>
       <c r="G128">
-        <v>-0.125802310654685</v>
+        <v>-0.136071887034659</v>
       </c>
       <c r="H128">
-        <v>-6.9512195121951198E-2</v>
+        <v>-9.8014888337468797E-2</v>
       </c>
       <c r="I128">
-        <v>-7.2782874617736804E-2</v>
+        <v>0.104251012145749</v>
       </c>
       <c r="J128">
-        <v>-0.155467720685111</v>
+        <v>9.3237704918032793E-2</v>
       </c>
       <c r="K128">
-        <v>-0.23870056497175099</v>
+        <v>0.27990235964198501</v>
       </c>
       <c r="L128">
-        <v>-0.43417825020441497</v>
+        <v>0.28165584415584399</v>
       </c>
       <c r="M128">
-        <v>0.17</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A129" s="2" t="s">
-        <v>254</v>
+        <v>20</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>255</v>
+        <v>21</v>
       </c>
       <c r="C129" s="5">
-        <v>44314</v>
+        <v>44292</v>
       </c>
       <c r="D129" s="3">
-        <v>17736.645424000002</v>
+        <v>85077</v>
       </c>
       <c r="E129" s="4">
-        <v>4.717215376224914E-2</v>
+        <v>0.25</v>
       </c>
       <c r="F129">
-        <v>-2.1951219512195301E-2</v>
+        <v>0.31713217506047903</v>
       </c>
       <c r="G129">
-        <v>-2.5703794369645101E-2</v>
+        <v>0.17595541401273801</v>
       </c>
       <c r="H129">
-        <v>1.75849941383351E-2</v>
+        <v>0.21412300683371199</v>
       </c>
       <c r="I129">
-        <v>4.3378995433789799E-2</v>
+        <v>0.14060337669526701</v>
       </c>
       <c r="J129">
-        <v>4.3924700513405503E-2</v>
+        <v>9.1308165057067597E-2</v>
       </c>
       <c r="K129">
-        <v>5.7897695334457398E-2</v>
+        <v>2.4505183788878299E-2</v>
       </c>
       <c r="L129">
-        <v>0.190338164251207</v>
+        <v>-0.14745011086474499</v>
       </c>
       <c r="M129">
-        <v>0.52</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A130" s="2" t="s">
-        <v>256</v>
+        <v>22</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>257</v>
+        <v>23</v>
       </c>
       <c r="C130" s="5">
-        <v>44314</v>
+        <v>44292</v>
       </c>
       <c r="D130" s="3">
-        <v>289052.08999999997</v>
+        <v>64800.000000000007</v>
       </c>
       <c r="E130" s="4">
-        <v>0.25001973632272834</v>
+        <v>0.25</v>
       </c>
       <c r="F130">
-        <v>-0.23454619234410901</v>
+        <v>0.31699604743082999</v>
       </c>
       <c r="G130">
-        <v>-0.42631661197061999</v>
+        <v>0.31392271042879799</v>
       </c>
       <c r="H130">
-        <v>-0.50784734842226897</v>
+        <v>0.29964874358281501</v>
       </c>
       <c r="I130">
-        <v>-0.53137583892617402</v>
+        <v>0.16414059980651399</v>
       </c>
       <c r="J130">
-        <v>-0.54537758211987797</v>
+        <v>0.12609575185434899</v>
       </c>
       <c r="K130">
-        <v>-1.1715441351415601</v>
+        <v>0.16843118383060601</v>
       </c>
       <c r="L130">
-        <v>-1.6077142857142801</v>
+        <v>3.9999999999999897E-2</v>
       </c>
       <c r="M130">
-        <v>1.57</v>
+        <v>0.42559999999999998</v>
       </c>
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A131" s="2" t="s">
-        <v>258</v>
+        <v>286</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>259</v>
+        <v>287</v>
       </c>
       <c r="C131" s="5">
-        <v>44314</v>
+        <v>44315</v>
       </c>
       <c r="D131" s="3">
-        <v>14130.02448</v>
+        <v>876016.25685600005</v>
       </c>
       <c r="E131" s="4">
-        <v>3.6989870589730243E-3</v>
+        <v>0.39925305007991474</v>
       </c>
       <c r="F131">
-        <v>3.8919667590027698E-2</v>
+        <v>2.06434316353886E-2</v>
       </c>
       <c r="G131">
-        <v>-5.5361216730038E-2</v>
+        <v>-7.3767666321957401E-3</v>
       </c>
       <c r="H131">
-        <v>-1.15160349854228E-2</v>
+        <v>-0.56094434355303902</v>
       </c>
       <c r="I131">
-        <v>1.6929942622369999E-2</v>
+        <v>-0.727799456071893</v>
       </c>
       <c r="J131">
-        <v>5.2049180327868802E-2</v>
+        <v>-0.60748074807480701</v>
       </c>
       <c r="K131">
-        <v>0.16402626347810301</v>
+        <v>-0.45901148277583598</v>
       </c>
       <c r="L131">
-        <v>0.38636363636363602</v>
+        <v>-0.33078324225865202</v>
       </c>
       <c r="M131">
-        <v>3.2120000000000002</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A132" s="2" t="s">
-        <v>260</v>
+        <v>294</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>261</v>
+        <v>295</v>
       </c>
       <c r="C132" s="5">
-        <v>44314</v>
+        <v>44316</v>
       </c>
       <c r="D132" s="3">
-        <v>6787.3821400000006</v>
+        <v>13603.757917999999</v>
       </c>
       <c r="E132" s="4">
-        <v>1.225092005781633E-2</v>
+        <v>3.5391629023150808E-2</v>
       </c>
       <c r="F132">
-        <v>-6.2068965517241399E-2</v>
+        <v>1.12973760932945E-2</v>
       </c>
       <c r="G132">
-        <v>-6.7221067221067202E-2</v>
+        <v>-8.0876494023904205E-2</v>
       </c>
       <c r="H132">
-        <v>4.2288557213930197E-2</v>
+        <v>-3.6287242169595002E-2</v>
       </c>
       <c r="I132">
-        <v>0.274952919020715</v>
+        <v>-2.57088846880907E-2</v>
       </c>
       <c r="J132">
-        <v>0.22496225465525899</v>
+        <v>8.0438756855576703E-3</v>
       </c>
       <c r="K132">
-        <v>0.28338762214983698</v>
+        <v>8.7453750420450699E-2</v>
       </c>
       <c r="L132">
-        <v>0.15477497255762801</v>
+        <v>-1.04283054003723E-2</v>
       </c>
       <c r="M132">
-        <v>-0.26</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A133" s="2" t="s">
-        <v>262</v>
+        <v>214</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>263</v>
+        <v>215</v>
       </c>
       <c r="C133" s="5">
-        <v>44314</v>
+        <v>44312</v>
       </c>
       <c r="D133" s="3">
-        <v>151937.96580000001</v>
+        <v>98409.987500000003</v>
       </c>
       <c r="E133" s="4">
-        <v>0.22712051665661445</v>
+        <v>0.21159697683549272</v>
       </c>
       <c r="F133">
-        <v>0.20509708737863999</v>
+        <v>1.5739542906425201E-2</v>
       </c>
       <c r="G133">
-        <v>0.19285274183610601</v>
+        <v>-1.39937805419812E-2</v>
       </c>
       <c r="H133">
-        <v>0.275282142066828</v>
+        <v>-4.3428571428571303E-2</v>
       </c>
       <c r="I133">
-        <v>0.31777939797937699</v>
+        <v>-2.88483209375704E-2</v>
       </c>
       <c r="J133">
-        <v>0.43363597060095099</v>
+        <v>-1.51211919057149E-2</v>
       </c>
       <c r="K133">
-        <v>0.41523078296580601</v>
+        <v>-5.6712962962962798E-2</v>
       </c>
       <c r="L133">
-        <v>0.58594095707693195</v>
+        <v>-0.22124130551096799</v>
       </c>
       <c r="M133">
-        <v>1.17</v>
+        <v>-0.06</v>
       </c>
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A134" s="2" t="s">
-        <v>264</v>
+        <v>54</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>265</v>
+        <v>55</v>
       </c>
       <c r="C134" s="5">
-        <v>44314</v>
+        <v>44295</v>
       </c>
       <c r="D134" s="3">
-        <v>49143.282820000008</v>
+        <v>248243.17726799997</v>
       </c>
       <c r="E134" s="4">
-        <v>4.2373708264765282E-2</v>
+        <v>0.29123397115384614</v>
       </c>
       <c r="F134">
-        <v>-3.9045553145336101E-2</v>
+        <v>-2.34765234765234E-2</v>
       </c>
       <c r="G134">
-        <v>-5.3905390539053903E-2</v>
+        <v>3.1892274982282101E-2</v>
       </c>
       <c r="H134">
-        <v>-4.9288061336253998E-2</v>
+        <v>5.4453161052145899E-2</v>
       </c>
       <c r="I134">
-        <v>-4.4711014176662997E-2</v>
+        <v>8.9535658742501606E-2</v>
       </c>
       <c r="J134">
-        <v>-2.6795284030010701E-2</v>
+        <v>2.8449502133712699E-2</v>
       </c>
       <c r="K134">
-        <v>1.1351909184726399E-2</v>
+        <v>-0.34980237154150101</v>
       </c>
       <c r="L134">
-        <v>-0.123094958968347</v>
+        <v>-0.2262118491921</v>
       </c>
       <c r="M134">
-        <v>0.15379999999999999</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A135" s="2" t="s">
-        <v>266</v>
+        <v>136</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>267</v>
+        <v>137</v>
       </c>
       <c r="C135" s="5">
-        <v>44315</v>
+        <v>44305</v>
       </c>
       <c r="D135" s="3">
-        <v>234878.22357600002</v>
+        <v>259107.20000000001</v>
       </c>
       <c r="E135" s="4">
-        <v>0.33432147880299257</v>
+        <v>0.13566084788029925</v>
       </c>
       <c r="F135">
-        <v>-4.0380047505938203E-2</v>
+        <v>-2.2761434399828199E-2</v>
       </c>
       <c r="G135">
-        <v>-8.5501858736059394E-2</v>
+        <v>2.11672831894778E-2</v>
       </c>
       <c r="H135">
-        <v>-5.6694813027744297E-2</v>
+        <v>1.3054289266473101E-2</v>
       </c>
       <c r="I135">
-        <v>-5.6057866184448399E-2</v>
+        <v>9.4486692015209095E-2</v>
       </c>
       <c r="J135">
-        <v>1.3513513513513599E-2</v>
+        <v>7.4786324786324604E-2</v>
       </c>
       <c r="K135">
-        <v>2.3411371237458199E-2</v>
+        <v>0.21142384105960199</v>
       </c>
       <c r="L135">
-        <v>-0.136186770428015</v>
+        <v>8.92925430210324E-2</v>
       </c>
       <c r="M135">
-        <v>-0.06</v>
+        <v>1.9020999999999999</v>
       </c>
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A136" s="2" t="s">
-        <v>268</v>
+        <v>18</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>269</v>
+        <v>19</v>
       </c>
       <c r="C136" s="5">
-        <v>44315</v>
+        <v>44292</v>
       </c>
       <c r="D136" s="3">
-        <v>62704.41444</v>
+        <v>135606.285864</v>
       </c>
       <c r="E136" s="4">
-        <v>0.20355139534883718</v>
+        <v>0.59191623537353732</v>
       </c>
       <c r="F136">
-        <v>-0.18805970149253701</v>
+        <v>2.2451456310679602E-2</v>
       </c>
       <c r="G136">
-        <v>-0.25684210526315698</v>
+        <v>5.6239015817223202E-2</v>
       </c>
       <c r="H136">
-        <v>-0.338064998132237</v>
+        <v>3.41726618705036E-2</v>
       </c>
       <c r="I136">
-        <v>-0.34864457831325302</v>
+        <v>2.8347406513871999E-2</v>
       </c>
       <c r="J136">
-        <v>-0.33956619296933399</v>
+        <v>-1.8975332068311101E-2</v>
       </c>
       <c r="K136">
-        <v>-0.30065359477124098</v>
+        <v>0.22918660287081299</v>
       </c>
       <c r="L136">
-        <v>-0.33956619296933399</v>
+        <v>-0.23353751914241899</v>
       </c>
       <c r="M136">
-        <v>0.56999999999999995</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A137" s="2" t="s">
-        <v>270</v>
+        <v>74</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>271</v>
+        <v>75</v>
       </c>
       <c r="C137" s="5">
-        <v>44315</v>
+        <v>44298</v>
       </c>
       <c r="D137" s="3">
-        <v>19070.707604000003</v>
+        <v>81202.03</v>
       </c>
       <c r="E137" s="4">
-        <v>4.101384980168845E-3</v>
+        <v>0.16379654520773998</v>
       </c>
       <c r="F137">
-        <v>0.112365591397849</v>
+        <v>7.8201368523949204E-3</v>
       </c>
       <c r="G137">
-        <v>5.5491990846681799E-2</v>
+        <v>-2.96442687747046E-3</v>
       </c>
       <c r="H137">
-        <v>9.1522880720179903E-3</v>
+        <v>-3.2553407934893197E-2</v>
       </c>
       <c r="I137">
-        <v>3.9697542533081102E-2</v>
+        <v>-2.52525252525252E-2</v>
       </c>
       <c r="J137">
-        <v>5.3868194842406701E-2</v>
+        <v>-1.9743336623888998E-3</v>
       </c>
       <c r="K137">
-        <v>0.23351903435468799</v>
+        <v>0.21682098765432101</v>
       </c>
       <c r="L137">
-        <v>2.1194605009633799E-2</v>
+        <v>0.54545454545454497</v>
+      </c>
+      <c r="M137">
+        <v>0.21629999999999999</v>
       </c>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A138" s="2" t="s">
-        <v>272</v>
+        <v>296</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>273</v>
+        <v>297</v>
       </c>
       <c r="C138" s="5">
-        <v>44315</v>
+        <v>44316</v>
       </c>
       <c r="D138" s="3">
-        <v>11999.793750000001</v>
+        <v>87057.666431999998</v>
       </c>
       <c r="E138" s="4">
-        <v>1.0500161475571019E-2</v>
+        <v>8.8605382145044306E-2</v>
       </c>
       <c r="F138">
-        <v>4.5200172191131802E-3</v>
+        <v>-7.3249089740843903E-2</v>
       </c>
       <c r="G138">
-        <v>-1.9920611584828E-2</v>
+        <v>-8.1588603496654394E-2</v>
       </c>
       <c r="H138">
-        <v>0.104838709677419</v>
+        <v>8.6916909620991301E-2</v>
       </c>
       <c r="I138">
-        <v>4.5079146593255397E-2</v>
+        <v>-0.30596820432629601</v>
       </c>
       <c r="J138">
-        <v>0.10402944595118099</v>
+        <v>-0.240346534653465</v>
       </c>
       <c r="K138">
-        <v>0.185356975105683</v>
+        <v>-0.228186274509804</v>
       </c>
       <c r="L138">
-        <v>-0.52757899372453998</v>
+        <v>-0.50570913461538403</v>
       </c>
       <c r="M138">
-        <v>0.99</v>
+        <v>0.20630000000000001</v>
       </c>
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A139" s="2" t="s">
-        <v>274</v>
+        <v>156</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>275</v>
+        <v>157</v>
       </c>
       <c r="C139" s="5">
-        <v>44315</v>
+        <v>44306</v>
       </c>
       <c r="D139" s="3">
-        <v>70061.865999999995</v>
+        <v>36088.801202999995</v>
       </c>
       <c r="E139" s="4">
-        <v>0.25032608695652175</v>
+        <v>0.10835424999043539</v>
       </c>
       <c r="F139">
-        <v>9.0794979079497795E-2</v>
+        <v>-3.61445783132529E-3</v>
       </c>
       <c r="G139">
-        <v>0.24861687413554601</v>
+        <v>-4.73595976529756E-2</v>
       </c>
       <c r="H139">
-        <v>0.16870696250956299</v>
+        <v>-8.7467362924281894E-2</v>
       </c>
       <c r="I139">
-        <v>0.103917525773195</v>
+        <v>-9.4612352168199701E-2</v>
       </c>
       <c r="J139">
-        <v>2.07300585849482E-2</v>
+        <v>-0.85111111111111104</v>
       </c>
       <c r="K139">
-        <v>-8.7043521760880496E-2</v>
+        <v>-0.76983002832861103</v>
       </c>
       <c r="L139">
-        <v>-0.21532438478747201</v>
+        <v>-0.59273422562141398</v>
       </c>
       <c r="M139">
-        <v>0.24</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A140" s="2" t="s">
-        <v>276</v>
+        <v>12</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>277</v>
+        <v>13</v>
       </c>
       <c r="C140" s="5">
-        <v>44315</v>
+        <v>44288</v>
       </c>
       <c r="D140" s="3">
-        <v>33326.639999999999</v>
+        <v>1019.3263739999999</v>
       </c>
       <c r="E140" s="4">
-        <v>9.9899987512501592E-2</v>
+        <v>3.9217717351220215E-3</v>
       </c>
       <c r="F140">
-        <v>-2.1224489795918299E-2</v>
+        <v>-8.6378737541527497E-3</v>
       </c>
       <c r="G140">
-        <v>-3.20769847634315E-3</v>
+        <v>-1.60642570281124E-2</v>
       </c>
       <c r="H140">
-        <v>7.1428571428571296E-3</v>
+        <v>-7.2992700729926597E-3</v>
       </c>
       <c r="I140">
-        <v>-3.8174273858920998E-2</v>
+        <v>2.75464445868033E-2</v>
       </c>
       <c r="J140">
-        <v>-3.7313432835820802E-2</v>
+        <v>-6.7510548523206607E-2</v>
       </c>
       <c r="K140">
-        <v>-7.1061643835616403E-2</v>
+        <v>-8.42857142857142E-2</v>
       </c>
       <c r="L140">
-        <v>-0.15299539170506901</v>
+        <v>-8.5836909871244496E-2</v>
       </c>
       <c r="M140">
-        <v>0.38</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A141" s="2" t="s">
-        <v>278</v>
+        <v>122</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>279</v>
+        <v>123</v>
       </c>
       <c r="C141" s="5">
-        <v>44315</v>
+        <v>44302</v>
       </c>
       <c r="D141" s="3">
-        <v>48067.280112</v>
+        <v>291467.96218500001</v>
       </c>
       <c r="E141" s="4">
-        <v>8.437554982234402E-2</v>
+        <v>4.1952230705300055E-2</v>
       </c>
       <c r="F141">
-        <v>-0.10060120240480901</v>
+        <v>4.4799519647741502E-2</v>
       </c>
       <c r="G141">
-        <v>-8.0676898858716997E-2</v>
+        <v>3.0242481712272899E-2</v>
       </c>
       <c r="H141">
-        <v>-5.0497322111706197E-2</v>
+        <v>0.12937062937062899</v>
       </c>
       <c r="I141">
-        <v>-7.3075420085971093E-2</v>
+        <v>0.117511094674556</v>
       </c>
       <c r="J141">
-        <v>-3.6226415094339597E-2</v>
+        <v>0.18127233738384499</v>
       </c>
       <c r="K141">
-        <v>-0.525555555555555</v>
+        <v>0.28457214241099299</v>
       </c>
       <c r="L141">
-        <v>-0.65521398432790801</v>
+        <v>0.220179738562091</v>
       </c>
       <c r="M141">
-        <v>0.48</v>
+        <v>1.78</v>
       </c>
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A142" s="2" t="s">
-        <v>280</v>
+        <v>10</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>281</v>
+        <v>11</v>
       </c>
       <c r="C142" s="5">
-        <v>44315</v>
+        <v>44288</v>
       </c>
       <c r="D142" s="3">
-        <v>25215.502454999998</v>
+        <v>1283.9293230000001</v>
       </c>
       <c r="E142" s="4">
-        <v>4.9372404284414702E-2</v>
+        <v>4.6118814962815688E-3</v>
       </c>
       <c r="F142">
-        <v>-1.41843971631204E-2</v>
+        <v>3.4274193548386997E-2</v>
       </c>
       <c r="G142">
-        <v>-2.3364485981307902E-3</v>
+        <v>2.6422764227642202E-2</v>
       </c>
       <c r="H142">
-        <v>1.6055045871559599E-2</v>
+        <v>6.6276803118908295E-2</v>
       </c>
       <c r="I142">
-        <v>1.6055045871559599E-2</v>
+        <v>6.2240663900415402E-3</v>
       </c>
       <c r="J142">
-        <v>-4.6838407494146196E-3</v>
+        <v>3.2323232323232302E-2</v>
       </c>
       <c r="K142">
-        <v>1.83066361556064E-2</v>
+        <v>0.114602587800369</v>
       </c>
       <c r="L142">
-        <v>-8.3333333333333301E-2</v>
+        <v>-4.3572984749455299E-2</v>
       </c>
       <c r="M142">
-        <v>0.20200000000000001</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A143" s="2" t="s">
-        <v>282</v>
+        <v>306</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>283</v>
+        <v>307</v>
       </c>
       <c r="C143" s="5">
-        <v>44315</v>
+        <v>44316</v>
       </c>
       <c r="D143" s="3">
-        <v>1928415.547186</v>
+        <v>87683.108531999998</v>
       </c>
       <c r="E143" s="4">
-        <v>0.14788856549815499</v>
+        <v>4.2117534979451816E-2</v>
       </c>
       <c r="F143">
-        <v>2.40475108716816E-2</v>
+        <v>-1.38686131386862E-2</v>
       </c>
       <c r="G143">
-        <v>-3.4111619270314003E-2</v>
+        <v>-8.2197117257498994E-2</v>
       </c>
       <c r="H143">
-        <v>7.4392120652508303E-2</v>
+        <v>-3.7341299477221798E-2</v>
       </c>
       <c r="I143">
-        <v>-0.27427966101694901</v>
+        <v>-3.4251675353685798E-2</v>
       </c>
       <c r="J143">
-        <v>-0.38674721018168401</v>
+        <v>2.7651382569128399E-2</v>
       </c>
       <c r="K143">
-        <v>-0.13912878787878699</v>
+        <v>1.6985138004246201E-2</v>
       </c>
       <c r="L143">
-        <v>-0.167974211589249</v>
+        <v>7.83012607830125E-2</v>
       </c>
       <c r="M143">
-        <v>1.47</v>
+        <v>0.28129999999999999</v>
       </c>
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A144" s="2" t="s">
-        <v>284</v>
+        <v>298</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>285</v>
+        <v>299</v>
       </c>
       <c r="C144" s="5">
-        <v>44315</v>
+        <v>44316</v>
       </c>
       <c r="D144" s="3">
-        <v>207299.21910399999</v>
+        <v>28166.735322</v>
       </c>
       <c r="E144" s="4">
-        <v>0.29916627086151754</v>
+        <v>3.0946864460045874E-2</v>
       </c>
       <c r="F144">
-        <v>3.7031225482504301E-2</v>
+        <v>2.9210689869484101E-2</v>
       </c>
       <c r="G144">
-        <v>0.10212143379663401</v>
+        <v>3.5802469135802401E-2</v>
       </c>
       <c r="H144">
-        <v>0.17045147337118099</v>
+        <v>-5.5405405405405297E-2</v>
       </c>
       <c r="I144">
-        <v>0.14526462395543099</v>
+        <v>-0.103886925795052</v>
       </c>
       <c r="J144">
-        <v>-0.10377697841726601</v>
+        <v>-0.10310734463276799</v>
       </c>
       <c r="K144">
-        <v>-8.8771987506164503E-3</v>
+        <v>9.6587622903412301E-2</v>
       </c>
       <c r="L144">
-        <v>-2.4028032704822198E-2</v>
+        <v>0.19276485788113701</v>
       </c>
       <c r="M144">
-        <v>0.39</v>
+        <v>0.44240000000000002</v>
       </c>
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A145" s="2" t="s">
-        <v>286</v>
+        <v>206</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>287</v>
+        <v>207</v>
       </c>
       <c r="C145" s="5">
-        <v>44315</v>
+        <v>44312</v>
       </c>
       <c r="D145" s="3">
-        <v>876016.25685600005</v>
+        <v>2223.8294000000001</v>
       </c>
       <c r="E145" s="4">
-        <v>0.39925305007991474</v>
+        <v>8.2651088707159197E-3</v>
       </c>
       <c r="F145">
-        <v>2.06434316353886E-2</v>
+        <v>-2.8409090909090298E-3</v>
       </c>
       <c r="G145">
-        <v>-7.3767666321957401E-3</v>
+        <v>-8.5714285714285094E-3</v>
       </c>
       <c r="H145">
-        <v>-0.56094434355303902</v>
+        <v>1.3966480446927399E-2</v>
       </c>
       <c r="I145">
-        <v>-0.727799456071893</v>
+        <v>1.94444444444445E-2</v>
       </c>
       <c r="J145">
-        <v>-0.60748074807480701</v>
+        <v>-1.43678160919539E-2</v>
       </c>
       <c r="K145">
-        <v>-0.45901148277583598</v>
+        <v>-2.31884057971013E-2</v>
       </c>
       <c r="L145">
-        <v>-0.33078324225865202</v>
+        <v>-4.4378698224851999E-2</v>
       </c>
       <c r="M145">
-        <v>0.89</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A146" s="2" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
       <c r="C146" s="5">
-        <v>44315</v>
+        <v>44316</v>
       </c>
       <c r="D146" s="3">
-        <v>5066.362048</v>
+        <v>9481.7349119999999</v>
       </c>
       <c r="E146" s="4">
-        <v>1.2966733333333345E-2</v>
+        <v>1.5707927868465105E-2</v>
       </c>
       <c r="F146">
-        <v>-3.2994923857868098E-2</v>
+        <v>1.8975332068310699E-3</v>
       </c>
       <c r="G146">
-        <v>-2.71293375394322E-2</v>
+        <v>-5.7361376673038898E-3</v>
       </c>
       <c r="H146">
-        <v>-8.6741016109046203E-3</v>
+        <v>-5.7361376673038898E-3</v>
       </c>
       <c r="I146">
-        <v>-2.71293375394322E-2</v>
+        <v>-4.7808764940239001E-2</v>
       </c>
       <c r="J146">
-        <v>-1.3698630136986399E-2</v>
+        <v>-3.8167938931296802E-3</v>
       </c>
       <c r="K146">
-        <v>3.6719706242349199E-3</v>
+        <v>-8.6776859504132206E-2</v>
       </c>
       <c r="L146">
-        <v>-0.12664359861591701</v>
+        <v>-0.387862796833773</v>
       </c>
       <c r="M146">
-        <v>0.18</v>
+        <v>-2.6700000000000002E-2</v>
       </c>
     </row>
     <row r="147" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A147" s="2" t="s">
-        <v>290</v>
+        <v>302</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>291</v>
+        <v>303</v>
       </c>
       <c r="C147" s="5">
-        <v>44315</v>
+        <v>44316</v>
       </c>
       <c r="D147" s="3">
-        <v>142191.45969600001</v>
+        <v>108229.04549600001</v>
       </c>
       <c r="E147" s="4">
-        <v>0.23709102145448926</v>
+        <v>0.18571472633201622</v>
       </c>
       <c r="F147">
-        <v>-0.18088737201365099</v>
+        <v>2.1385799828913601E-2</v>
       </c>
       <c r="G147">
-        <v>-0.32880354505169801</v>
+        <v>1.29421915444348E-2</v>
       </c>
       <c r="H147">
-        <v>-0.40826549780839</v>
+        <v>9.5238095238096201E-3</v>
       </c>
       <c r="I147">
-        <v>-0.41803278688524498</v>
+        <v>-2.6929982046678499E-2</v>
       </c>
       <c r="J147">
-        <v>-0.40694401000938302</v>
+        <v>4.4277360066833797E-2</v>
       </c>
       <c r="K147">
-        <v>-0.55425017277124999</v>
+        <v>-0.104247104247104</v>
       </c>
       <c r="L147">
-        <v>-0.76877703499803296</v>
+        <v>5.2195526097763102E-2</v>
       </c>
       <c r="M147">
-        <v>0.27179999999999999</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="148" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A148" s="2" t="s">
-        <v>292</v>
+        <v>194</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>293</v>
+        <v>195</v>
       </c>
       <c r="C148" s="5">
-        <v>44315</v>
+        <v>44309</v>
       </c>
       <c r="D148" s="3">
-        <v>3985.6184159999998</v>
+        <v>2844.3369000000002</v>
       </c>
       <c r="E148" s="4">
-        <v>1.2879449914049062E-2</v>
-      </c>
-      <c r="F148">
-        <v>-5.13043478260869E-2</v>
+        <v>3.2292801580385343E-3</v>
       </c>
       <c r="G148">
-        <v>-5.359477124183E-2</v>
+        <v>-7.1123755334281304E-3</v>
       </c>
       <c r="H148">
-        <v>-2.1546261089987199E-2</v>
+        <v>-3.2069970845481001E-2</v>
       </c>
       <c r="I148">
-        <v>-4.4492440604751597E-2</v>
+        <v>-1.1428571428571401E-2</v>
       </c>
       <c r="J148">
-        <v>9.0163934426228994E-3</v>
+        <v>-1.41442715700138E-3</v>
       </c>
       <c r="K148">
-        <v>1.46699266503667E-2</v>
+        <v>5.97609561752988E-2</v>
       </c>
       <c r="L148">
-        <v>3.4730538922155697E-2</v>
+        <v>0.24278074866310101</v>
       </c>
       <c r="M148">
-        <v>0.09</v>
+        <v>0.16289999999999999</v>
       </c>
     </row>
     <row r="149" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A149" s="2" t="s">
-        <v>294</v>
+        <v>86</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>295</v>
+        <v>87</v>
       </c>
       <c r="C149" s="5">
-        <v>44316</v>
+        <v>44299</v>
       </c>
       <c r="D149" s="3">
-        <v>13603.757917999999</v>
+        <v>1213.4820999999999</v>
       </c>
       <c r="E149" s="4">
-        <v>3.5391629023150808E-2</v>
+        <v>3.2258917906646898E-3</v>
       </c>
       <c r="F149">
-        <v>1.12973760932945E-2</v>
+        <v>4.52488687782805E-2</v>
       </c>
       <c r="G149">
-        <v>-8.0876494023904205E-2</v>
+        <v>4.7169811320755799E-3</v>
       </c>
       <c r="H149">
-        <v>-3.6287242169595002E-2</v>
+        <v>-1.9323671497584499E-2</v>
       </c>
       <c r="I149">
-        <v>-2.57088846880907E-2</v>
+        <v>-2.92682926829268E-2</v>
       </c>
       <c r="J149">
-        <v>8.0438756855576703E-3</v>
+        <v>-1.9323671497584499E-2</v>
       </c>
       <c r="K149">
-        <v>8.7453750420450699E-2</v>
+        <v>-4.76190476190466E-3</v>
       </c>
       <c r="L149">
-        <v>-1.04283054003723E-2</v>
+        <v>-3.4313725490195998E-2</v>
       </c>
       <c r="M149">
-        <v>0.26</v>
+        <v>3.7699999999999997E-2</v>
       </c>
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A150" s="2" t="s">
-        <v>296</v>
+        <v>78</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>297</v>
+        <v>79</v>
       </c>
       <c r="C150" s="5">
-        <v>44316</v>
+        <v>44298</v>
       </c>
       <c r="D150" s="3">
-        <v>87057.666431999998</v>
+        <v>1210103.3287500001</v>
       </c>
       <c r="E150" s="4">
-        <v>8.8605382145044306E-2</v>
+        <v>6.8032361284970477E-2</v>
       </c>
       <c r="F150">
-        <v>-7.3249089740843903E-2</v>
+        <v>4.2166484914576502E-2</v>
       </c>
       <c r="G150">
-        <v>-8.1588603496654394E-2</v>
+        <v>3.90226112326768E-2</v>
       </c>
       <c r="H150">
-        <v>8.6916909620991301E-2</v>
+        <v>0.100682593856655</v>
       </c>
       <c r="I150">
-        <v>-0.30596820432629601</v>
+        <v>6.9890575361807095E-2</v>
       </c>
       <c r="J150">
-        <v>-0.240346534653465</v>
+        <v>-2.6636225266362299E-3</v>
       </c>
       <c r="K150">
-        <v>-0.228186274509804</v>
+        <v>-0.498010233086981</v>
       </c>
       <c r="L150">
-        <v>-0.50570913461538403</v>
+        <v>-0.54274004683840704</v>
       </c>
       <c r="M150">
-        <v>0.20630000000000001</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="151" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A151" s="2" t="s">
-        <v>298</v>
+        <v>198</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>299</v>
+        <v>199</v>
       </c>
       <c r="C151" s="5">
-        <v>44316</v>
+        <v>44309</v>
       </c>
       <c r="D151" s="3">
-        <v>28166.735322</v>
+        <v>5177.833232</v>
       </c>
       <c r="E151" s="4">
-        <v>3.0946864460045874E-2</v>
+        <v>1.0859592840192533E-2</v>
       </c>
       <c r="F151">
-        <v>2.9210689869484101E-2</v>
+        <v>3.6190476190476203E-2</v>
       </c>
       <c r="G151">
-        <v>3.5802469135802401E-2</v>
+        <v>3.4351145038168003E-2</v>
       </c>
       <c r="H151">
-        <v>-5.5405405405405297E-2</v>
+        <v>4.70809792843691E-2</v>
       </c>
       <c r="I151">
-        <v>-0.103886925795052</v>
+        <v>2.3166023166023099E-2</v>
       </c>
       <c r="J151">
-        <v>-0.10310734463276799</v>
+        <v>-5.4166666666666599E-2</v>
       </c>
       <c r="K151">
-        <v>9.6587622903412301E-2</v>
+        <v>1.93798449612404E-2</v>
       </c>
       <c r="L151">
-        <v>0.19276485788113701</v>
+        <v>3.9370078740158304E-3</v>
       </c>
       <c r="M151">
-        <v>0.44240000000000002</v>
+        <v>0.217</v>
       </c>
     </row>
     <row r="152" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A152" s="2" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="C152" s="5">
         <v>44316</v>
       </c>
       <c r="D152" s="3">
-        <v>9481.7349119999999</v>
+        <v>635962.44027499994</v>
       </c>
       <c r="E152" s="4">
-        <v>1.5707927868465105E-2</v>
+        <v>0.15302857001552081</v>
       </c>
       <c r="F152">
-        <v>1.8975332068310699E-3</v>
+        <v>2.79850746268656E-2</v>
       </c>
       <c r="G152">
-        <v>-5.7361376673038898E-3</v>
+        <v>-2.0368194281237699E-2</v>
       </c>
       <c r="H152">
-        <v>-5.7361376673038898E-3</v>
+        <v>-2.69438029253272E-3</v>
       </c>
       <c r="I152">
-        <v>-4.7808764940239001E-2</v>
+        <v>8.46802529866479E-2</v>
       </c>
       <c r="J152">
-        <v>-3.8167938931296802E-3</v>
+        <v>0.162379421221864</v>
       </c>
       <c r="K152">
-        <v>-8.6776859504132206E-2</v>
+        <v>0.44668649107901398</v>
       </c>
       <c r="L152">
-        <v>-0.387862796833773</v>
+        <v>0.55764985566309999</v>
       </c>
       <c r="M152">
-        <v>-2.6700000000000002E-2</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="153" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A153" s="2" t="s">
-        <v>302</v>
+        <v>280</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="C153" s="5">
-        <v>44316</v>
+        <v>44315</v>
       </c>
       <c r="D153" s="3">
-        <v>108229.04549600001</v>
+        <v>25215.502454999998</v>
       </c>
       <c r="E153" s="4">
-        <v>0.18571472633201622</v>
+        <v>4.9372404284414702E-2</v>
       </c>
       <c r="F153">
-        <v>2.1385799828913601E-2</v>
+        <v>-1.41843971631204E-2</v>
       </c>
       <c r="G153">
-        <v>1.29421915444348E-2</v>
+        <v>-2.3364485981307902E-3</v>
       </c>
       <c r="H153">
-        <v>9.5238095238096201E-3</v>
+        <v>1.6055045871559599E-2</v>
       </c>
       <c r="I153">
-        <v>-2.6929982046678499E-2</v>
+        <v>1.6055045871559599E-2</v>
       </c>
       <c r="J153">
-        <v>4.4277360066833797E-2</v>
+        <v>-4.6838407494146196E-3</v>
       </c>
       <c r="K153">
-        <v>-0.104247104247104</v>
+        <v>1.83066361556064E-2</v>
       </c>
       <c r="L153">
-        <v>5.2195526097763102E-2</v>
+        <v>-8.3333333333333301E-2</v>
       </c>
       <c r="M153">
-        <v>0.16</v>
+        <v>0.20200000000000001</v>
       </c>
     </row>
     <row r="154" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A154" s="2" t="s">
-        <v>304</v>
+        <v>98</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>305</v>
+        <v>99</v>
       </c>
       <c r="C154" s="5">
-        <v>44316</v>
+        <v>44300</v>
       </c>
       <c r="D154" s="3">
-        <v>635962.44027499994</v>
+        <v>125967.85448000001</v>
       </c>
       <c r="E154" s="4">
-        <v>0.15302857001552081</v>
+        <v>4.9298777858657133E-2</v>
       </c>
       <c r="F154">
-        <v>2.79850746268656E-2</v>
+        <v>3.29144225014961E-2</v>
       </c>
       <c r="G154">
-        <v>-2.0368194281237699E-2</v>
+        <v>1.2224938875305499E-2</v>
       </c>
       <c r="H154">
-        <v>-2.69438029253272E-3</v>
+        <v>-7.9492317969271795E-2</v>
       </c>
       <c r="I154">
-        <v>8.46802529866479E-2</v>
+        <v>-7.9492317969271795E-2</v>
       </c>
       <c r="J154">
-        <v>0.162379421221864</v>
+        <v>-6.03674540682414E-2</v>
       </c>
       <c r="K154">
-        <v>0.44668649107901398</v>
+        <v>7.4985689753863702E-2</v>
       </c>
       <c r="L154">
-        <v>0.55764985566309999</v>
+        <v>8.5889570552147507E-3</v>
       </c>
       <c r="M154">
-        <v>0.45</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="155" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A155" s="2" t="s">
-        <v>306</v>
+        <v>222</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>307</v>
+        <v>223</v>
       </c>
       <c r="C155" s="5">
-        <v>44316</v>
+        <v>44312</v>
       </c>
       <c r="D155" s="3">
-        <v>87683.108531999998</v>
+        <v>6584.582985</v>
       </c>
       <c r="E155" s="4">
-        <v>4.2117534979451816E-2</v>
+        <v>1.7252899912725467E-2</v>
       </c>
       <c r="F155">
-        <v>-1.38686131386862E-2</v>
+        <v>2.5356576862123399E-2</v>
       </c>
       <c r="G155">
-        <v>-8.2197117257498994E-2</v>
+        <v>0.100877192982456</v>
       </c>
       <c r="H155">
-        <v>-3.7341299477221798E-2</v>
+        <v>0.14583333333333301</v>
       </c>
       <c r="I155">
-        <v>-3.4251675353685798E-2</v>
+        <v>0.113832853025936</v>
       </c>
       <c r="J155">
-        <v>2.7651382569128399E-2</v>
+        <v>0.113832853025936</v>
       </c>
       <c r="K155">
-        <v>1.6985138004246201E-2</v>
+        <v>-3.18791946308725E-2</v>
       </c>
       <c r="L155">
-        <v>7.83012607830125E-2</v>
+        <v>0.11127167630057699</v>
       </c>
       <c r="M155">
-        <v>0.28129999999999999</v>
+        <v>-0.02</v>
       </c>
     </row>
     <row r="156" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A156" s="2" t="s">
-        <v>308</v>
+        <v>264</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>309</v>
+        <v>265</v>
       </c>
       <c r="C156" s="5">
-        <v>44316</v>
+        <v>44314</v>
       </c>
       <c r="D156" s="3">
-        <v>64816.2</v>
+        <v>49143.282820000008</v>
       </c>
       <c r="E156" s="4">
-        <v>0.10002249943751407</v>
+        <v>4.2373708264765282E-2</v>
       </c>
       <c r="F156">
-        <v>9.0909090909090898E-2</v>
+        <v>-3.9045553145336101E-2</v>
       </c>
       <c r="G156">
-        <v>0.24860853432282001</v>
+        <v>-5.3905390539053903E-2</v>
       </c>
       <c r="H156">
-        <v>0.44897959183673403</v>
+        <v>-4.9288061336253998E-2</v>
       </c>
       <c r="I156">
-        <v>0.39439252336448599</v>
+        <v>-4.4711014176662997E-2</v>
       </c>
       <c r="J156">
-        <v>0.39416604338070299</v>
+        <v>-2.6795284030010701E-2</v>
       </c>
       <c r="K156">
-        <v>0.40419271791099598</v>
+        <v>1.1351909184726399E-2</v>
       </c>
       <c r="L156">
-        <v>0.29900475984422298</v>
+        <v>-0.123094958968347</v>
       </c>
       <c r="M156">
-        <v>0.19</v>
+        <v>0.15379999999999999</v>
       </c>
     </row>
     <row r="157" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A157" s="2" t="s">
-        <v>310</v>
+        <v>116</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>311</v>
+        <v>117</v>
       </c>
       <c r="C157" s="5">
-        <v>44316</v>
+        <v>44301</v>
       </c>
       <c r="D157" s="3">
-        <v>419.99174999999997</v>
+        <v>70370.764320000002</v>
       </c>
       <c r="E157" s="4">
-        <v>3.0027369287587645E-4</v>
+        <v>9.8249834850822997E-3</v>
       </c>
       <c r="F157">
-        <v>-4.2507204610950797E-2</v>
+        <v>6.1248527679623001E-2</v>
       </c>
       <c r="G157">
-        <v>-7.5037147102525903E-2</v>
+        <v>2.9190992493744899E-3</v>
       </c>
       <c r="H157">
-        <v>-9.7875569044005795E-2</v>
+        <v>-1.9181585677749299E-2</v>
       </c>
       <c r="I157">
-        <v>-7.9689598567377798E-2</v>
+        <v>-1.9181585677749299E-2</v>
       </c>
       <c r="J157">
-        <v>-0.10660752523707499</v>
+        <v>-3.2829373650107997E-2</v>
       </c>
       <c r="K157">
-        <v>-1.0784257397299599</v>
+        <v>-0.12570621468926499</v>
       </c>
       <c r="L157">
-        <v>-1.6405109489051</v>
+        <v>-0.164637116415002</v>
       </c>
       <c r="M157">
-        <v>0.52</v>
+        <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="158" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A158" s="2" t="s">
-        <v>312</v>
+        <v>250</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>313</v>
+        <v>251</v>
       </c>
       <c r="C158" s="5">
-        <v>44316</v>
+        <v>44314</v>
       </c>
       <c r="D158" s="3">
-        <v>1323.9224400000001</v>
+        <v>66718.906575000001</v>
       </c>
       <c r="E158" s="4">
-        <v>2.1437659469631856E-3</v>
+        <v>3.2278622686931727E-2</v>
       </c>
       <c r="F158">
-        <v>5.7539958304377997E-2</v>
+        <v>-2.2156573116692102E-3</v>
       </c>
       <c r="G158">
-        <v>-3.2115677321156701E-2</v>
+        <v>-9.9230960059538201E-3</v>
       </c>
       <c r="H158">
-        <v>3.0731846769582499E-2</v>
+        <v>-1.6733266733266701E-2</v>
       </c>
       <c r="I158">
-        <v>4.5601688951442503E-2</v>
+        <v>-2.9563932002955699E-3</v>
       </c>
       <c r="J158">
-        <v>0.111038280020975</v>
+        <v>6.3922740859967797E-2</v>
       </c>
       <c r="K158">
-        <v>0.21425260718424</v>
+        <v>6.1981566820276397E-2</v>
       </c>
       <c r="L158">
-        <v>-7.2433971216194895E-2</v>
+        <v>7.3087431693989E-2</v>
       </c>
       <c r="M158">
-        <v>0.82499999999999996</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="159" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A159" s="2" t="s">
-        <v>314</v>
+        <v>218</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>315</v>
+        <v>219</v>
       </c>
       <c r="C159" s="5">
-        <v>44316</v>
+        <v>44312</v>
       </c>
       <c r="D159" s="3">
-        <v>225743.40000000002</v>
+        <v>142939.92495300001</v>
       </c>
       <c r="E159" s="4">
-        <v>9.3985973442734516E-2</v>
+        <v>0.4389421033238694</v>
       </c>
       <c r="F159">
-        <v>-1.5684517140936698E-2</v>
+        <v>-1.4134275618374499E-2</v>
       </c>
       <c r="G159">
-        <v>-7.5529895602657396E-2</v>
+        <v>7.7170418006430694E-2</v>
       </c>
       <c r="H159">
-        <v>1.8122743682310399E-2</v>
+        <v>0.122324159021406</v>
       </c>
       <c r="I159">
-        <v>0.136077758719268</v>
+        <v>0.10312499999999999</v>
       </c>
       <c r="J159">
-        <v>0.26011969532100099</v>
+        <v>0.11692307692307601</v>
       </c>
       <c r="K159">
-        <v>0.37904109589041002</v>
+        <v>0.27525252525252503</v>
       </c>
       <c r="L159">
-        <v>0.38743243243243197</v>
+        <v>0.36784140969162898</v>
       </c>
       <c r="M159">
-        <v>1.31</v>
+        <v>7.7999999999999996E-3</v>
       </c>
     </row>
     <row r="160" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A160" s="2" t="s">
-        <v>316</v>
+        <v>274</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>317</v>
+        <v>275</v>
       </c>
       <c r="C160" s="5">
-        <v>44316</v>
+        <v>44315</v>
       </c>
       <c r="D160" s="3">
-        <v>13925.060579999999</v>
+        <v>70061.865999999995</v>
       </c>
       <c r="E160" s="4">
-        <v>4.0384513451847542E-2</v>
+        <v>0.25032608695652175</v>
       </c>
       <c r="F160">
-        <v>3.2650945840891503E-2</v>
+        <v>9.0794979079497795E-2</v>
       </c>
       <c r="G160">
-        <v>-8.0428954423595505E-4</v>
+        <v>0.24861687413554601</v>
       </c>
       <c r="H160">
-        <v>1.08638049814521E-2</v>
+        <v>0.16870696250956299</v>
       </c>
       <c r="I160">
-        <v>5.1816103632207199E-2</v>
+        <v>0.103917525773195</v>
       </c>
       <c r="J160">
-        <v>0.14262746899402801</v>
+        <v>2.07300585849482E-2</v>
       </c>
       <c r="K160">
-        <v>0.16487695749440701</v>
+        <v>-8.7043521760880496E-2</v>
       </c>
       <c r="L160">
-        <v>0.30172091283202401</v>
+        <v>-0.21532438478747201</v>
       </c>
       <c r="M160">
-        <v>0.47</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="161" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A161" s="2" t="s">
-        <v>318</v>
+        <v>256</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>319</v>
+        <v>257</v>
       </c>
       <c r="C161" s="5">
-        <v>44316</v>
+        <v>44314</v>
       </c>
       <c r="D161" s="3">
-        <v>133499.48651000002</v>
+        <v>289052.08999999997</v>
       </c>
       <c r="E161" s="4">
-        <v>0.2370834645868922</v>
+        <v>0.25001973632272834</v>
       </c>
       <c r="F161">
-        <v>0.13953488372093001</v>
+        <v>-0.23454619234410901</v>
       </c>
       <c r="G161">
-        <v>0.23747622067216201</v>
+        <v>-0.42631661197061999</v>
       </c>
       <c r="H161">
-        <v>0.14822029396139499</v>
+        <v>-0.50784734842226897</v>
       </c>
       <c r="I161">
-        <v>-6.8888888888888902E-2</v>
+        <v>-0.53137583892617402</v>
       </c>
       <c r="J161">
-        <v>-0.116009280742459</v>
+        <v>-0.54537758211987797</v>
       </c>
       <c r="K161">
-        <v>-0.23017902813299199</v>
+        <v>-1.1715441351415601</v>
       </c>
       <c r="L161">
-        <v>-0.15736284889316601</v>
+        <v>-1.6077142857142801</v>
       </c>
       <c r="M161">
-        <v>0.53</v>
+        <v>1.57</v>
       </c>
     </row>
     <row r="162" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A162" s="2" t="s">
-        <v>320</v>
+        <v>84</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>321</v>
+        <v>85</v>
       </c>
       <c r="C162" s="5">
-        <v>44316</v>
+        <v>44299</v>
       </c>
       <c r="D162" s="3">
-        <v>2603.6928899999998</v>
+        <v>5830.0715199999995</v>
       </c>
       <c r="E162" s="4">
-        <v>6.3022595323701579E-4</v>
+        <v>2.3079119583608757E-2</v>
       </c>
       <c r="F162">
-        <v>-5.8566372909582901E-2</v>
+        <v>2.4128686327077702E-2</v>
       </c>
       <c r="G162">
-        <v>-7.847295864263E-2</v>
+        <v>1.35501355013549E-2</v>
       </c>
       <c r="H162">
-        <v>3.52733686067014E-3</v>
+        <v>8.1743869209808702E-3</v>
       </c>
       <c r="I162">
-        <v>9.0882002383790197E-2</v>
+        <v>2.8037383177569999E-2</v>
       </c>
       <c r="J162">
-        <v>7.0667072799268899E-2</v>
+        <v>3.32005312084993E-2</v>
       </c>
       <c r="K162">
-        <v>0.171059066456555</v>
+        <v>5.3315994798439501E-2</v>
       </c>
       <c r="L162">
-        <v>0.23187311178247699</v>
+        <v>6.1855670103092703E-2</v>
       </c>
       <c r="M162">
-        <v>0.6</v>
+        <v>0.1736</v>
       </c>
     </row>
     <row r="163" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A163" s="2" t="s">
-        <v>322</v>
+        <v>90</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>323</v>
+        <v>91</v>
       </c>
       <c r="C163" s="5">
-        <v>44316</v>
+        <v>44299</v>
       </c>
       <c r="D163" s="3">
-        <v>806.12505999999996</v>
+        <v>17068.964616000001</v>
       </c>
       <c r="E163" s="4">
-        <v>1.5473877251281464E-4</v>
+        <v>3.6675642229979676E-2</v>
       </c>
       <c r="F163">
-        <v>4.9528104902697698E-2</v>
+        <v>-2.60504201680672E-2</v>
       </c>
       <c r="G163">
-        <v>2.0063721691208101E-2</v>
+        <v>-0.16285714285714201</v>
       </c>
       <c r="H163">
-        <v>8.1961923201032502E-2</v>
+        <v>-0.21613545816733001</v>
       </c>
       <c r="I163">
-        <v>9.8320716958149208E-3</v>
+        <v>-0.20414201183431899</v>
       </c>
       <c r="J163">
-        <v>9.9042039426807102E-2</v>
+        <v>9.6893491124260198E-2</v>
       </c>
       <c r="K163">
-        <v>0.111354052787755</v>
+        <v>6.7938931297709795E-2</v>
       </c>
       <c r="L163">
-        <v>-1.1915347679174799E-2</v>
+        <v>-1.15990057995029E-2</v>
       </c>
       <c r="M163">
-        <v>0.93</v>
+        <v>2.7400000000000001E-2</v>
       </c>
     </row>
     <row r="164" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A164" s="2" t="s">
-        <v>324</v>
+        <v>148</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>325</v>
+        <v>149</v>
       </c>
       <c r="C164" s="5">
-        <v>44316</v>
+        <v>44305</v>
       </c>
       <c r="D164" s="3">
-        <v>1063.78944</v>
+        <v>567850.46383799997</v>
       </c>
       <c r="E164" s="4">
-        <v>4.7750710055348118E-3</v>
+        <v>4.1960530644241059E-2</v>
       </c>
       <c r="F164">
-        <v>-9.0090090090089708E-3</v>
+        <v>2.7390438247011799E-2</v>
       </c>
       <c r="G164">
-        <v>-2.09662716499542E-2</v>
+        <v>-5.8823529411764698E-2</v>
       </c>
       <c r="H164">
-        <v>-3.1307550644567202E-2</v>
+        <v>-6.6048034934497804E-2</v>
       </c>
       <c r="I164">
-        <v>-2.00364298724953E-2</v>
+        <v>-9.1366303436714202E-2</v>
       </c>
       <c r="J164">
-        <v>-3.5842293906809199E-3</v>
+        <v>-2.8165306659647199E-2</v>
       </c>
       <c r="K164">
-        <v>5.0042408821034702E-2</v>
+        <v>-0.247126436781609</v>
       </c>
       <c r="L164">
-        <v>-1.1743450767840899E-2</v>
+        <v>-0.30722891566264998</v>
       </c>
       <c r="M164">
-        <v>0.28000000000000003</v>
+        <v>0.73229999999999995</v>
       </c>
     </row>
     <row r="165" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A165" s="2" t="s">
-        <v>326</v>
+        <v>154</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>327</v>
+        <v>155</v>
       </c>
       <c r="C165" s="5">
-        <v>44316</v>
+        <v>44306</v>
       </c>
       <c r="D165" s="3">
-        <v>7929.2121349999998</v>
+        <v>947543.33917799999</v>
       </c>
       <c r="E165" s="4">
-        <v>9.329203539867735E-3</v>
+        <v>4.9342033234854622E-2</v>
       </c>
       <c r="F165">
-        <v>-4.3874172185430403E-2</v>
+        <v>2.1670103092783399E-2</v>
       </c>
       <c r="G165">
-        <v>-0.103237095363079</v>
+        <v>4.6442926045016097E-2</v>
       </c>
       <c r="H165">
-        <v>-8.4264832330180395E-2</v>
+        <v>7.5714793666729497E-3</v>
       </c>
       <c r="I165">
-        <v>-0.15582034830430699</v>
+        <v>-1.3867521367521301E-2</v>
       </c>
       <c r="J165">
-        <v>-0.190745986779981</v>
+        <v>6.2476536721266102E-2</v>
       </c>
       <c r="K165">
-        <v>-0.205544933078393</v>
+        <v>-0.198509724677949</v>
       </c>
       <c r="L165">
-        <v>-0.63341968911917101</v>
+        <v>-0.151954357853848</v>
       </c>
       <c r="M165">
-        <v>-0.26</v>
+        <v>4.75</v>
       </c>
     </row>
     <row r="166" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A166" s="2" t="s">
-        <v>328</v>
+        <v>226</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>329</v>
+        <v>227</v>
       </c>
       <c r="C166" s="5">
-        <v>44316</v>
+        <v>44312</v>
       </c>
       <c r="D166" s="3">
-        <v>12266.805299999998</v>
+        <v>467494.13698000001</v>
       </c>
       <c r="E166" s="4">
-        <v>9.0406478986729873E-3</v>
+        <v>5.1034961214167111E-2</v>
       </c>
       <c r="F166">
-        <v>-2.1526980482204298E-2</v>
+        <v>-2.8711056811240001E-2</v>
       </c>
       <c r="G166">
-        <v>-3.6642199697075502E-2</v>
+        <v>8.2449941107185197E-3</v>
       </c>
       <c r="H166">
-        <v>2.2252747252747299E-2</v>
+        <v>0.21491841491841401</v>
       </c>
       <c r="I166">
-        <v>0.128550440744368</v>
+        <v>0.26814428509343702</v>
       </c>
       <c r="J166">
-        <v>0.17074420988862399</v>
+        <v>0.23972911963882601</v>
       </c>
       <c r="K166">
-        <v>0.43146964856230002</v>
+        <v>0.36308623298033199</v>
       </c>
       <c r="L166">
-        <v>0.40295252474416998</v>
+        <v>0.135523613963039</v>
       </c>
       <c r="M166">
-        <v>0.6</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="167" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A167" s="2" t="s">
-        <v>330</v>
+        <v>24</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>331</v>
+        <v>25</v>
       </c>
       <c r="C167" s="5">
-        <v>44316</v>
+        <v>44292</v>
       </c>
       <c r="D167" s="3">
-        <v>80574.999999999985</v>
+        <v>23248.628015999999</v>
       </c>
       <c r="E167" s="4">
-        <v>0.25</v>
+        <v>2.4276052403058371E-2</v>
       </c>
       <c r="F167">
-        <v>9.0832157968970498E-2</v>
+        <v>-1.9838354151359299E-2</v>
       </c>
       <c r="G167">
-        <v>0.248717948717948</v>
+        <v>-6.5264684554025799E-3</v>
       </c>
       <c r="H167">
-        <v>0.105963938973647</v>
+        <v>1.90812720848056E-2</v>
       </c>
       <c r="I167">
-        <v>0.144184811471056</v>
+        <v>6.4423765211166599E-3</v>
       </c>
       <c r="J167">
-        <v>2.18512898330806E-2</v>
+        <v>3.8115038115037997E-2</v>
       </c>
       <c r="K167">
-        <v>0.118917441224713</v>
+        <v>5.0179211469532897E-3</v>
       </c>
       <c r="L167">
-        <v>-5.0521512385919003E-2</v>
+        <v>-8.0996884735202501E-2</v>
       </c>
       <c r="M167">
-        <v>1.23</v>
+        <v>0.16470000000000001</v>
       </c>
     </row>
     <row r="168" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A168" s="2" t="s">
-        <v>332</v>
+        <v>94</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>333</v>
+        <v>95</v>
       </c>
       <c r="C168" s="5">
-        <v>44316</v>
+        <v>44299</v>
       </c>
       <c r="D168" s="3">
-        <v>19367.005649999999</v>
+        <v>414304.74533200002</v>
       </c>
       <c r="E168" s="4">
-        <v>8.9009848122513797E-3</v>
+        <v>0.65804603166459441</v>
       </c>
       <c r="F168">
-        <v>4.2372881355932498E-3</v>
+        <v>2.3856858846918499E-2</v>
       </c>
       <c r="G168">
-        <v>-1.7316017316017299E-2</v>
+        <v>-5.2518756698821001E-2</v>
       </c>
       <c r="H168">
-        <v>1.87891440501043E-2</v>
+        <v>-8.3885209713024197E-2</v>
       </c>
       <c r="I168">
-        <v>3.2921810699588501E-2</v>
+        <v>-5.2518756698821001E-2</v>
       </c>
       <c r="J168">
-        <v>6.1876247504989997E-2</v>
+        <v>-2.82722513089004E-2</v>
       </c>
       <c r="K168">
-        <v>1.5363128491620101E-2</v>
+        <v>3.2512315270935899E-2</v>
       </c>
       <c r="L168">
-        <v>7.9033311561071198E-2</v>
+        <v>0.13935144609991201</v>
       </c>
       <c r="M168">
-        <v>0.28999999999999998</v>
+        <v>0.18729999999999999</v>
       </c>
     </row>
     <row r="169" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A169" s="2" t="s">
-        <v>334</v>
+        <v>82</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>335</v>
+        <v>83</v>
       </c>
       <c r="C169" s="5">
-        <v>44316</v>
+        <v>44299</v>
       </c>
       <c r="D169" s="3">
-        <v>74711.057819999987</v>
+        <v>3912.11</v>
       </c>
       <c r="E169" s="4">
-        <v>0.2556512800420771</v>
+        <v>2.7480258078206531E-3</v>
       </c>
       <c r="F169">
-        <v>4.82573726541555E-2</v>
+        <v>9.38967136150234E-2</v>
       </c>
       <c r="G169">
-        <v>0.12669126691266899</v>
+        <v>5.0196850393700698E-2</v>
       </c>
       <c r="H169">
-        <v>0.15476190476190399</v>
+        <v>-1.5789473684210499E-2</v>
       </c>
       <c r="I169">
-        <v>0.124537607891491</v>
+        <v>-7.3068893528183999E-3</v>
       </c>
       <c r="J169">
-        <v>9.3231162196679498E-2</v>
+        <v>-0.100342075256556</v>
       </c>
       <c r="K169">
-        <v>0.19683257918552</v>
+        <v>-0.137971698113207</v>
+      </c>
+      <c r="L169">
+        <v>-0.209273182957393</v>
       </c>
       <c r="M169">
-        <v>1.5800000000000002E-2</v>
+        <v>0.52</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M169">
+    <sortCondition descending="1" ref="A1:A169"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>